--- a/Lyft/LYFT_FM.xlsx
+++ b/Lyft/LYFT_FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\Projects\IB Projects\Equity_Research\Lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B437F2-9D88-4284-939D-3C0E7D42A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D494EF-F25E-497E-A8DD-B9BBCAB40AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,20 @@
     <sheet name="Debt_Schedule" sheetId="6" r:id="rId4"/>
     <sheet name="3_Statement_Model" sheetId="1" r:id="rId5"/>
     <sheet name="DCF" sheetId="10" r:id="rId6"/>
-    <sheet name="Assumptions" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
-    <sheet name="Revenue_Regression" sheetId="2" r:id="rId9"/>
+    <sheet name="Comps_Analysis" sheetId="11" r:id="rId7"/>
+    <sheet name="Assumptions" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Revenue_Regression" sheetId="2" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">DCF!$L$37:$L$39</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">DCF!$N$37:$N$39</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">DCF!$L$37:$L$39</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">DCF!$N$37:$N$39</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">DCF!$L$37:$L$39</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">DCF!$N$37:$N$39</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">DCF!$L$37:$L$39</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">DCF!$N$37:$N$39</definedName>
     <definedName name="S">'3_Statement_Model'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -868,11 +874,53 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="7">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
         </ext>
       </extLst>
     </bk>
@@ -882,16 +930,34 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="7">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="397">
   <si>
     <t>Income Statement</t>
   </si>
@@ -2005,13 +2071,91 @@
   </si>
   <si>
     <t>Changes in WC</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Total Capital</t>
+  </si>
+  <si>
+    <t>Cost of debt</t>
+  </si>
+  <si>
+    <t>Risk free rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Equity Risk premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Equity </t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>© Corporate Finance Institute®. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Comparable Company Analysis</t>
+  </si>
+  <si>
+    <t>Market Data</t>
+  </si>
+  <si>
+    <t>Financial Data</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>EV/Sales</t>
+  </si>
+  <si>
+    <t>EV/EBIT</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>($/share)</t>
+  </si>
+  <si>
+    <t>($M)</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="17">
+  <numFmts count="19">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0000&quot;A&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;[Red]\(#,##0.0\);&quot;-&quot;"/>
@@ -2029,8 +2173,10 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="190" formatCode="#,##0.00;\(#,##0.00\);&quot;-&quot;"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,6 +2479,79 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -2443,7 +2662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2763,15 +2982,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3126,17 +3355,100 @@
     <xf numFmtId="175" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="49" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Hyperlink 3" xfId="5" xr:uid="{AB9E4421-72E2-4B4E-B40B-CE889B59CF50}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{250CF584-F440-432F-98D8-21A66D79015D}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -3193,13 +3505,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ZA" b="1">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
+                <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Cash Flows</a:t>
+              <a:t>Cashflows</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3254,7 +3577,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3516,7 +3839,171 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Market Value vs Intrinsic Value</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{AD24576B-7C3B-4115-9251-53644503BF3A}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels pos="outEnd">
+            <cx:numFmt formatCode="&quot;$&quot;# ##0,0" sourceLinked="0"/>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals>
+              <cx:idx val="2"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4059,6 +4546,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4097,43 +5092,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1492CCE-D4F8-B2E2-2EC0-09E206F80C64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7658100" y="1419224"/>
+              <a:ext cx="3800475" cy="2166937"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="DCF Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="19">
-          <cell r="E19">
-            <v>43281</v>
-          </cell>
-          <cell r="F19">
-            <v>43646</v>
-          </cell>
-          <cell r="G19">
-            <v>44012</v>
-          </cell>
-          <cell r="H19">
-            <v>44377</v>
-          </cell>
-          <cell r="I19">
-            <v>44742</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4174,6 +5211,13 @@
     </keyFlags>
   </global>
   <types>
+    <type name="_imageurl">
+      <keyFlags>
+        <key name="Blip Identifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
     <type name="_linkedentity">
       <keyFlags>
         <key name="%cvi">
@@ -4239,30 +5283,65 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="25">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=r6dwra&amp;q=US10Y&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-ZA</v>
+    <v>r6dwra</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>US Treasury 10Y</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>5.1400000000000001E-2</v>
+    <v>1.2815E-2</v>
+    <v>US</v>
+    <v>USD</v>
+    <v>Bond</v>
+    <v>45912.533680555556</v>
+    <v>0</v>
+    <v>49536</v>
+    <v>US Treasury 10Y</v>
+    <v>4.0110000000000001</v>
+    <v>4.0624000000000002</v>
+    <v>US10Y</v>
+    <v>US Treasury 10Y</v>
+    <v>4.2965000000000003E-2</v>
+    <v>4.086E-2</v>
+    <v>3.6514999999999999E-2</v>
+    <v>4.0320000000000002E-2</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=b6m84c&amp;q=XNAS%3aLYFT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
+  <rv s="3">
     <v>en-ZA</v>
     <v>b6m84c</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>0</v>
+    <v>5</v>
     <v>LYFT, INC. (XNAS:LYFT)</v>
-    <v>2</v>
-    <v>3</v>
+    <v>6</v>
+    <v>7</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>8</v>
     <v>19.350000000000001</v>
     <v>9.66</v>
-    <v>2.3504</v>
+    <v>2.3578999999999999</v>
     <v>-0.64</v>
-    <v>-9.4430000000000002E-4</v>
     <v>-3.3755E-2</v>
-    <v>-1.7299999999999999E-2</v>
     <v>USD</v>
     <v>Lyft, Inc. is a global mobility platform offering rideshare, taxis, private hire vehicles, car sharing, bikes, and scooters across North America and Europe. It operates across 11 countries and in nearly 1,000 cities, and Lyft Urban Solutions supports bike sharing in 16 countries and more than 86 cities. Its Lyft mobile application (the Lyft App) connects riders with drivers for on-demand ride services and supports a variety of other multimodal mobility solutions. Its offerings on the Lyft App include an expanded set of transportation modes in select cities, such as access to a network of shared bikes and scooters (Light Vehicles) for shorter rides and first-mile and last-mile legs of multimodal trips. FREENOW by Lyft is the European taxi app featuring broad multi-mobility options. Through FREENOW, passengers can access various mobility services within a single app, including taxis, private hire vehicles, car sharing, car rental, e-scooters, e-bikes, e-mopeds, and public transport.</v>
     <v>2934</v>
@@ -4273,35 +5352,343 @@
     <v>19.16</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45911.909329270311</v>
-    <v>0</v>
+    <v>45911.999835138282</v>
+    <v>3</v>
     <v>18.309999999999999</v>
     <v>7446008280</v>
     <v>LYFT, INC.</v>
     <v>LYFT, INC.</v>
     <v>19.04</v>
-    <v>85.848200000000006</v>
+    <v>85.852199999999996</v>
     <v>18.96</v>
     <v>18.32</v>
-    <v>18.302700000000002</v>
     <v>406441500</v>
     <v>LYFT</v>
     <v>LYFT, INC. (XNAS:LYFT)</v>
-    <v>16116784</v>
-    <v>22768450</v>
+    <v>127843</v>
+    <v>21608659</v>
     <v>2007</v>
   </rv>
   <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qc1h&amp;q=XNYS%3aCRM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-ZA</v>
+    <v>a1qc1h</v>
+    <v>268435456</v>
     <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>SALESFORCE, INC. (XNYS:CRM)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>369</v>
+    <v>226.48</v>
+    <v>1.2118</v>
+    <v>3.71</v>
+    <v>1.5295000000000001E-2</v>
+    <v>USD</v>
+    <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company helps organizations of any size reimagine their business for the world of artificial intelligence (AI). With Agentforce, its platform, organizations can bring humans together with AI agents to drive customer success on one deeply unified platform. With the Salesforce platform, it delivers a single source of truth, connecting customer data with integrated AI across systems, apps and devices to help companies sell, service, market and conduct commerce from anywhere. Agentforce is a new layer of the Salesforce platform that enables companies to build and deploy AI agents that can respond to inputs, make decisions and take action autonomously across business functions. Agentforce includes a suite of customizable agents for use across sales, service, marketing and commerce. Datablazer is a data-driven innovator, which leverages the Company’s platform to unlock insights and drive decisions.</v>
+    <v>76453</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
+    <v>247.17</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45911.999990821096</v>
+    <v>6</v>
+    <v>243.5</v>
+    <v>234458560000</v>
+    <v>SALESFORCE, INC.</v>
+    <v>SALESFORCE, INC.</v>
+    <v>243.7</v>
+    <v>35.7363</v>
+    <v>242.57</v>
+    <v>246.28</v>
+    <v>952000000</v>
+    <v>CRM</v>
+    <v>SALESFORCE, INC. (XNYS:CRM)</v>
+    <v>20926</v>
+    <v>10404849</v>
+    <v>1999</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bptw77&amp;q=XNYS%3aUBER&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-ZA</v>
+    <v>bptw77</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>UBER TECHNOLOGIES, INC. (XNYS:UBER)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>97.715000000000003</v>
+    <v>59.33</v>
+    <v>1.48</v>
+    <v>0.47</v>
+    <v>4.9890000000000004E-3</v>
+    <v>USD</v>
+    <v>Uber Technologies, Inc. operates a technology platform that uses network and technology to power movement from point A to point B. It develops and operates technology applications supporting a variety of offerings on its platform (platform(s)). Its segments include Mobility, Delivery and Freight. Mobility products connect consumers with drivers who provide rides in a variety of vehicles, such as cars, auto rickshaws, motorbikes, minibuses, or taxis. Delivery offerings allow consumers to search for and discover local restaurants, order a meal, and either pick-up at the restaurant or have the meal delivered. In certain markets, the Delivery segment provides offerings for grocery, alcohol, and convenience store delivery as well as select other goods. The Freight segment connects carriers with shippers on its platform, and gives carriers upfront, pricing and the ability to book a shipment. The Freight segment also includes transportation management and other logistics service offerings.</v>
+    <v>31100</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1725 3Rd Street, SAN FRANCISCO, CA, 94158 US</v>
+    <v>96.32</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45911.999916562498</v>
+    <v>9</v>
+    <v>94</v>
+    <v>197447470920</v>
+    <v>UBER TECHNOLOGIES, INC.</v>
+    <v>UBER TECHNOLOGIES, INC.</v>
+    <v>94.55</v>
+    <v>16.049700000000001</v>
+    <v>94.21</v>
+    <v>94.68</v>
+    <v>2085419000</v>
+    <v>UBER</v>
+    <v>UBER TECHNOLOGIES, INC. (XNYS:UBER)</v>
+    <v>27721</v>
+    <v>16297277</v>
+    <v>2010</v>
+  </rv>
+  <rv s="2">
+    <v>10</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yoa2&amp;q=XNYS%3aNOW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-ZA</v>
+    <v>a1yoa2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>SERVICENOW, INC. (XNYS:NOW)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>1198.0899999999999</v>
+    <v>678.65880000000004</v>
+    <v>0.92900000000000005</v>
+    <v>14.71</v>
+    <v>1.5927E-2</v>
+    <v>USD</v>
+    <v>ServiceNow, Inc. provides an artificial intelligence (AI) platform for business transformation. The Company’s AI platform connects people, processes, data, and devices to increase productivity and maximize business outcomes. Its intelligent platform, the Now Platform, is a cloud-based solution that helps enterprises and organizations across public and private sectors digitize workflows. The workflow applications built on the Now Platform are organized in four primary areas: technology, customer and industry, employee and creator. Its technology workflows empower information technology (IT) departments to plan, build, operate and service the IT needs of the business enterprise. Its customer and industry workflows help organizations reimagine their customer experience. Its employee workflows help customers simplify how their employees access services they need. Its creator workflows enable customers to automate processes by creating their own custom workflows on the Now Platform.</v>
+    <v>26293</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2225 Lawson Lane, SANTA CLARA, CA, 95054 US</v>
+    <v>942.67</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45911.995539467185</v>
+    <v>12</v>
+    <v>923.64499999999998</v>
+    <v>195162240000</v>
+    <v>SERVICENOW, INC.</v>
+    <v>SERVICENOW, INC.</v>
+    <v>927.72</v>
+    <v>118.1844</v>
+    <v>923.57</v>
+    <v>938.28</v>
+    <v>208000000</v>
+    <v>NOW</v>
+    <v>SERVICENOW, INC. (XNYS:NOW)</v>
+    <v>1807</v>
+    <v>1831586</v>
+    <v>2012</v>
+  </rv>
+  <rv s="2">
+    <v>13</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1vmtc&amp;q=XNAS%3aINTU&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-ZA</v>
+    <v>a1vmtc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>INTUIT INC. (XNAS:INTU)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>813.7</v>
+    <v>532.64499999999998</v>
+    <v>1.2554000000000001</v>
+    <v>4.26</v>
+    <v>6.4910000000000002E-3</v>
+    <v>USD</v>
+    <v>Intuit Inc. offers a financial technology platform that helps consumers and small and mid-market businesses prosper by delivering financial management, compliance, and marketing products and services. It also provides specialized tax products to accounting professionals. Its offerings include TurboTax, Credit Karma, QuickBooks, and Mailchimp. Lacerte, ProSeries, and ProConnect Tax Online. Its Global Business Solutions segment serves small and mid-market businesses around the world, and the accounting professionals who assist and advise them. Its Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services sold in the United States and Canada. Its Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations for credit card, home, auto, and personal loan, and insurance products. Its ProTax segment serves professional accountants in the United States and Canada.</v>
+    <v>18200</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>2700 Coast Avenue, MOUNTAIN VIEW, CA, 94043 US</v>
+    <v>666.39</v>
+    <v>Financial Technology (Fintech) &amp; Infrastructure</v>
+    <v>Stock</v>
+    <v>45911.999923541407</v>
+    <v>15</v>
+    <v>656.91</v>
+    <v>184156278600</v>
+    <v>INTUIT INC.</v>
+    <v>INTUIT INC.</v>
+    <v>660.29</v>
+    <v>48.314100000000003</v>
+    <v>656.26</v>
+    <v>660.52</v>
+    <v>278805000</v>
+    <v>INTU</v>
+    <v>INTUIT INC. (XNAS:INTU)</v>
+    <v>1348</v>
+    <v>2174286</v>
+    <v>1993</v>
+  </rv>
+  <rv s="2">
+    <v>16</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="0">
+    <v>http://es.wikipedia.org/wiki/Adobe_(empresa)</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="4">
+    <v>18</v>
+    <v>19</v>
+  </rv>
+  <rv s="5">
+    <v>13</v>
+    <v>https://www.bing.com/th?id=AMMS_503c684ccc667ad525fe1d703881df2c&amp;qlt=95</v>
+    <v>20</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=adobe+systems</v>
+    <v>Image of ADOBE INC.</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mv7w&amp;q=XNAS%3aADBE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="6">
+    <v>en-ZA</v>
+    <v>a1mv7w</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>9</v>
+    <v>ADOBE INC. (XNAS:ADBE)</v>
+    <v>11</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>587.75</v>
+    <v>330.04</v>
+    <v>1.4964999999999999</v>
+    <v>0.39</v>
+    <v>1.114E-3</v>
+    <v>USD</v>
+    <v>Adobe Inc. is a global technology company. The Company's products, services and solutions are used around the world to imagine, create, manage, deliver, measure, optimize and engage with content across surfaces and fuel digital experiences. Its segments include Digital Media, Digital Experience, and Publishing and Advertising. The Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud, which include Adobe Express, Adobe Firefly, Photoshop and other products, offering a variety of tools for creative professionals, communicators and other consumers. The Digital Experience segment provides an integrated platform and set of products, services and solutions through Adobe Experience Cloud. The Publishing and Advertising segment contains legacy products and services. In addition, its Adobe GenStudio solution allows businesses to simplify their content supply chain process with generative artificial intelligence (AI) capabilities and intelligent automation.</v>
+    <v>30709</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>345 Park Avenue, SAN JOSE, CA, 95110-2704 US</v>
+    <v>355.25</v>
+    <v>21</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45911.99999920078</v>
+    <v>22</v>
+    <v>347.16</v>
+    <v>148703310000</v>
+    <v>ADOBE INC.</v>
+    <v>ADOBE INC.</v>
+    <v>354.685</v>
+    <v>21.846299999999999</v>
+    <v>350.16</v>
+    <v>350.55</v>
+    <v>424200000</v>
+    <v>ADBE</v>
+    <v>ADOBE INC. (XNAS:ADBE)</v>
+    <v>761513</v>
+    <v>4020878</v>
+    <v>1997</v>
+  </rv>
+  <rv s="2">
+    <v>23</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Country/region" t="s"/>
+    <k n="Currency" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Maturity"/>
+    <k n="Name" t="s"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Yield last month"/>
+    <k n="Yield last week"/>
+    <k n="Yield last year"/>
+    <k n="Yield yesterday"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
   </s>
   <s t="_linkedentitycore">
     <k n="%EntityCulture" t="s"/>
@@ -4319,9 +5706,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -4342,7 +5727,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -4350,16 +5734,100 @@
     <k n="Volume average"/>
     <k n="Year incorporated"/>
   </s>
-  <s t="_linkedentity">
-    <k n="%cvi" t="r"/>
+  <s t="_sourceattribution">
+    <k n="License" t="r"/>
+    <k n="Source" t="r"/>
+  </s>
+  <s t="_imageurl">
+    <k n="_Provider" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
-    <a count="45">
+  <spbArrays count="3">
+    <a count="28">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">Price</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Yield yesterday</v>
+      <v t="s">Yield last week</v>
+      <v t="s">Yield last month</v>
+      <v t="s">Yield last year</v>
+      <v t="s">Maturity</v>
+      <v t="s">Country/region</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -4370,16 +5838,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -4406,8 +5871,53 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="5">
+  <spbData count="14">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -4422,49 +5932,112 @@
       <v>1</v>
       <v>1</v>
       <v>1</v>
-      <v>1</v>
     </spb>
     <spb s="3">
       <v>1</v>
       <v>2</v>
       <v>2</v>
+      <v>3</v>
+      <v>4</v>
+      <v>2</v>
+      <v>5</v>
+      <v>4</v>
+      <v>4</v>
+      <v>4</v>
+      <v>4</v>
+      <v>6</v>
+    </spb>
+    <spb s="4">
+      <v>GMT</v>
+    </spb>
+    <spb s="0">
       <v>1</v>
-      <v>3</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>1</v>
       <v>1</v>
       <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="6">
+      <v>2</v>
+      <v>7</v>
+      <v>7</v>
+      <v>2</v>
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>8</v>
+      <v>8</v>
       <v>4</v>
-      <v>4</v>
+      <v>9</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>8</v>
       <v>5</v>
+      <v>10</v>
       <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
       <v>8</v>
-      <v>9</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
-    <spb s="4">
-      <v>at close</v>
+    <spb s="7">
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
+    </spb>
+    <spb s="0">
+      <v>2</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="8">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="9">
+      <v>10</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="10">
+      <v>2</v>
+      <v>7</v>
+      <v>7</v>
+      <v>2</v>
+      <v>1</v>
+      <v>2</v>
+      <v>11</v>
+      <v>2</v>
+      <v>2</v>
+      <v>8</v>
+      <v>8</v>
+      <v>4</v>
+      <v>9</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>8</v>
+      <v>5</v>
+      <v>10</v>
+      <v>6</v>
+      <v>8</v>
+    </spb>
+    <spb s="11">
+      <v>Powered by Refinitiv</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="12">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -4474,6 +6047,28 @@
     <k n="ShowInCardView" t="b"/>
     <k n="ShowInDotNotation" t="b"/>
     <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Name" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Maturity" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Yield last week" t="i"/>
+    <k n="Yield last year" t="i"/>
+    <k n="Yield yesterday" t="i"/>
+    <k n="Yield last month" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
+    <k n="Last trade time" t="s"/>
   </s>
   <s>
     <k n="ExchangeID" t="spb"/>
@@ -4502,9 +6097,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -4512,16 +6104,50 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="Image" t="spb"/>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="name" t="s"/>
   </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="7">
+  <dxfs count="8">
     <x:dxf>
       <x:numFmt numFmtId="2" formatCode="0.00"/>
     </x:dxf>
@@ -4543,34 +6169,42 @@
     <x:dxf>
       <x:numFmt numFmtId="1" formatCode="0"/>
     </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </x:dxf>
   </dxfs>
   <richProperties>
+    <rPr n="IsTitleField" t="b"/>
     <rPr n="NumberFormat" t="s"/>
-    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
   </richProperties>
   <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
     <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+      <rpv i="1">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="7"/>
+    <rSty dxfid="3"/>
+    <rSty dxfid="2"/>
+    <rSty dxfid="0">
+      <rpv i="1">0.00</rpv>
     </rSty>
     <rSty dxfid="5">
-      <rpv i="0">#,##0.00</rpv>
+      <rpv i="1">#,##0.00</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="1">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="1">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="6">
+      <rpv i="1">0</rpv>
     </rSty>
     <rSty>
-      <rpv i="1">1</rpv>
-    </rSty>
-    <rSty dxfid="4">
-      <rpv i="0">#,##0</rpv>
-    </rSty>
-    <rSty dxfid="3"/>
-    <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
-    </rSty>
-    <rSty dxfid="2"/>
-    <rSty dxfid="6">
-      <rpv i="0">0</rpv>
-    </rSty>
-    <rSty dxfid="0">
-      <rpv i="0">0.00</rpv>
+      <rpv i="2">1</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -6677,6 +8311,2179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921937AC-E959-4924-AF12-8B80161ACD7D}">
+  <dimension ref="A1:AD64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="2" style="60" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="256" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>0.77602700000000002</v>
+      </c>
+      <c r="D2">
+        <v>468.2</v>
+      </c>
+      <c r="E2" s="57">
+        <v>21111.599999999999</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="256"/>
+      <c r="B3" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>0.86726499999999995</v>
+      </c>
+      <c r="D3">
+        <v>481.1</v>
+      </c>
+      <c r="E3" s="57">
+        <v>21397.9</v>
+      </c>
+      <c r="F3">
+        <f>(E3/E2)-1</f>
+        <v>1.3561264897023584E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="256"/>
+      <c r="B4" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>0.95559799999999995</v>
+      </c>
+      <c r="D4">
+        <v>493.9</v>
+      </c>
+      <c r="E4" s="57">
+        <v>21717.200000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F25" si="0">(E4/E3)-1</f>
+        <v>1.4922025058533794E-2</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="62"/>
+      <c r="V4" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="W4" s="62"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="256"/>
+      <c r="B5" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>1.0170699999999999</v>
+      </c>
+      <c r="D5">
+        <v>502</v>
+      </c>
+      <c r="E5" s="57">
+        <v>21933.200000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>9.9460335586538662E-3</v>
+      </c>
+      <c r="G5" s="63">
+        <f>SUM(F3:F5)</f>
+        <v>3.8429323514211244E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5">
+        <v>0.93495434748030126</v>
+      </c>
+      <c r="V5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5">
+        <v>0.91339699501793736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="256" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>0.95571200000000001</v>
+      </c>
+      <c r="D6">
+        <v>457.1</v>
+      </c>
+      <c r="E6" s="57">
+        <v>21727.7</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-9.369357868436845E-3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6">
+        <v>0.87413963187231591</v>
+      </c>
+      <c r="V6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6">
+        <v>0.83429407050779791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="256"/>
+      <c r="B7" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>0.33934500000000001</v>
+      </c>
+      <c r="D7">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="E7" s="57">
+        <v>19935.400000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-8.2489172807061917E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7">
+        <v>0.86841870604833027</v>
+      </c>
+      <c r="V7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7">
+        <v>0.82676198280360691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="256"/>
+      <c r="B8" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>0.49974400000000002</v>
+      </c>
+      <c r="D8">
+        <v>345.2</v>
+      </c>
+      <c r="E8" s="57">
+        <v>21684.6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>8.7743411218234701E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8">
+        <v>0.11115035233505428</v>
+      </c>
+      <c r="V8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8">
+        <v>44.454364336751844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="256"/>
+      <c r="B9" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>0.56988000000000005</v>
+      </c>
+      <c r="D9">
+        <v>363</v>
+      </c>
+      <c r="E9" s="57">
+        <v>22068.799999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.7717642935539457E-2</v>
+      </c>
+      <c r="G9" s="63">
+        <f>SUM(F7:F9)</f>
+        <v>2.2971881346712242E-2</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="64">
+        <v>24</v>
+      </c>
+      <c r="V9" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="W9" s="64">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="256" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10">
+        <v>0.60895999999999995</v>
+      </c>
+      <c r="D10">
+        <v>375.9</v>
+      </c>
+      <c r="E10" s="57">
+        <v>22656.799999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.6643949829623814E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="256"/>
+      <c r="B11" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>0.76502499999999996</v>
+      </c>
+      <c r="D11">
+        <v>450.3</v>
+      </c>
+      <c r="E11" s="57">
+        <v>23368.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.1429857702764741E-2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="V11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="256"/>
+      <c r="B12" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>0.86440499999999998</v>
+      </c>
+      <c r="D12">
+        <v>514.29999999999995</v>
+      </c>
+      <c r="E12" s="57">
+        <v>23922</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.3668208602030782E-2</v>
+      </c>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA12" s="65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="256"/>
+      <c r="B13" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>0.96993300000000005</v>
+      </c>
+      <c r="D13">
+        <v>529.79999999999995</v>
+      </c>
+      <c r="E13" s="57">
+        <v>24777</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.5741158765989489E-2</v>
+      </c>
+      <c r="G13" s="63">
+        <f>SUM(F11:F13)</f>
+        <v>9.0839225070785012E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1.887713933153452</v>
+      </c>
+      <c r="O13">
+        <v>1.887713933153452</v>
+      </c>
+      <c r="P13">
+        <v>152.79688266668043</v>
+      </c>
+      <c r="Q13">
+        <v>2.2449826743243882E-11</v>
+      </c>
+      <c r="V13" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>218893.36506113713</v>
+      </c>
+      <c r="Y13">
+        <v>218893.36506113713</v>
+      </c>
+      <c r="Z13">
+        <v>110.76531544416034</v>
+      </c>
+      <c r="AA13">
+        <v>4.7241684621870538E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="256" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>0.87557499999999999</v>
+      </c>
+      <c r="D14">
+        <v>539.5</v>
+      </c>
+      <c r="E14" s="57">
+        <v>25215.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.7697864955402265E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14">
+        <v>22</v>
+      </c>
+      <c r="N14">
+        <v>0.27179681813254752</v>
+      </c>
+      <c r="O14">
+        <v>1.2354400824206706E-2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>113</v>
+      </c>
+      <c r="W14">
+        <v>22</v>
+      </c>
+      <c r="X14">
+        <v>43476.191188862838</v>
+      </c>
+      <c r="Y14">
+        <v>1976.1905085846745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="256"/>
+      <c r="B15" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>0.99074799999999996</v>
+      </c>
+      <c r="D15">
+        <v>572.20000000000005</v>
+      </c>
+      <c r="E15" s="57">
+        <v>25805.8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.3410204041165228E-2</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="64">
+        <v>23</v>
+      </c>
+      <c r="N15" s="64">
+        <v>2.1595107512859997</v>
+      </c>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="V15" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="64">
+        <v>23</v>
+      </c>
+      <c r="X15" s="64">
+        <v>262369.55624999997</v>
+      </c>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="256"/>
+      <c r="B16" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16">
+        <v>1.05382</v>
+      </c>
+      <c r="D16">
+        <v>582.1</v>
+      </c>
+      <c r="E16" s="57">
+        <v>26272</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.8065706159080541E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="256"/>
+      <c r="B17" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>1.174992</v>
+      </c>
+      <c r="D17">
+        <v>593</v>
+      </c>
+      <c r="E17" s="57">
+        <v>26734.3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.7596680876979187E-2</v>
+      </c>
+      <c r="G17" s="63">
+        <f>SUM(F15:F17)</f>
+        <v>5.9072591077224956E-2</v>
+      </c>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="X17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y17" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z17" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA17" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB17" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC17" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD17" s="65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="256" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <v>1.000548</v>
+      </c>
+      <c r="D18">
+        <v>608.29999999999995</v>
+      </c>
+      <c r="E18" s="57">
+        <v>27164.400000000001</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.6087946944561837E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18">
+        <v>-0.43702299460386618</v>
+      </c>
+      <c r="N18">
+        <v>0.11670621985750448</v>
+      </c>
+      <c r="O18">
+        <v>-3.7446418463168532</v>
+      </c>
+      <c r="P18">
+        <v>1.1220217359732064E-3</v>
+      </c>
+      <c r="Q18">
+        <v>-0.67905688082323068</v>
+      </c>
+      <c r="R18">
+        <v>-0.19498910838450162</v>
+      </c>
+      <c r="S18">
+        <v>-0.67905688082323068</v>
+      </c>
+      <c r="T18">
+        <v>-0.19498910838450162</v>
+      </c>
+      <c r="V18" t="s">
+        <v>115</v>
+      </c>
+      <c r="W18">
+        <v>-258.61919650246921</v>
+      </c>
+      <c r="X18">
+        <v>75.249201879505634</v>
+      </c>
+      <c r="Y18">
+        <v>-3.4368364054756171</v>
+      </c>
+      <c r="Z18">
+        <v>2.3547086115294031E-3</v>
+      </c>
+      <c r="AA18">
+        <v>-414.67648966164893</v>
+      </c>
+      <c r="AB18">
+        <v>-102.56190334328949</v>
+      </c>
+      <c r="AC18">
+        <v>-414.67648966164893</v>
+      </c>
+      <c r="AD18">
+        <v>-102.56190334328949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="256"/>
+      <c r="B19" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>1.0209060000000001</v>
+      </c>
+      <c r="D19">
+        <v>610.1</v>
+      </c>
+      <c r="E19" s="57">
+        <v>27453.8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.065364962966231E-2</v>
+      </c>
+      <c r="L19" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="64">
+        <v>2.6823248327996515E-3</v>
+      </c>
+      <c r="N19" s="64">
+        <v>2.1699719665731033E-4</v>
+      </c>
+      <c r="O19" s="64">
+        <v>12.361103618475191</v>
+      </c>
+      <c r="P19" s="64">
+        <v>2.2449826743243882E-11</v>
+      </c>
+      <c r="Q19" s="64">
+        <v>2.2323001908413822E-3</v>
+      </c>
+      <c r="R19" s="64">
+        <v>3.1323494747579209E-3</v>
+      </c>
+      <c r="S19" s="64">
+        <v>2.2323001908413822E-3</v>
+      </c>
+      <c r="T19" s="64">
+        <v>3.1323494747579209E-3</v>
+      </c>
+      <c r="V19" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="W19" s="64">
+        <v>3.1555017727298254E-2</v>
+      </c>
+      <c r="X19" s="64">
+        <v>2.9982409686767132E-3</v>
+      </c>
+      <c r="Y19" s="64">
+        <v>10.524510223481203</v>
+      </c>
+      <c r="Z19" s="64">
+        <v>4.7241684621870372E-10</v>
+      </c>
+      <c r="AA19" s="64">
+        <v>2.5337046531273142E-2</v>
+      </c>
+      <c r="AB19" s="64">
+        <v>3.777298892332337E-2</v>
+      </c>
+      <c r="AC19" s="64">
+        <v>2.5337046531273142E-2</v>
+      </c>
+      <c r="AD19" s="64">
+        <v>3.777298892332337E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="256"/>
+      <c r="B20" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20">
+        <v>1.1575500000000001</v>
+      </c>
+      <c r="D20">
+        <v>617.1</v>
+      </c>
+      <c r="E20" s="57">
+        <v>27967.7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.8718720177170356E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="256"/>
+      <c r="B21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21">
+        <v>1.224585</v>
+      </c>
+      <c r="D21">
+        <v>632</v>
+      </c>
+      <c r="E21" s="57">
+        <v>28297</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.177429677806896E-2</v>
+      </c>
+      <c r="G21" s="63">
+        <f>SUM(F19:F21)</f>
+        <v>4.1146666584901626E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="256" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22">
+        <v>1.227201</v>
+      </c>
+      <c r="D22">
+        <v>637.6</v>
+      </c>
+      <c r="E22" s="57">
+        <v>28624.1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.1559529278722058E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="256"/>
+      <c r="B23" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>1.435846</v>
+      </c>
+      <c r="D23">
+        <v>659.4</v>
+      </c>
+      <c r="E23" s="57">
+        <v>29016.7</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.3715715079251511E-2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>128</v>
+      </c>
+      <c r="V23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="256"/>
+      <c r="B24" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24">
+        <v>1.5226919999999999</v>
+      </c>
+      <c r="D24">
+        <v>654.4</v>
+      </c>
+      <c r="E24" s="57">
+        <v>29374.9</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.234461534219955E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="256"/>
+      <c r="B25" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>1.6002769999999999</v>
+      </c>
+      <c r="D25">
+        <v>674.6</v>
+      </c>
+      <c r="E25" s="57">
+        <v>29723.9</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.1880891509417957E-2</v>
+      </c>
+      <c r="G25" s="63">
+        <f>SUM(F23:F25)</f>
+        <v>3.7941221930869018E-2</v>
+      </c>
+      <c r="H25" s="63"/>
+      <c r="I25" s="34"/>
+      <c r="L25" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="V25" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="W25" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="X25" s="65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.81884149211293056</v>
+      </c>
+      <c r="N26">
+        <v>-4.2814492112930536E-2</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>407.55771574916059</v>
+      </c>
+      <c r="X26">
+        <v>60.642284250839396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C27" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0.85344348245604618</v>
+      </c>
+      <c r="N27">
+        <v>1.3821517543953776E-2</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>416.59191732448619</v>
+      </c>
+      <c r="X27">
+        <v>64.508082675513833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="256">
+        <f>A22+1</f>
+        <v>2025</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>1.450172</v>
+      </c>
+      <c r="D28" s="34">
+        <f>$W$18+(($W$19)*(E28))</f>
+        <v>686.83224464284103</v>
+      </c>
+      <c r="E28" s="34">
+        <v>29962</v>
+      </c>
+      <c r="F28" s="63">
+        <f ca="1">((1+$G$31)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>0.88777724031588168</v>
+      </c>
+      <c r="N28">
+        <v>6.782075968411827E-2</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>426.66743448481247</v>
+      </c>
+      <c r="X28">
+        <v>67.232565515187503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="256"/>
+      <c r="B29" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>1.5881829999999999</v>
+      </c>
+      <c r="D29" s="34">
+        <f t="shared" ref="D29:D51" si="1">$W$18+(($W$19)*(E29))</f>
+        <v>698.47920168598682</v>
+      </c>
+      <c r="E29" s="34">
+        <v>30331.1</v>
+      </c>
+      <c r="F29" s="63">
+        <f ca="1">((1+$G$31)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>0.90950407146155898</v>
+      </c>
+      <c r="N29">
+        <v>0.10756592853844094</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>433.48331831390885</v>
+      </c>
+      <c r="X29">
+        <v>68.516681686091147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="256"/>
+      <c r="B30" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30" ca="1" si="2">$M$18+(($M$19)*(D30))</f>
+        <v>1.4747492824671509</v>
+      </c>
+      <c r="D30" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>712.72958953134048</v>
+      </c>
+      <c r="E30" s="34">
+        <f t="shared" ref="E30:E51" ca="1" si="3">E29*(1+F30)</f>
+        <v>30782.704494996862</v>
+      </c>
+      <c r="F30" s="63">
+        <f ca="1">((1+$G$31)^(1/2))-1</f>
+        <v>1.4889156509221957E-2</v>
+      </c>
+      <c r="G30" s="63"/>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>0.78906768646885461</v>
+      </c>
+      <c r="N30">
+        <v>0.16664431353114539</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>426.99876217094913</v>
+      </c>
+      <c r="X30">
+        <v>30.101237829050888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="256"/>
+      <c r="B31" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="67">
+        <f ca="1">$M$18+(($M$19)*(D31))</f>
+        <v>1.5135425772993425</v>
+      </c>
+      <c r="D31" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>727.19215363164051</v>
+      </c>
+      <c r="E31" s="59">
+        <f t="shared" ca="1" si="3"/>
+        <v>31241.032999999999</v>
+      </c>
+      <c r="F31" s="63">
+        <f ca="1">((1+$G$31)^(1/2))-1</f>
+        <v>1.4889156509221957E-2</v>
+      </c>
+      <c r="G31" s="69">
+        <f ca="1">OFFSET(B61,MATCH(S,A62:A64,0),0)</f>
+        <v>0.03</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>0.36874738516914907</v>
+      </c>
+      <c r="N31">
+        <v>-2.9402385169149059E-2</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>370.4427038983124</v>
+      </c>
+      <c r="X31">
+        <v>-70.042703898312425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="256">
+        <f>A28+1</f>
+        <v>2026</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C51" ca="1" si="4">$M$18+(($M$19)*(D32))</f>
+        <v>1.5331552899856953</v>
+      </c>
+      <c r="D32" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>734.50398717488895</v>
+      </c>
+      <c r="E32" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>31472.749984171522</v>
+      </c>
+      <c r="F32" s="63">
+        <f ca="1">((1+$G$35)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G32" s="71"/>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>0.48891553767857354</v>
+      </c>
+      <c r="N32">
+        <v>1.082846232142648E-2</v>
+      </c>
+      <c r="V32">
+        <v>7</v>
+      </c>
+      <c r="W32">
+        <v>425.63874090690251</v>
+      </c>
+      <c r="X32">
+        <v>-80.438740906902524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="256"/>
+      <c r="B33" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5529134715697992</v>
+      </c>
+      <c r="D33" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>741.87005311235464</v>
+      </c>
+      <c r="E33" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>31706.185629846765</v>
+      </c>
+      <c r="F33" s="63">
+        <f t="shared" ref="F33" ca="1" si="5">((1+$G$35)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G33" s="71"/>
+      <c r="I33" s="34"/>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>0.53666091970240737</v>
+      </c>
+      <c r="N33">
+        <v>3.3219080297592685E-2</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="W33">
+        <v>437.76217871773042</v>
+      </c>
+      <c r="X33">
+        <v>-74.762178717730421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="256"/>
+      <c r="B34" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5728182010049094</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>749.29075368959786</v>
+      </c>
+      <c r="E34" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>31941.352684461461</v>
+      </c>
+      <c r="F34" s="63">
+        <f ca="1">((1+$G$35)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G34" s="71"/>
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <v>0.57126291004552288</v>
+      </c>
+      <c r="N34">
+        <v>3.769708995447707E-2</v>
+      </c>
+      <c r="V34">
+        <v>9</v>
+      </c>
+      <c r="W34">
+        <v>456.31652914138181</v>
+      </c>
+      <c r="X34">
+        <v>-80.41652914138183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="256"/>
+      <c r="B35" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5928705652469564</v>
+      </c>
+      <c r="D35" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>756.76649413566361</v>
+      </c>
+      <c r="E35" s="59">
+        <f t="shared" ca="1" si="3"/>
+        <v>32178.263989999992</v>
+      </c>
+      <c r="F35" s="68">
+        <f ca="1">((1+$G$35)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G35" s="69">
+        <f ca="1">OFFSET(C61,MATCH(S,A62:A64,0),0)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>0.77082787760581684</v>
+      </c>
+      <c r="N35">
+        <v>-5.8028776058168807E-3</v>
+      </c>
+      <c r="V35">
+        <v>10</v>
+      </c>
+      <c r="W35">
+        <v>478.786857264991</v>
+      </c>
+      <c r="X35">
+        <v>-28.486857264990988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="256">
+        <f t="shared" ref="A36" si="6">A32+1</f>
+        <v>2027</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6130716593138992</v>
+      </c>
+      <c r="D36" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>764.29768268520945</v>
+      </c>
+      <c r="E36" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>32416.932483696659</v>
+      </c>
+      <c r="F36" s="63">
+        <f ca="1">((1+$G$39)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G36" s="71"/>
+      <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>0.94249666690499456</v>
+      </c>
+      <c r="N36">
+        <v>-7.8091666904994583E-2</v>
+      </c>
+      <c r="V36">
+        <v>11</v>
+      </c>
+      <c r="W36">
+        <v>496.23993756995958</v>
+      </c>
+      <c r="X36">
+        <v>18.060062430040375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="256"/>
+      <c r="B37" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6334225863455258</v>
+      </c>
+      <c r="D37" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>771.88473060079889</v>
+      </c>
+      <c r="E37" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>32657.371198742156</v>
+      </c>
+      <c r="F37" s="63">
+        <f t="shared" ref="F37:F38" ca="1" si="7">((1+$G$39)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G37" s="71"/>
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="M37">
+        <v>0.98407270181338902</v>
+      </c>
+      <c r="N37">
+        <v>-1.4139701813388972E-2</v>
+      </c>
+      <c r="V37">
+        <v>12</v>
+      </c>
+      <c r="W37">
+        <v>523.2194777267996</v>
+      </c>
+      <c r="X37">
+        <v>6.5805222732003585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="256"/>
+      <c r="B38" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.65392445766369</v>
+      </c>
+      <c r="D38" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>779.52805219535969</v>
+      </c>
+      <c r="E38" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>32899.593264995296</v>
+      </c>
+      <c r="F38" s="63">
+        <f t="shared" ca="1" si="7"/>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G38" s="71"/>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>1.0100912526915458</v>
+      </c>
+      <c r="N38">
+        <v>-0.13451625269154577</v>
+      </c>
+      <c r="V38">
+        <v>13</v>
+      </c>
+      <c r="W38">
+        <v>537.05635300021993</v>
+      </c>
+      <c r="X38">
+        <v>2.4436469997800714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="256"/>
+      <c r="B39" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.674578392832998</v>
+      </c>
+      <c r="D39" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>787.22806485480726</v>
+      </c>
+      <c r="E39" s="59">
+        <f t="shared" ca="1" si="3"/>
+        <v>33143.611909699983</v>
+      </c>
+      <c r="F39" s="68">
+        <f ca="1">((1+$G$39)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G39" s="69">
+        <f ca="1">OFFSET(D61,MATCH(S,A62:A64,0),0)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>1.0978032747240944</v>
+      </c>
+      <c r="N39">
+        <v>-0.10705527472409448</v>
+      </c>
+      <c r="V39">
+        <v>14</v>
+      </c>
+      <c r="W39">
+        <v>555.68327996464404</v>
+      </c>
+      <c r="X39">
+        <v>16.516720035356002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="256">
+        <f t="shared" ref="A40" si="8">A36+1</f>
+        <v>2028</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6953855197219498</v>
+      </c>
+      <c r="D40" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>794.98518906083962</v>
+      </c>
+      <c r="E40" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>33389.440458207551</v>
+      </c>
+      <c r="F40" s="63">
+        <f ca="1">((1+$G$43)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>1.124358290568811</v>
+      </c>
+      <c r="N40">
+        <v>-7.0538290568811002E-2</v>
+      </c>
+      <c r="V40">
+        <v>15</v>
+      </c>
+      <c r="W40">
+        <v>570.39422922911058</v>
+      </c>
+      <c r="X40">
+        <v>11.705770770889444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="256"/>
+      <c r="B41" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7163469745645257</v>
+      </c>
+      <c r="D41" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>802.79984841389694</v>
+      </c>
+      <c r="E41" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>33637.092334704415</v>
+      </c>
+      <c r="F41" s="63">
+        <f t="shared" ref="F41:F43" ca="1" si="9">((1+$G$43)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G41" s="71"/>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>1.1535956312463271</v>
+      </c>
+      <c r="N41">
+        <v>2.1396368753672901E-2</v>
+      </c>
+      <c r="V41">
+        <v>16</v>
+      </c>
+      <c r="W41">
+        <v>584.98211392444045</v>
+      </c>
+      <c r="X41">
+        <v>8.0178860755595451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="256"/>
+      <c r="B42" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7374639020222333</v>
+      </c>
+      <c r="D42" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>810.67246965629408</v>
+      </c>
+      <c r="E42" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>33886.581062945144</v>
+      </c>
+      <c r="F42" s="63">
+        <f ca="1">((1+$G$43)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>1.1946352011881618</v>
+      </c>
+      <c r="N42">
+        <v>-0.19408720118816181</v>
+      </c>
+      <c r="V42">
+        <v>17</v>
+      </c>
+      <c r="W42">
+        <v>598.55392704895155</v>
+      </c>
+      <c r="X42">
+        <v>9.7460729510484043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="256"/>
+      <c r="B43" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7587374552466208</v>
+      </c>
+      <c r="D43" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>818.60348269552526</v>
+      </c>
+      <c r="E43" s="59">
+        <f t="shared" ca="1" si="3"/>
+        <v>34137.920266990972</v>
+      </c>
+      <c r="F43" s="68">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G43" s="69">
+        <f ca="1">OFFSET(E61,MATCH(S,A62:A64,0),0)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>1.1994633858872012</v>
+      </c>
+      <c r="N43">
+        <v>-0.17855738588720116</v>
+      </c>
+      <c r="V43">
+        <v>18</v>
+      </c>
+      <c r="W43">
+        <v>607.68594917923156</v>
+      </c>
+      <c r="X43">
+        <v>2.4140508207684661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="256">
+        <f t="shared" ref="A44" si="10">A40+1</f>
+        <v>2029</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7801687959422408</v>
+      </c>
+      <c r="D44" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>826.59332062773831</v>
+      </c>
+      <c r="E44" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>34391.123671953763</v>
+      </c>
+      <c r="F44" s="63">
+        <f ca="1">((1+$G$47)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G44" s="71"/>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>1.2182396597167988</v>
+      </c>
+      <c r="N44">
+        <v>-6.0689659716798738E-2</v>
+      </c>
+      <c r="V44">
+        <v>19</v>
+      </c>
+      <c r="W44">
+        <v>623.90207278929017</v>
+      </c>
+      <c r="X44">
+        <v>-6.8020727892901505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="256"/>
+      <c r="B45" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8017590944300936</v>
+      </c>
+      <c r="D45" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>834.64241976138726</v>
+      </c>
+      <c r="E45" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>34646.205104745532</v>
+      </c>
+      <c r="F45" s="63">
+        <f t="shared" ref="F45:F47" ca="1" si="11">((1+$G$47)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G45" s="71"/>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>1.2582062997255137</v>
+      </c>
+      <c r="N45">
+        <v>-3.3621299725513643E-2</v>
+      </c>
+      <c r="V45">
+        <v>20</v>
+      </c>
+      <c r="W45">
+        <v>634.29314012688951</v>
+      </c>
+      <c r="X45">
+        <v>-2.2931401268895115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="256"/>
+      <c r="B46" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8235095297115334</v>
+      </c>
+      <c r="D46" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>842.75121964105654</v>
+      </c>
+      <c r="E46" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>34903.178494833483</v>
+      </c>
+      <c r="F46" s="63">
+        <f ca="1">((1+$G$47)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G46" s="71"/>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>1.2732273187891916</v>
+      </c>
+      <c r="N46">
+        <v>-4.6026318789191611E-2</v>
+      </c>
+      <c r="V46">
+        <v>21</v>
+      </c>
+      <c r="W46">
+        <v>644.61478642548866</v>
+      </c>
+      <c r="X46">
+        <v>-7.0147864254886372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="256"/>
+      <c r="B47" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8454212895326521</v>
+      </c>
+      <c r="D47" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>850.92016307146457</v>
+      </c>
+      <c r="E47" s="59">
+        <f t="shared" ca="1" si="3"/>
+        <v>35162.057875000683</v>
+      </c>
+      <c r="F47" s="68">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G47" s="69">
+        <f ca="1">OFFSET(F61,MATCH(S,A62:A64,0),0)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>1.3317020001442239</v>
+      </c>
+      <c r="N47">
+        <v>0.10414399985577605</v>
+      </c>
+      <c r="V47">
+        <v>22</v>
+      </c>
+      <c r="W47">
+        <v>657.00328638522603</v>
+      </c>
+      <c r="X47">
+        <v>2.3967136147739438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="256">
+        <f t="shared" ref="A48" si="12">A44+1</f>
+        <v>2030</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8674955704491407</v>
+      </c>
+      <c r="D48" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>859.14969614164409</v>
+      </c>
+      <c r="E48" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>35422.857382112357</v>
+      </c>
+      <c r="F48" s="63">
+        <f ca="1">((1+$G$51)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G48" s="71"/>
+      <c r="L48">
+        <v>23</v>
+      </c>
+      <c r="M48">
+        <v>1.3182903759802258</v>
+      </c>
+      <c r="N48">
+        <v>0.20440162401977413</v>
+      </c>
+      <c r="V48">
+        <v>23</v>
+      </c>
+      <c r="W48">
+        <v>668.30629373514432</v>
+      </c>
+      <c r="X48">
+        <v>-13.906293735144345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="256"/>
+      <c r="B49" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8897335778916289</v>
+      </c>
+      <c r="D49" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>867.44026824930245</v>
+      </c>
+      <c r="E49" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>35685.591257887878</v>
+      </c>
+      <c r="F49" s="63">
+        <f t="shared" ref="F49:F51" ca="1" si="13">((1+$G$51)^(1/4))-1</f>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G49" s="71"/>
+      <c r="L49" s="64">
+        <v>24</v>
+      </c>
+      <c r="M49" s="64">
+        <v>1.3724733376027789</v>
+      </c>
+      <c r="N49" s="64">
+        <v>0.22780366239722105</v>
+      </c>
+      <c r="V49" s="64">
+        <v>24</v>
+      </c>
+      <c r="W49" s="64">
+        <v>679.31899492197147</v>
+      </c>
+      <c r="X49" s="64">
+        <v>-4.7189949219714435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="256"/>
+      <c r="B50" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9121365262315115</v>
+      </c>
+      <c r="D50" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>875.79233212536167</v>
+      </c>
+      <c r="E50" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>35950.273849678466</v>
+      </c>
+      <c r="F50" s="63">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G50" s="71"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="256"/>
+      <c r="B51" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9347056388472637</v>
+      </c>
+      <c r="D51" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>884.20634385868186</v>
+      </c>
+      <c r="E51" s="59">
+        <f t="shared" ca="1" si="3"/>
+        <v>36216.919611250683</v>
+      </c>
+      <c r="F51" s="68">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.4170717777328754E-3</v>
+      </c>
+      <c r="G51" s="69">
+        <f ca="1">OFFSET(G61,MATCH(S,A62:A64,0),0)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="75">
+        <v>0.03</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="76">
+        <v>2025</v>
+      </c>
+      <c r="C61" s="76">
+        <f>B61+1</f>
+        <v>2026</v>
+      </c>
+      <c r="D61" s="76">
+        <f t="shared" ref="D61:G61" si="14">C61+1</f>
+        <v>2027</v>
+      </c>
+      <c r="E61" s="76">
+        <f t="shared" si="14"/>
+        <v>2028</v>
+      </c>
+      <c r="F61" s="76">
+        <f t="shared" si="14"/>
+        <v>2029</v>
+      </c>
+      <c r="G61" s="76">
+        <f t="shared" si="14"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="63">
+        <v>0.03</v>
+      </c>
+      <c r="C62" s="63">
+        <v>0.03</v>
+      </c>
+      <c r="D62" s="63">
+        <v>0.03</v>
+      </c>
+      <c r="E62" s="63">
+        <v>0.03</v>
+      </c>
+      <c r="F62" s="63">
+        <v>0.03</v>
+      </c>
+      <c r="G62" s="63">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="63">
+        <f>AVERAGE($G$5,$G$9,$G$13,$G$17,$G$21,$G$25)</f>
+        <v>4.8400151587450681E-2</v>
+      </c>
+      <c r="C63" s="63">
+        <f t="shared" ref="C63:G63" si="15">AVERAGE($G$5,$G$9,$G$13,$G$17,$G$21,$G$25)</f>
+        <v>4.8400151587450681E-2</v>
+      </c>
+      <c r="D63" s="63">
+        <f t="shared" si="15"/>
+        <v>4.8400151587450681E-2</v>
+      </c>
+      <c r="E63" s="63">
+        <f t="shared" si="15"/>
+        <v>4.8400151587450681E-2</v>
+      </c>
+      <c r="F63" s="63">
+        <f t="shared" si="15"/>
+        <v>4.8400151587450681E-2</v>
+      </c>
+      <c r="G63" s="63">
+        <f t="shared" si="15"/>
+        <v>4.8400151587450681E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="63">
+        <f>B62-0.01</f>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="C64" s="63">
+        <f t="shared" ref="C64:G64" si="16">C62-0.01</f>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="D64" s="63">
+        <f t="shared" si="16"/>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="E64" s="63">
+        <f t="shared" si="16"/>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="F64" s="63">
+        <f t="shared" si="16"/>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="G64" s="63">
+        <f t="shared" si="16"/>
+        <v>1.9999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED4A128-76D2-4F6A-9B7A-014847B8BB22}">
   <dimension ref="B1:N48"/>
@@ -8077,10 +11884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED63A80-B681-4218-B621-0B781578A5D7}">
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView showGridLines="0" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12309,6 +16116,185 @@
         <v>-899669.30327734631</v>
       </c>
     </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="107" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>372</v>
+      </c>
+      <c r="C108" s="34">
+        <f>'3_Statement_Model'!G79</f>
+        <v>767016</v>
+      </c>
+      <c r="D108">
+        <f>C108/C110</f>
+        <v>0.57541275814263337</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>329</v>
+      </c>
+      <c r="C109" s="34">
+        <f>Debt_Schedule!G29</f>
+        <v>565968</v>
+      </c>
+      <c r="D109">
+        <f>C109/C110</f>
+        <v>0.42458724185736663</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="257" t="s">
+        <v>373</v>
+      </c>
+      <c r="C110" s="38">
+        <f>SUM(C108:C109)</f>
+        <v>1332984</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="34">
+        <f>-'3_Statement_Model'!G15</f>
+        <v>28921</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="257" t="s">
+        <v>374</v>
+      </c>
+      <c r="C113" s="259">
+        <f>(C112/C109)*(1-H15)</f>
+        <v>4.5938955912701772E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="63" cm="1">
+        <f t="array" aca="1" ref="C115" ca="1">_FV(D115,"Yield yesterday",TRUE)</f>
+        <v>4.0320000000000002E-2</v>
+      </c>
+      <c r="D115" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" s="260" cm="1">
+        <f t="array" aca="1" ref="C116" ca="1">_FV(D116,"Beta")</f>
+        <v>2.3578999999999999</v>
+      </c>
+      <c r="D116" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="63">
+        <v>8.8099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="257" t="s">
+        <v>378</v>
+      </c>
+      <c r="C118" s="258">
+        <f ca="1">C115+(C116*C117)</f>
+        <v>0.24805098999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="96" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="261">
+        <f ca="1">(D109*C118)+(D108*C113)</f>
+        <v>0.13175314701200977</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="262"/>
+      <c r="C121" s="263"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C122" s="109">
+        <v>2025</v>
+      </c>
+      <c r="D122" s="109">
+        <v>2026</v>
+      </c>
+      <c r="E122" s="109">
+        <v>2027</v>
+      </c>
+      <c r="F122" s="109">
+        <v>2028</v>
+      </c>
+      <c r="G122" s="109">
+        <v>2029</v>
+      </c>
+      <c r="H122" s="109">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C123" s="34">
+        <f ca="1">'3_Statement_Model'!H14+'3_Statement_Model'!H90</f>
+        <v>209882.92361751961</v>
+      </c>
+      <c r="D123" s="34">
+        <f ca="1">'3_Statement_Model'!I14+'3_Statement_Model'!I90</f>
+        <v>316825.55930107704</v>
+      </c>
+      <c r="E123" s="34">
+        <f ca="1">'3_Statement_Model'!J14+'3_Statement_Model'!J90</f>
+        <v>429525.64155270229</v>
+      </c>
+      <c r="F123" s="34">
+        <f ca="1">'3_Statement_Model'!K14+'3_Statement_Model'!K90</f>
+        <v>539596.84428179963</v>
+      </c>
+      <c r="G123" s="34">
+        <f ca="1">'3_Statement_Model'!L14+'3_Statement_Model'!L90</f>
+        <v>633505.01533280604</v>
+      </c>
+      <c r="H123" s="34">
+        <f ca="1">'3_Statement_Model'!M14+'3_Statement_Model'!M90</f>
+        <v>726266.7782314053</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="34">
+        <f ca="1">AVERAGE(C123:H123)</f>
+        <v>475933.79371955158</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f ca="1">DCF!D33/Schedules!H123</f>
+        <v>15.354136011289404</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C127" s="34">
+        <f>'3_Statement_Model'!G14+'3_Statement_Model'!G90</f>
+        <v>256187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -12322,7 +16308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA79A8-4199-48D3-8B12-68E428EB3C36}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -12336,10 +16322,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="255" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="254"/>
+      <c r="C1" s="255"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -14075,8 +18061,8 @@
   <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14536,27 +18522,27 @@
         <v>5904928</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">SUM(H8:H12)</f>
         <v>6112713.3289948823</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">SUM(I8:I12)</f>
         <v>6200369.8037727978</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">SUM(J8:J12)</f>
         <v>6380731.6043496793</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">SUM(K8:K12)</f>
         <v>6578284.7796479939</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">SUM(L8:L12)</f>
         <v>6806844.3799423743</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">SUM(M8:M12)</f>
         <v>7044410.8747559823</v>
       </c>
     </row>
@@ -14589,27 +18575,27 @@
         <v>-118912</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">H6-H13</f>
         <v>-86066.469228388742</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">I6-I13</f>
         <v>51387.724034561776</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">J6-J13</f>
         <v>194265.49180643447</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">K6-K13</f>
         <v>329649.07190733496</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">L6-L13</f>
         <v>444014.32967414521</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">M6-M13</f>
         <v>559660.43866356369</v>
       </c>
     </row>
@@ -14740,23 +18726,23 @@
         <v>58409.003611390421</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" ref="I17:M17" ca="1" si="21">SUM(I14,I15,I16)</f>
+        <f ca="1">SUM(I14,I15,I16)</f>
         <v>201008.51023082196</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">SUM(J14,J15,J16)</f>
         <v>352204.37186056341</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">SUM(K14,K15,K16)</f>
         <v>476572.57789144642</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">SUM(L14,L15,L16)</f>
         <v>601265.95459886675</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">SUM(M14,M15,M16)</f>
         <v>721164.06856105023</v>
       </c>
     </row>
@@ -14816,19 +18802,19 @@
         <v>-2602241</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19:M19" si="22">C17-C18</f>
+        <f t="shared" ref="C19:M19" si="21">C17-C18</f>
         <v>-1752857</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1062144</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1584511</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-340320</v>
       </c>
       <c r="G19" s="12">
@@ -14840,23 +18826,23 @@
         <v>51715.465332438987</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">I17-I18</f>
         <v>175600.66601498588</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">J17-J18</f>
         <v>303527.63101752754</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">K17-K18</f>
         <v>405081.8909238163</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">L17-L18</f>
         <v>503972.58992626052</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">M17-M18</f>
         <v>595956.78054809687</v>
       </c>
     </row>
@@ -14869,47 +18855,47 @@
         <v>-11.438522536461859</v>
       </c>
       <c r="C20" s="23">
-        <f t="shared" ref="C20:M20" si="23">C19/C22</f>
+        <f t="shared" ref="C20:M20" si="22">C19/C22</f>
         <v>-5.6149819812605113</v>
       </c>
       <c r="D20" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-3.1731934369809158</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-4.4667959665211106</v>
       </c>
       <c r="F20" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.88317957102261668</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.5681959817293569E-2</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">H19/H22</f>
         <v>0.1175521590359606</v>
       </c>
       <c r="I20" s="23">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">I19/I22</f>
         <v>0.37967146474583258</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">J19/J22</f>
         <v>0.62471300951457198</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">K19/K22</f>
         <v>0.79370759583080841</v>
       </c>
       <c r="L20" s="23">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">L19/L22</f>
         <v>0.93897704710594854</v>
       </c>
       <c r="M20" s="23">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">M19/M22</f>
         <v>1.0523040893232933</v>
       </c>
     </row>
@@ -15222,23 +19208,23 @@
         <v>1599311</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" ref="C29:G29" si="24">SUM(C24:C28)</f>
+        <f t="shared" ref="C29:G29" si="23">SUM(C24:C28)</f>
         <v>565807</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>724560</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>750767</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>484533</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>330921</v>
       </c>
       <c r="H29" s="6"/>
@@ -15253,51 +19239,51 @@
         <v>14</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" ref="B30:M30" si="25">B19</f>
+        <f t="shared" ref="B30:M30" si="24">B19</f>
         <v>-2602241</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-1752857</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-1062144</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-1584511</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-340320</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>22784</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">H19</f>
         <v>51715.465332438987</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">I19</f>
         <v>175600.66601498588</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">J19</f>
         <v>303527.63101752754</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">K19</f>
         <v>405081.8909238163</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">L19</f>
         <v>503972.58992626052</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">M19</f>
         <v>595956.78054809687</v>
       </c>
     </row>
@@ -15313,43 +19299,43 @@
         <v>2020</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" ref="D32:G32" si="26">C32+1</f>
+        <f t="shared" ref="D32:G32" si="25">C32+1</f>
         <v>2021</v>
       </c>
       <c r="E32" s="20">
+        <f t="shared" si="25"/>
+        <v>2022</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="25"/>
+        <v>2023</v>
+      </c>
+      <c r="G32" s="26">
+        <f t="shared" si="25"/>
+        <v>2024</v>
+      </c>
+      <c r="H32" s="27">
+        <f t="shared" ref="H32:M32" si="26">H5</f>
+        <v>2025</v>
+      </c>
+      <c r="I32" s="27">
         <f t="shared" si="26"/>
-        <v>2022</v>
-      </c>
-      <c r="F32" s="20">
+        <v>2026</v>
+      </c>
+      <c r="J32" s="27">
         <f t="shared" si="26"/>
-        <v>2023</v>
-      </c>
-      <c r="G32" s="26">
+        <v>2027</v>
+      </c>
+      <c r="K32" s="27">
         <f t="shared" si="26"/>
-        <v>2024</v>
-      </c>
-      <c r="H32" s="27">
-        <f t="shared" ref="H32:M32" si="27">H5</f>
-        <v>2025</v>
-      </c>
-      <c r="I32" s="27">
-        <f t="shared" si="27"/>
-        <v>2026</v>
-      </c>
-      <c r="J32" s="27">
-        <f t="shared" si="27"/>
-        <v>2027</v>
-      </c>
-      <c r="K32" s="27">
-        <f t="shared" si="27"/>
         <v>2028</v>
       </c>
       <c r="L32" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2029</v>
       </c>
       <c r="M32" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2030</v>
       </c>
       <c r="N32" s="193"/>
@@ -15363,47 +19349,47 @@
         <v>-2602241</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" ref="C33:M33" si="28">C30</f>
+        <f t="shared" ref="C33:M33" si="27">C30</f>
         <v>-1752857</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-1062144</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-1584511</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-340320</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>22784</v>
       </c>
       <c r="H33" s="28">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">H30</f>
         <v>51715.465332438987</v>
       </c>
       <c r="I33" s="28">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">I30</f>
         <v>175600.66601498588</v>
       </c>
       <c r="J33" s="28">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">J30</f>
         <v>303527.63101752754</v>
       </c>
       <c r="K33" s="28">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">K30</f>
         <v>405081.8909238163</v>
       </c>
       <c r="L33" s="28">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">L30</f>
         <v>503972.58992626052</v>
       </c>
       <c r="M33" s="28">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">M30</f>
         <v>595956.78054809687</v>
       </c>
     </row>
@@ -15527,19 +19513,19 @@
         <v>2592</v>
       </c>
       <c r="C37" s="17">
-        <f t="shared" ref="C37:F37" si="29">SUM(C35:C36)</f>
+        <f t="shared" ref="C37:F37" si="28">SUM(C35:C36)</f>
         <v>-3198</v>
       </c>
       <c r="D37" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-2038</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-3243</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>805</v>
       </c>
       <c r="G37" s="17">
@@ -15547,27 +19533,27 @@
         <v>-5154</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" ref="H37:M37" ca="1" si="30">SUM(H35:H36)</f>
+        <f ca="1">SUM(H35:H36)</f>
         <v>-5368.3463570160375</v>
       </c>
       <c r="I37" s="17">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">SUM(I35:I36)</f>
         <v>-5568.8678182568328</v>
       </c>
       <c r="J37" s="17">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">SUM(J35:J36)</f>
         <v>-5856.7993993774999</v>
       </c>
       <c r="K37" s="17">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">SUM(K35:K36)</f>
         <v>-6153.3689279317859</v>
       </c>
       <c r="L37" s="17">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">SUM(L35:L36)</f>
         <v>-6458.8355423426983</v>
       </c>
       <c r="M37" s="17">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">SUM(M35:M36)</f>
         <v>-6773.4661551859399</v>
       </c>
     </row>
@@ -15580,47 +19566,47 @@
         <v>-2599649</v>
       </c>
       <c r="C38" s="19">
-        <f t="shared" ref="C38:M38" si="31">SUM(C37,C33)</f>
+        <f t="shared" ref="C38:M38" si="29">SUM(C37,C33)</f>
         <v>-1756055</v>
       </c>
       <c r="D38" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-1064182</v>
       </c>
       <c r="E38" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-1587754</v>
       </c>
       <c r="F38" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-339515</v>
       </c>
       <c r="G38" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>17630</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">SUM(H37,H33)</f>
         <v>46347.118975422949</v>
       </c>
       <c r="I38" s="19">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">SUM(I37,I33)</f>
         <v>170031.79819672904</v>
       </c>
       <c r="J38" s="19">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">SUM(J37,J33)</f>
         <v>297670.83161815006</v>
       </c>
       <c r="K38" s="19">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">SUM(K37,K33)</f>
         <v>398928.52199588454</v>
       </c>
       <c r="L38" s="19">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">SUM(L37,L33)</f>
         <v>497513.75438391784</v>
       </c>
       <c r="M38" s="19">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">SUM(M37,M33)</f>
         <v>589183.31439291092</v>
       </c>
     </row>
@@ -15652,19 +19638,19 @@
         <v>2020</v>
       </c>
       <c r="D45" s="20">
-        <f t="shared" ref="D45" si="32">C45+1</f>
+        <f t="shared" ref="D45" si="30">C45+1</f>
         <v>2021</v>
       </c>
       <c r="E45" s="20">
-        <f t="shared" ref="E45" si="33">D45+1</f>
+        <f t="shared" ref="E45" si="31">D45+1</f>
         <v>2022</v>
       </c>
       <c r="F45" s="20">
-        <f t="shared" ref="F45" si="34">E45+1</f>
+        <f t="shared" ref="F45" si="32">E45+1</f>
         <v>2023</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" ref="G45" si="35">F45+1</f>
+        <f t="shared" ref="G45" si="33">F45+1</f>
         <v>2024</v>
       </c>
       <c r="H45" s="27">
@@ -15739,23 +19725,23 @@
         <v>768458.45279941487</v>
       </c>
       <c r="I48" s="90">
-        <f t="shared" ref="I48:M48" ca="1" si="36">I123</f>
+        <f ca="1">I123</f>
         <v>802011.77472920378</v>
       </c>
       <c r="J48" s="90">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">J123</f>
         <v>936260.15847229806</v>
       </c>
       <c r="K48" s="90">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">K123</f>
         <v>1145279.3187718673</v>
       </c>
       <c r="L48" s="90">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">L123</f>
         <v>868149.35834779835</v>
       </c>
       <c r="M48" s="90">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">M123</f>
         <v>1403101.7975730509</v>
       </c>
     </row>
@@ -15886,23 +19872,23 @@
         <v>263316.6247800042</v>
       </c>
       <c r="I51" s="90">
-        <f t="shared" ref="I51:M51" ca="1" si="37">I124+I125</f>
+        <f ca="1">I124+I125</f>
         <v>248944.52794704083</v>
       </c>
       <c r="J51" s="90">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">J124+J125</f>
         <v>281586.13967978652</v>
       </c>
       <c r="K51" s="90">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">K124+K125</f>
         <v>374819.61727091687</v>
       </c>
       <c r="L51" s="90">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">L124+L125</f>
         <v>275010.47793084179</v>
       </c>
       <c r="M51" s="90">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">M124+M125</f>
         <v>430145.73602861207</v>
       </c>
       <c r="P51" s="34"/>
@@ -16272,43 +20258,43 @@
         <v>4678964</v>
       </c>
       <c r="D59" s="41">
-        <f t="shared" ref="D59:M59" si="38">SUM(D48:D58)</f>
+        <f t="shared" ref="D59:M59" si="34">SUM(D48:D58)</f>
         <v>4773884</v>
       </c>
       <c r="E59" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>4556431</v>
       </c>
       <c r="F59" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>4564467</v>
       </c>
       <c r="G59" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>5435069</v>
       </c>
       <c r="H59" s="41">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">SUM(H48:H58)</f>
         <v>6088172.3538761912</v>
       </c>
       <c r="I59" s="41">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">SUM(I48:I58)</f>
         <v>6868485.029653932</v>
       </c>
       <c r="J59" s="41">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">SUM(J48:J58)</f>
         <v>7827019.5226290813</v>
       </c>
       <c r="K59" s="41">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">SUM(K48:K58)</f>
         <v>8951159.1751069874</v>
       </c>
       <c r="L59" s="41">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">SUM(L48:L58)</f>
         <v>9423219.5768518746</v>
       </c>
       <c r="M59" s="41">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">SUM(M48:M58)</f>
         <v>11000047.762027539</v>
       </c>
     </row>
@@ -16752,47 +20738,47 @@
         <v>2837299</v>
       </c>
       <c r="C71" s="33">
-        <f t="shared" ref="C71:M71" si="39">SUM(C63:C70)</f>
+        <f t="shared" ref="C71:M71" si="35">SUM(C63:C70)</f>
         <v>3002801</v>
       </c>
       <c r="D71" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>3432671</v>
       </c>
       <c r="E71" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>4167763</v>
       </c>
       <c r="F71" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>4022949</v>
       </c>
       <c r="G71" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>4668053</v>
       </c>
       <c r="H71" s="33">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">SUM(H63:H70)</f>
         <v>4772378.3250228893</v>
       </c>
       <c r="I71" s="33">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">SUM(I63:I70)</f>
         <v>5299602.376228204</v>
       </c>
       <c r="J71" s="33">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">SUM(J63:J70)</f>
         <v>5916668.3866358409</v>
       </c>
       <c r="K71" s="33">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">SUM(K63:K70)</f>
         <v>6632937.9973223265</v>
       </c>
       <c r="L71" s="33">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">SUM(L63:L70)</f>
         <v>7480046.0215312233</v>
       </c>
       <c r="M71" s="33">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">SUM(M63:M70)</f>
         <v>8068250.3500321899</v>
       </c>
     </row>
@@ -16968,19 +20954,19 @@
         <v>-473</v>
       </c>
       <c r="D77" s="28">
-        <f t="shared" ref="D77:G77" si="40">C77+D37</f>
+        <f t="shared" ref="D77:G77" si="36">C77+D37</f>
         <v>-2511</v>
       </c>
       <c r="E77" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>-5754</v>
       </c>
       <c r="F77" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>-4949</v>
       </c>
       <c r="G77" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>-10103</v>
       </c>
       <c r="H77" s="90">
@@ -16988,23 +20974,23 @@
         <v>-15232.82262481645</v>
       </c>
       <c r="I77" s="90">
-        <f t="shared" ref="I77:M77" ca="1" si="41">H77+I35</f>
+        <f ca="1">H77+I35</f>
         <v>-20554.257239662184</v>
       </c>
       <c r="J77" s="90">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">I77+J35</f>
         <v>-26150.830200844604</v>
       </c>
       <c r="K77" s="90">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">J77+K35</f>
         <v>-32030.79565875381</v>
       </c>
       <c r="L77" s="90">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">K77+L35</f>
         <v>-38202.655388291605</v>
       </c>
       <c r="M77" s="90">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">L77+M35</f>
         <v>-44675.166217606849</v>
       </c>
     </row>
@@ -17035,23 +21021,23 @@
         <v>-10206415.534667561</v>
       </c>
       <c r="I78" s="34">
-        <f t="shared" ref="I78:M78" ca="1" si="42">H78+I19</f>
+        <f ca="1">H78+I19</f>
         <v>-10030814.868652575</v>
       </c>
       <c r="J78" s="34">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">I78+J19</f>
         <v>-9727287.2376350462</v>
       </c>
       <c r="K78" s="34">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">J78+K19</f>
         <v>-9322205.3467112295</v>
       </c>
       <c r="L78" s="34">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">K78+L19</f>
         <v>-8818232.7567849681</v>
       </c>
       <c r="M78" s="34">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">L78+M19</f>
         <v>-8222275.9762368714</v>
       </c>
     </row>
@@ -17068,15 +21054,15 @@
         <v>1676163</v>
       </c>
       <c r="D79" s="38">
-        <f t="shared" ref="D79:M79" si="43">SUM(D74:D78)</f>
+        <f t="shared" ref="D79:M79" si="37">SUM(D74:D78)</f>
         <v>1341213</v>
       </c>
       <c r="E79" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>388668</v>
       </c>
       <c r="F79" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>541518</v>
       </c>
       <c r="G79" s="38">
@@ -17084,27 +21070,27 @@
         <v>767016</v>
       </c>
       <c r="H79" s="38">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">SUM(H74:H78)</f>
         <v>1315794.0288533028</v>
       </c>
       <c r="I79" s="38">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">SUM(I74:I78)</f>
         <v>1568882.6534257289</v>
       </c>
       <c r="J79" s="38">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">SUM(J74:J78)</f>
         <v>1910351.1359932404</v>
       </c>
       <c r="K79" s="38">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">SUM(K74:K78)</f>
         <v>2318221.1777846608</v>
       </c>
       <c r="L79" s="38">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">SUM(L74:L78)</f>
         <v>1943173.5553206485</v>
       </c>
       <c r="M79" s="38">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">SUM(M74:M78)</f>
         <v>2931797.4119953522</v>
       </c>
     </row>
@@ -17122,51 +21108,51 @@
         <v>55</v>
       </c>
       <c r="B81" s="40">
-        <f t="shared" ref="B81:M81" si="44">SUM(B79,B71)</f>
+        <f t="shared" ref="B81:M81" si="38">SUM(B79,B71)</f>
         <v>5691383</v>
       </c>
       <c r="C81" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>4678964</v>
       </c>
       <c r="D81" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>4773884</v>
       </c>
       <c r="E81" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>4556431</v>
       </c>
       <c r="F81" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>4564467</v>
       </c>
       <c r="G81" s="40">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>5435069</v>
       </c>
       <c r="H81" s="40">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">SUM(H79,H71)</f>
         <v>6088172.3538761921</v>
       </c>
       <c r="I81" s="40">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">SUM(I79,I71)</f>
         <v>6868485.0296539329</v>
       </c>
       <c r="J81" s="40">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">SUM(J79,J71)</f>
         <v>7827019.5226290813</v>
       </c>
       <c r="K81" s="40">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">SUM(K79,K71)</f>
         <v>8951159.1751069874</v>
       </c>
       <c r="L81" s="40">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">SUM(L79,L71)</f>
         <v>9423219.5768518709</v>
       </c>
       <c r="M81" s="40">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">SUM(M79,M71)</f>
         <v>11000047.762027543</v>
       </c>
     </row>
@@ -17179,23 +21165,23 @@
         <v>0</v>
       </c>
       <c r="C82" s="191">
-        <f t="shared" ref="C82:M82" si="45">C59-(C71+C79)</f>
+        <f t="shared" ref="C82:M82" si="39">C59-(C71+C79)</f>
         <v>0</v>
       </c>
       <c r="D82" s="191">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E82" s="191">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F82" s="191">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G82" s="191">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H82" s="191">
@@ -17203,23 +21189,23 @@
         <v>0</v>
       </c>
       <c r="I82" s="191">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">I59-(I71+I79)</f>
         <v>0</v>
       </c>
       <c r="J82" s="191">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">J59-(J71+J79)</f>
         <v>0</v>
       </c>
       <c r="K82" s="191">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">K59-(K71+K79)</f>
         <v>0</v>
       </c>
       <c r="L82" s="191">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">L59-(L71+L79)</f>
         <v>0</v>
       </c>
       <c r="M82" s="191">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">M59-(M71+M79)</f>
         <v>0</v>
       </c>
     </row>
@@ -17281,19 +21267,19 @@
         <v>2020</v>
       </c>
       <c r="D87" s="135">
-        <f t="shared" ref="D87" si="46">C87+1</f>
+        <f t="shared" ref="D87" si="40">C87+1</f>
         <v>2021</v>
       </c>
       <c r="E87" s="135">
-        <f t="shared" ref="E87" si="47">D87+1</f>
+        <f t="shared" ref="E87" si="41">D87+1</f>
         <v>2022</v>
       </c>
       <c r="F87" s="135">
-        <f t="shared" ref="F87" si="48">E87+1</f>
+        <f t="shared" ref="F87" si="42">E87+1</f>
         <v>2023</v>
       </c>
       <c r="G87" s="135">
-        <f t="shared" ref="G87" si="49">F87+1</f>
+        <f t="shared" ref="G87" si="43">F87+1</f>
         <v>2024</v>
       </c>
       <c r="H87" s="136">
@@ -17356,27 +21342,27 @@
         <v>22784</v>
       </c>
       <c r="H89" s="34">
-        <f t="shared" ref="H89:M89" ca="1" si="50">H19</f>
+        <f ca="1">H19</f>
         <v>51715.465332438987</v>
       </c>
       <c r="I89" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1">I19</f>
         <v>175600.66601498588</v>
       </c>
       <c r="J89" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1">J19</f>
         <v>303527.63101752754</v>
       </c>
       <c r="K89" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1">K19</f>
         <v>405081.8909238163</v>
       </c>
       <c r="L89" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1">L19</f>
         <v>503972.58992626052</v>
       </c>
       <c r="M89" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1">M19</f>
         <v>595956.78054809687</v>
       </c>
       <c r="O89" s="42"/>
@@ -17471,23 +21457,23 @@
         <v>-53091.731322286301</v>
       </c>
       <c r="I92" s="34">
-        <f t="shared" ref="I92:M92" ca="1" si="51">(H50+H58)-(I50+I58)</f>
+        <f ca="1">(H50+H58)-(I50+I58)</f>
         <v>-47124.20711761259</v>
       </c>
       <c r="J92" s="34">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1">(I50+I58)-(J50+J58)</f>
         <v>-49320.48478165362</v>
       </c>
       <c r="K92" s="34">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1">(J50+J58)-(K50+K58)</f>
         <v>-51619.122482554754</v>
       </c>
       <c r="L92" s="34">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1">(K50+K58)-(L50+L58)</f>
         <v>-54024.89082711027</v>
       </c>
       <c r="M92" s="34">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1">(L50+L58)-(M50+M58)</f>
         <v>-56542.782761709997</v>
       </c>
       <c r="O92" s="42"/>
@@ -17567,23 +21553,23 @@
         <v>4714.5105779130536</v>
       </c>
       <c r="I94" s="34">
-        <f t="shared" ref="I94:M94" ca="1" si="52">I63-H63</f>
+        <f ca="1">I63-H63</f>
         <v>4941.9998310577939</v>
       </c>
       <c r="J94" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1">J63-I63</f>
         <v>5180.4661218909896</v>
       </c>
       <c r="K94" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1">K63-J63</f>
         <v>5430.439125352219</v>
       </c>
       <c r="L94" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1">L63-K63</f>
         <v>5692.4740747830074</v>
       </c>
       <c r="M94" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1">M63-L63</f>
         <v>5967.1529951963021</v>
       </c>
       <c r="O94" s="42"/>
@@ -17615,23 +21601,23 @@
         <v>340278.59999999986</v>
       </c>
       <c r="I95" s="90">
-        <f t="shared" ref="I95:M95" ca="1" si="53">I64-H64</f>
+        <f ca="1">I64-H64</f>
         <v>408334.32000000007</v>
       </c>
       <c r="J95" s="90">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1">J64-I64</f>
         <v>490001.18399999989</v>
       </c>
       <c r="K95" s="90">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1">K64-J64</f>
         <v>588001.42079999996</v>
       </c>
       <c r="L95" s="90">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1">L64-K64</f>
         <v>705601.70495999977</v>
       </c>
       <c r="M95" s="90">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1">M64-L64</f>
         <v>846722.04595199972</v>
       </c>
       <c r="O95" s="42"/>
@@ -17663,23 +21649,23 @@
         <v>84446.68055148609</v>
       </c>
       <c r="I96" s="34">
-        <f t="shared" ref="I96:M96" ca="1" si="54">(I65+I70)-(H65+H70)</f>
+        <f ca="1">(I65+I70)-(H65+H70)</f>
         <v>87705.967400419991</v>
       </c>
       <c r="J96" s="34">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">(J65+J70)-(I65+I70)</f>
         <v>94312.681559968973</v>
       </c>
       <c r="K96" s="34">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">(K65+K70)-(J65+J70)</f>
         <v>93871.695297886617</v>
       </c>
       <c r="L96" s="34">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">(L65+L70)-(K65+K70)</f>
         <v>105385.8891321558</v>
       </c>
       <c r="M96" s="34">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">(M65+M70)-(L65+L70)</f>
         <v>103307.68166357232</v>
       </c>
       <c r="O96" s="42"/>
@@ -17711,23 +21697,23 @@
         <v>8261.6850278715137</v>
       </c>
       <c r="I97" s="34">
-        <f t="shared" ref="I97:M97" ca="1" si="55">(I68+I66)-(H68+H66)</f>
+        <f ca="1">(I68+I66)-(H68+H66)</f>
         <v>8646.7303242044873</v>
       </c>
       <c r="J97" s="34">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">(J68+J66)-(I68+I66)</f>
         <v>9049.7210977285577</v>
       </c>
       <c r="K97" s="34">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">(K68+K66)-(J68+J66)</f>
         <v>9471.4937179688422</v>
       </c>
       <c r="L97" s="34">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">(L68+L66)-(K68+K66)</f>
         <v>9912.9235344104236</v>
       </c>
       <c r="M97" s="34">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">(M68+M66)-(L68+L66)</f>
         <v>10374.926693203772</v>
       </c>
       <c r="O97" s="42"/>
@@ -17737,27 +21723,27 @@
         <v>72</v>
       </c>
       <c r="B98" s="38">
-        <f t="shared" ref="B98:M98" si="56">SUM(B89:B97)</f>
+        <f t="shared" ref="B98:M98" si="44">SUM(B89:B97)</f>
         <v>-105702</v>
       </c>
       <c r="C98" s="38">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>-1378899</v>
       </c>
       <c r="D98" s="38">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>-101721</v>
       </c>
       <c r="E98" s="38">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>-237285</v>
       </c>
       <c r="F98" s="38">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>-98244</v>
       </c>
       <c r="G98" s="38">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>849737</v>
       </c>
       <c r="H98" s="38">
@@ -17765,23 +21751,23 @@
         <v>725358.39080635982</v>
       </c>
       <c r="I98" s="38">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">SUM(I89:I97)</f>
         <v>896304.76151862461</v>
       </c>
       <c r="J98" s="38">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">SUM(J89:J97)</f>
         <v>1080435.4376352895</v>
       </c>
       <c r="K98" s="38">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">SUM(K89:K97)</f>
         <v>1252256.5946125439</v>
       </c>
       <c r="L98" s="38">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">SUM(L89:L97)</f>
         <v>1457732.8414116274</v>
       </c>
       <c r="M98" s="38">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">SUM(M89:M97)</f>
         <v>1663706.8468769491</v>
       </c>
       <c r="O98" s="42"/>
@@ -17846,23 +21832,23 @@
         <v>-326233.98978734179</v>
       </c>
       <c r="I101" s="28">
-        <f t="shared" ref="I101:M101" ca="1" si="57">H49-I49</f>
+        <f ca="1">H49-I49</f>
         <v>-333345.09226207598</v>
       </c>
       <c r="J101" s="28">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">I49-J49</f>
         <v>-345351.53404249763</v>
       </c>
       <c r="K101" s="28">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">J49-K49</f>
         <v>-356901.59806064516</v>
       </c>
       <c r="L101" s="28">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">K49-L49</f>
         <v>-371349.32255047746</v>
       </c>
       <c r="M101" s="28">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">L49-M49</f>
         <v>-388020.83870877372</v>
       </c>
     </row>
@@ -17899,23 +21885,23 @@
         <v>-93247.670404558768</v>
       </c>
       <c r="I102" s="28">
-        <f t="shared" ref="I102:M102" ca="1" si="58">H52-I52</f>
+        <f ca="1">H52-I52</f>
         <v>-339659.6464210134</v>
       </c>
       <c r="J102" s="28">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">I52-J52</f>
         <v>-350827.67118092324</v>
       </c>
       <c r="K102" s="28">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">J52-K52</f>
         <v>-364175.16134459618</v>
       </c>
       <c r="L102" s="28">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">K52-L52</f>
         <v>-373738.77563066734</v>
       </c>
       <c r="M102" s="28">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">L52-M52</f>
         <v>-386901.25551383011</v>
       </c>
       <c r="P102" s="42"/>
@@ -17947,23 +21933,23 @@
         <v>-55021.427321555791</v>
       </c>
       <c r="I103" s="28">
-        <f t="shared" ref="I103:M103" ca="1" si="59">H54-I54</f>
+        <f ca="1">H54-I54</f>
         <v>-23297.733070942282</v>
       </c>
       <c r="J103" s="28">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">I54-J54</f>
         <v>-24383.550613480329</v>
       </c>
       <c r="K103" s="28">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">J54-K54</f>
         <v>-25519.973926635343</v>
       </c>
       <c r="L103" s="28">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">K54-L54</f>
         <v>-26709.361550327158</v>
       </c>
       <c r="M103" s="28">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">L54-M54</f>
         <v>-27954.181946930941</v>
       </c>
       <c r="P103" s="42"/>
@@ -17991,27 +21977,27 @@
         <v>1303</v>
       </c>
       <c r="H104" s="28">
-        <f t="shared" ref="H104:M104" ca="1" si="60">(G56+G57)-(H56+H57)</f>
+        <f ca="1">(G56+G57)-(H56+H57)</f>
         <v>-42175.411920724669</v>
       </c>
       <c r="I104" s="28">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">(H56+H57)-(I56+I57)</f>
         <v>-10466.221608324966</v>
       </c>
       <c r="J104" s="28">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">(I56+I57)-(J56+J57)</f>
         <v>-14185.345754313923</v>
       </c>
       <c r="K104" s="28">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">(J56+J57)-(K56+K57)</f>
         <v>-15742.163628385402</v>
       </c>
       <c r="L104" s="28">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">(K56+K57)-(L56+L57)</f>
         <v>-14878.615902916936</v>
       </c>
       <c r="M104" s="28">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">(L56+L57)-(M56+M57)</f>
         <v>-18636.131140142388</v>
       </c>
       <c r="P104" s="42"/>
@@ -18021,51 +22007,51 @@
         <v>74</v>
       </c>
       <c r="B105" s="38">
-        <f t="shared" ref="B105:M105" si="61">SUM(B101:B104)</f>
+        <f t="shared" ref="B105:M105" si="45">SUM(B101:B104)</f>
         <v>-1610843</v>
       </c>
       <c r="C105" s="38">
-        <f t="shared" si="61"/>
+        <f t="shared" si="45"/>
         <v>740427</v>
       </c>
       <c r="D105" s="38">
-        <f t="shared" si="61"/>
+        <f t="shared" si="45"/>
         <v>267012</v>
       </c>
       <c r="E105" s="38">
-        <f t="shared" si="61"/>
+        <f t="shared" si="45"/>
         <v>186045</v>
       </c>
       <c r="F105" s="38">
-        <f t="shared" si="61"/>
+        <f t="shared" si="45"/>
         <v>599753</v>
       </c>
       <c r="G105" s="38">
-        <f t="shared" si="61"/>
+        <f t="shared" si="45"/>
         <v>-517978</v>
       </c>
       <c r="H105" s="38">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">SUM(H101:H104)</f>
         <v>-516678.49943418102</v>
       </c>
       <c r="I105" s="38">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">SUM(I101:I104)</f>
         <v>-706768.69336235663</v>
       </c>
       <c r="J105" s="38">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">SUM(J101:J104)</f>
         <v>-734748.10159121524</v>
       </c>
       <c r="K105" s="38">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">SUM(K101:K104)</f>
         <v>-762338.89696026209</v>
       </c>
       <c r="L105" s="38">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">SUM(L101:L104)</f>
         <v>-786676.07563438895</v>
       </c>
       <c r="M105" s="38">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">SUM(M101:M104)</f>
         <v>-821512.40730967722</v>
       </c>
       <c r="P105" s="42"/>
@@ -18239,51 +22225,51 @@
         <v>80</v>
       </c>
       <c r="B111" s="38">
-        <f t="shared" ref="B111:M111" si="62">SUM(B108:B110)</f>
+        <f t="shared" ref="B111:M111" si="46">SUM(B108:B110)</f>
         <v>1574196</v>
       </c>
       <c r="C111" s="38">
-        <f t="shared" si="62"/>
+        <f t="shared" si="46"/>
         <v>512566</v>
       </c>
       <c r="D111" s="38">
-        <f t="shared" si="62"/>
+        <f t="shared" si="46"/>
         <v>-72470</v>
       </c>
       <c r="E111" s="38">
-        <f t="shared" si="62"/>
+        <f t="shared" si="46"/>
         <v>-87500</v>
       </c>
       <c r="F111" s="38">
-        <f t="shared" si="62"/>
+        <f t="shared" si="46"/>
         <v>-122078</v>
       </c>
       <c r="G111" s="38">
-        <f t="shared" si="62"/>
+        <f t="shared" si="46"/>
         <v>-155869</v>
       </c>
       <c r="H111" s="38">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">SUM(H108:H110)</f>
         <v>-121240.7752518054</v>
       </c>
       <c r="I111" s="38">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">SUM(I108:I110)</f>
         <v>-168587.15432240936</v>
       </c>
       <c r="J111" s="38">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">SUM(J108:J110)</f>
         <v>-176938.25562112895</v>
       </c>
       <c r="K111" s="38">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">SUM(K108:K110)</f>
         <v>-185711.83671810228</v>
       </c>
       <c r="L111" s="38">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">SUM(L108:L110)</f>
         <v>-1045945.6802586364</v>
       </c>
       <c r="M111" s="38">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">SUM(M108:M110)</f>
         <v>-149956.68585505945</v>
       </c>
     </row>
@@ -18361,51 +22347,51 @@
         <v>82</v>
       </c>
       <c r="B115" s="28">
-        <f t="shared" ref="B115:M115" si="63">B98+B105+B111+B114</f>
+        <f t="shared" ref="B115:M115" si="47">B98+B105+B111+B114</f>
         <v>-142021</v>
       </c>
       <c r="C115" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="47"/>
         <v>-125980</v>
       </c>
       <c r="D115" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="47"/>
         <v>92708</v>
       </c>
       <c r="E115" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="47"/>
         <v>-139371</v>
       </c>
       <c r="F115" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="47"/>
         <v>379964</v>
       </c>
       <c r="G115" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="47"/>
         <v>174254</v>
       </c>
       <c r="H115" s="28">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">H98+H105+H111+H114</f>
         <v>85735.077579419143</v>
       </c>
       <c r="I115" s="28">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">I98+I105+I111+I114</f>
         <v>19181.225096825601</v>
       </c>
       <c r="J115" s="28">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">J98+J105+J111+J114</f>
         <v>166889.99547583985</v>
       </c>
       <c r="K115" s="28">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">K98+K105+K111+K114</f>
         <v>302252.63789069949</v>
       </c>
       <c r="L115" s="28">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">L98+L105+L111+L114</f>
         <v>-376939.09976414393</v>
       </c>
       <c r="M115" s="28">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">M98+M105+M111+M114</f>
         <v>690087.69732302264</v>
       </c>
     </row>
@@ -18459,43 +22445,43 @@
         <v>564465</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" ref="D118:M118" si="64">C119</f>
+        <f t="shared" ref="D118:M118" si="48">C119</f>
         <v>438485</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="48"/>
         <v>531193</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="48"/>
         <v>391822</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="48"/>
         <v>771786</v>
       </c>
       <c r="H118" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="48"/>
         <v>946040</v>
       </c>
       <c r="I118" s="6">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">H119</f>
         <v>1031775.0775794191</v>
       </c>
       <c r="J118" s="6">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">I119</f>
         <v>1050956.3026762446</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">J119</f>
         <v>1217846.2981520845</v>
       </c>
       <c r="L118" s="6">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">K119</f>
         <v>1520098.936042784</v>
       </c>
       <c r="M118" s="6">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">L119</f>
         <v>1143159.8362786402</v>
       </c>
     </row>
@@ -18508,47 +22494,47 @@
         <v>564465</v>
       </c>
       <c r="C119" s="132">
-        <f t="shared" ref="C119:M119" si="65">C118+C115</f>
+        <f t="shared" ref="C119:M119" si="49">C118+C115</f>
         <v>438485</v>
       </c>
       <c r="D119" s="132">
-        <f t="shared" si="65"/>
+        <f t="shared" si="49"/>
         <v>531193</v>
       </c>
       <c r="E119" s="132">
-        <f t="shared" si="65"/>
+        <f t="shared" si="49"/>
         <v>391822</v>
       </c>
       <c r="F119" s="132">
-        <f t="shared" si="65"/>
+        <f t="shared" si="49"/>
         <v>771786</v>
       </c>
       <c r="G119" s="132">
-        <f t="shared" si="65"/>
+        <f t="shared" si="49"/>
         <v>946040</v>
       </c>
       <c r="H119" s="132">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">H118+H115</f>
         <v>1031775.0775794191</v>
       </c>
       <c r="I119" s="132">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">I118+I115</f>
         <v>1050956.3026762446</v>
       </c>
       <c r="J119" s="132">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">J118+J115</f>
         <v>1217846.2981520845</v>
       </c>
       <c r="K119" s="132">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">K118+K115</f>
         <v>1520098.936042784</v>
       </c>
       <c r="L119" s="132">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">L118+L115</f>
         <v>1143159.8362786402</v>
       </c>
       <c r="M119" s="132">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">M118+M115</f>
         <v>1833247.5336016628</v>
       </c>
     </row>
@@ -18626,23 +22612,23 @@
         <v>768458.45279941487</v>
       </c>
       <c r="I123" s="34">
-        <f t="shared" ref="I123:M123" ca="1" si="66">I119*I128</f>
+        <f ca="1">I119*I128</f>
         <v>802011.77472920378</v>
       </c>
       <c r="J123" s="34">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">J119*J128</f>
         <v>936260.15847229806</v>
       </c>
       <c r="K123" s="34">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">K119*K128</f>
         <v>1145279.3187718673</v>
       </c>
       <c r="L123" s="34">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">L119*L128</f>
         <v>868149.35834779835</v>
       </c>
       <c r="M123" s="34">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">M119*M128</f>
         <v>1403101.7975730509</v>
       </c>
     </row>
@@ -18673,23 +22659,23 @@
         <v>261767.71264197424</v>
       </c>
       <c r="I124" s="34">
-        <f t="shared" ref="I124:M124" ca="1" si="67">I129*I119</f>
+        <f ca="1">I129*I119</f>
         <v>247466.93275872196</v>
       </c>
       <c r="J124" s="34">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">J129*J119</f>
         <v>279677.40920964279</v>
       </c>
       <c r="K124" s="34">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">K129*K119</f>
         <v>372356.30558601615</v>
       </c>
       <c r="L124" s="34">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">L129*L119</f>
         <v>273512.50268982229</v>
       </c>
       <c r="M124" s="34">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">M129*M119</f>
         <v>427883.09926222335</v>
       </c>
     </row>
@@ -18720,23 +22706,23 @@
         <v>1548.9121380299559</v>
       </c>
       <c r="I125" s="34">
-        <f t="shared" ref="I125:M125" ca="1" si="68">I130*I119</f>
+        <f ca="1">I130*I119</f>
         <v>1477.5951883188554</v>
       </c>
       <c r="J125" s="34">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">J130*J119</f>
         <v>1908.7304701437154</v>
       </c>
       <c r="K125" s="34">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">K130*K119</f>
         <v>2463.3116849006947</v>
       </c>
       <c r="L125" s="34">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">L130*L119</f>
         <v>1497.9752410195169</v>
       </c>
       <c r="M125" s="34">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">M130*M119</f>
         <v>2262.6367663887399</v>
       </c>
     </row>
@@ -18749,47 +22735,47 @@
         <v>564465</v>
       </c>
       <c r="C126" s="54">
-        <f t="shared" ref="C126:M126" si="69">SUM(C123:C125)</f>
+        <f t="shared" ref="C126:M126" si="50">SUM(C123:C125)</f>
         <v>438485</v>
       </c>
       <c r="D126" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="50"/>
         <v>531193</v>
       </c>
       <c r="E126" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="50"/>
         <v>391822</v>
       </c>
       <c r="F126" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="50"/>
         <v>771786</v>
       </c>
       <c r="G126" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="50"/>
         <v>946040</v>
       </c>
       <c r="H126" s="54">
-        <f t="shared" ca="1" si="69"/>
+        <f ca="1">SUM(H123:H125)</f>
         <v>1031775.077579419</v>
       </c>
       <c r="I126" s="54">
-        <f t="shared" ca="1" si="69"/>
+        <f ca="1">SUM(I123:I125)</f>
         <v>1050956.3026762444</v>
       </c>
       <c r="J126" s="54">
-        <f t="shared" ca="1" si="69"/>
+        <f ca="1">SUM(J123:J125)</f>
         <v>1217846.2981520845</v>
       </c>
       <c r="K126" s="54">
-        <f t="shared" ca="1" si="69"/>
+        <f ca="1">SUM(K123:K125)</f>
         <v>1520098.936042784</v>
       </c>
       <c r="L126" s="54">
-        <f t="shared" ca="1" si="69"/>
+        <f ca="1">SUM(L123:L125)</f>
         <v>1143159.8362786402</v>
       </c>
       <c r="M126" s="54">
-        <f t="shared" ca="1" si="69"/>
+        <f ca="1">SUM(M123:M125)</f>
         <v>1833247.5336016631</v>
       </c>
     </row>
@@ -18803,23 +22789,23 @@
         <v>0.63479400848591139</v>
       </c>
       <c r="C128" s="63">
-        <f t="shared" ref="C128:G128" si="70">C123/C119</f>
+        <f t="shared" ref="C128:G128" si="51">C123/C119</f>
         <v>0.72917887727060215</v>
       </c>
       <c r="D128" s="63">
-        <f t="shared" si="70"/>
+        <f t="shared" si="51"/>
         <v>0.86093943256029348</v>
       </c>
       <c r="E128" s="63">
-        <f t="shared" si="70"/>
+        <f t="shared" si="51"/>
         <v>0.71739208109804964</v>
       </c>
       <c r="F128" s="63">
-        <f t="shared" si="70"/>
+        <f t="shared" si="51"/>
         <v>0.72382240672932652</v>
       </c>
       <c r="G128" s="63">
-        <f t="shared" si="70"/>
+        <f t="shared" si="51"/>
         <v>0.80262885290262564</v>
       </c>
       <c r="H128" s="138">
@@ -18827,23 +22813,23 @@
         <v>0.74479260984113482</v>
       </c>
       <c r="I128" s="139">
-        <f t="shared" ref="I128:M130" si="71">AVERAGE(C128:H128)</f>
+        <f t="shared" ref="I128:M130" si="52">AVERAGE(C128:H128)</f>
         <v>0.76312571006700536</v>
       </c>
       <c r="J128" s="139">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.76878351553307267</v>
       </c>
       <c r="K128" s="139">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.75342419602853583</v>
       </c>
       <c r="L128" s="139">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.7594295485169501</v>
       </c>
       <c r="M128" s="140">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.76536407214822078</v>
       </c>
     </row>
@@ -18856,47 +22842,47 @@
         <v>0.36313323235275879</v>
       </c>
       <c r="C129" s="63">
-        <f t="shared" ref="C129:G129" si="72">C124/C119</f>
+        <f t="shared" ref="C129:G129" si="53">C124/C119</f>
         <v>0.27038325142251163</v>
       </c>
       <c r="D129" s="63">
-        <f t="shared" si="72"/>
+        <f t="shared" si="53"/>
         <v>0.13781243352227909</v>
       </c>
       <c r="E129" s="63">
-        <f t="shared" si="72"/>
+        <f t="shared" si="53"/>
         <v>0.27912674632869006</v>
       </c>
       <c r="F129" s="63">
-        <f t="shared" si="72"/>
+        <f t="shared" si="53"/>
         <v>0.27441026398509433</v>
       </c>
       <c r="G129" s="63">
-        <f t="shared" si="72"/>
+        <f t="shared" si="53"/>
         <v>0.19737114709737433</v>
       </c>
       <c r="H129" s="141">
-        <f t="shared" ref="H129:H130" si="73">AVERAGE(B129:G129)</f>
+        <f t="shared" ref="H129:H130" si="54">AVERAGE(B129:G129)</f>
         <v>0.25370617911811805</v>
       </c>
       <c r="I129" s="63">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.23546833691234459</v>
       </c>
       <c r="J129" s="63">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.22964918449398342</v>
       </c>
       <c r="K129" s="63">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.24495530965593412</v>
       </c>
       <c r="L129" s="63">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.23926007021047477</v>
       </c>
       <c r="M129" s="142">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>0.23340170458137155</v>
       </c>
     </row>
@@ -18909,47 +22895,47 @@
         <v>2.0727591613297546E-3</v>
       </c>
       <c r="C130" s="63">
-        <f t="shared" ref="C130:G130" si="74">C125/C119</f>
+        <f t="shared" ref="C130:G130" si="55">C125/C119</f>
         <v>4.3787130688621045E-4</v>
       </c>
       <c r="D130" s="63">
-        <f t="shared" si="74"/>
+        <f t="shared" si="55"/>
         <v>1.2481339174273758E-3</v>
       </c>
       <c r="E130" s="63">
-        <f t="shared" si="74"/>
+        <f t="shared" si="55"/>
         <v>3.4811725732603071E-3</v>
       </c>
       <c r="F130" s="63">
-        <f t="shared" si="74"/>
+        <f t="shared" si="55"/>
         <v>1.7673292855791632E-3</v>
       </c>
       <c r="G130" s="63">
-        <f t="shared" si="74"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H130" s="143">
-        <f t="shared" si="73"/>
+        <f t="shared" si="54"/>
         <v>1.5012110407471352E-3</v>
       </c>
       <c r="I130" s="68">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>1.405953020650032E-3</v>
       </c>
       <c r="J130" s="68">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>1.5672999729440024E-3</v>
       </c>
       <c r="K130" s="68">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>1.6204943155301067E-3</v>
       </c>
       <c r="L130" s="68">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>1.3103812725750732E-3</v>
       </c>
       <c r="M130" s="144">
-        <f t="shared" si="71"/>
+        <f t="shared" si="52"/>
         <v>1.2342232704077249E-3</v>
       </c>
     </row>
@@ -18975,8 +22961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683C3F7-1682-47B5-965E-E98B3B170D3C}">
   <dimension ref="B1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19007,7 +22993,7 @@
       <c r="N1" s="196"/>
     </row>
     <row r="2" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="200" t="e" vm="1">
+      <c r="B2" s="200" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -19062,7 +23048,11 @@
         <v>322</v>
       </c>
       <c r="D7" s="209">
-        <v>0.12</v>
+        <f ca="1">Schedules!C120</f>
+        <v>0.13175314701200977</v>
+      </c>
+      <c r="E7" s="200" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19072,13 +23062,19 @@
       <c r="D8" s="209">
         <v>0.03</v>
       </c>
+      <c r="E8" s="200" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="200" t="s">
         <v>324</v>
       </c>
       <c r="D9" s="210">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="E9" s="200" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19132,7 +23128,7 @@
         <v>329</v>
       </c>
       <c r="D14" s="214">
-        <f ca="1">'3_Statement_Model'!M69</f>
+        <f ca="1">Debt_Schedule!M29</f>
         <v>320725.95559312042</v>
       </c>
       <c r="E14" s="200" t="s">
@@ -19144,8 +23140,8 @@
         <v>330</v>
       </c>
       <c r="D15" s="214">
-        <f ca="1">'3_Statement_Model'!M63</f>
-        <v>129631.04272619337</v>
+        <f ca="1">'3_Statement_Model'!M48</f>
+        <v>1403101.7975730509</v>
       </c>
       <c r="E15" s="200" t="s">
         <v>23</v>
@@ -19156,8 +23152,8 @@
         <v>331</v>
       </c>
       <c r="D16" s="215">
-        <f ca="1">-'3_Statement_Model'!H103</f>
-        <v>55021.427321555791</v>
+        <f ca="1">-'3_Statement_Model'!M103</f>
+        <v>27954.181946930941</v>
       </c>
       <c r="E16" s="200" t="s">
         <v>23</v>
@@ -19255,8 +23251,8 @@
       </c>
       <c r="N19" s="217"/>
       <c r="O19" s="227">
-        <f ca="1">(I27*(1+D8))/(D7-D8)</f>
-        <v>15554020.314823912</v>
+        <f ca="1">(J27*(1+D8))/(D7-D8)</f>
+        <v>15925167.119809363</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19293,8 +23289,8 @@
         <v>339</v>
       </c>
       <c r="O20" s="231">
-        <f ca="1">D9*(I22+I24)</f>
-        <v>4434535.1073296424</v>
+        <f ca="1">D9*(J22+J24)</f>
+        <v>11620268.451702485</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19331,7 +23327,7 @@
       </c>
       <c r="O21" s="234">
         <f ca="1">AVERAGE(O19:O20)</f>
-        <v>9994277.7110767774</v>
+        <v>13772717.785755925</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19520,11 +23516,11 @@
       </c>
       <c r="D28" s="240">
         <f ca="1">-I36</f>
-        <v>-7637103.192866927</v>
+        <v>-6363632.4380200692</v>
       </c>
       <c r="K28" s="240">
         <f ca="1">O21</f>
-        <v>9994277.7110767774</v>
+        <v>13772717.785755925</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19534,33 +23530,33 @@
       <c r="D29" s="241">
         <v>0</v>
       </c>
-      <c r="E29" s="256">
+      <c r="E29" s="254">
         <f ca="1">(E28+E27)*E21</f>
         <v>165473.1623467482</v>
       </c>
-      <c r="F29" s="256">
+      <c r="F29" s="254">
         <f ca="1">(F28+F27)*F21</f>
         <v>786755.34742687643</v>
       </c>
-      <c r="G29" s="256">
+      <c r="G29" s="254">
         <f t="shared" ref="G29:J29" ca="1" si="6">(G28+G27)*G21</f>
         <v>966275.54200333916</v>
       </c>
-      <c r="H29" s="256">
+      <c r="H29" s="254">
         <f t="shared" ca="1" si="6"/>
         <v>1153492.6439631125</v>
       </c>
-      <c r="I29" s="256">
+      <c r="I29" s="254">
         <f t="shared" ca="1" si="6"/>
         <v>1359089.1537224776</v>
       </c>
-      <c r="J29" s="256">
-        <f t="shared" ca="1" si="6"/>
+      <c r="J29" s="254">
+        <f ca="1">(J28+J27)*J21</f>
         <v>1573238.7098376567</v>
       </c>
       <c r="K29" s="239">
         <f ca="1">K28+K27</f>
-        <v>9994277.7110767774</v>
+        <v>13772717.785755925</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19569,7 +23565,7 @@
       </c>
       <c r="D30" s="227">
         <f ca="1">D28+D27</f>
-        <v>-7637103.192866927</v>
+        <v>-6363632.4380200692</v>
       </c>
       <c r="E30" s="227">
         <f ca="1">(E28+E27)*E21</f>
@@ -19588,16 +23584,16 @@
         <v>1153492.6439631125</v>
       </c>
       <c r="I30" s="227">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(I28+I27)*I21</f>
         <v>1359089.1537224776</v>
       </c>
       <c r="J30" s="227">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(J28+J27)*J21</f>
         <v>1573238.7098376567</v>
       </c>
       <c r="K30" s="227">
         <f ca="1">K28</f>
-        <v>9994277.7110767774</v>
+        <v>13772717.785755925</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19624,7 +23620,7 @@
       <c r="C33" s="217"/>
       <c r="D33" s="227">
         <f ca="1">XNPV(D7,D29:K29,D19:K19)</f>
-        <v>9608796.0278583467</v>
+        <v>11151198.893445956</v>
       </c>
       <c r="G33" s="217" t="s">
         <v>353</v>
@@ -19640,7 +23636,7 @@
       <c r="M33" s="217"/>
       <c r="N33" s="242">
         <f ca="1">D38/I38-1</f>
-        <v>0.26479863583920427</v>
+        <v>0.64297087451343593</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19649,7 +23645,7 @@
       </c>
       <c r="D34" s="238">
         <f ca="1">+D15</f>
-        <v>129631.04272619337</v>
+        <v>1403101.7975730509</v>
       </c>
       <c r="G34" s="200" t="s">
         <v>356</v>
@@ -19663,7 +23659,7 @@
       </c>
       <c r="N34" s="243">
         <f ca="1">XIRR(D30:K30,D19:K19)</f>
-        <v>0.18081944584846499</v>
+        <v>0.28531778454780576</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19679,7 +23675,7 @@
       </c>
       <c r="I35" s="238">
         <f ca="1">+D15</f>
-        <v>129631.04272619337</v>
+        <v>1403101.7975730509</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19688,14 +23684,14 @@
       </c>
       <c r="D36" s="239">
         <f ca="1">D33+D34-D35</f>
-        <v>9417701.114991419</v>
+        <v>12233574.735425886</v>
       </c>
       <c r="G36" s="200" t="s">
         <v>352</v>
       </c>
       <c r="I36" s="239">
         <f ca="1">I33+I34-I35</f>
-        <v>7637103.192866927</v>
+        <v>6363632.4380200692</v>
       </c>
       <c r="L36" s="223" t="s">
         <v>361</v>
@@ -19720,7 +23716,7 @@
       </c>
       <c r="D38" s="245">
         <f ca="1">D36/D13</f>
-        <v>23.171111008574222</v>
+        <v>30.099226421086147</v>
       </c>
       <c r="G38" s="200" t="s">
         <v>362</v>
@@ -19734,7 +23730,7 @@
       </c>
       <c r="N38" s="245">
         <f ca="1">D38-I38</f>
-        <v>4.8511110085742217</v>
+        <v>11.779226421086147</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19744,7 +23740,7 @@
       </c>
       <c r="N39" s="245">
         <f ca="1">SUM(N37:N38)</f>
-        <v>23.171111008574222</v>
+        <v>30.099226421086147</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19808,6 +23804,587 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0EC0B7-98D9-477B-9B65-3B1531E12075}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="264"/>
+    <col min="2" max="2" width="39.42578125" style="264" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="264"/>
+    <col min="4" max="4" width="14.42578125" style="264" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="264" customWidth="1"/>
+    <col min="6" max="6" width="2" style="264" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="264"/>
+    <col min="8" max="8" width="9.85546875" style="264" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="264"/>
+    <col min="10" max="10" width="10" style="264" customWidth="1"/>
+    <col min="11" max="11" width="2" style="264" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="264" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="264" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="264" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="264" customWidth="1"/>
+    <col min="16" max="16" width="1" style="264" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="264"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="194" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="195"/>
+      <c r="B2" s="265" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="266" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="275"/>
+      <c r="C4" s="276" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="276" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="276" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="278"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="279"/>
+      <c r="C5" s="280" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="280" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="280" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="281"/>
+      <c r="G5" s="280" t="s">
+        <v>387</v>
+      </c>
+      <c r="H5" s="280" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" s="280" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="280" t="s">
+        <v>388</v>
+      </c>
+      <c r="K5" s="282"/>
+      <c r="L5" s="280" t="s">
+        <v>389</v>
+      </c>
+      <c r="M5" s="280" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" s="280" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="280" t="s">
+        <v>391</v>
+      </c>
+      <c r="P5" s="283"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="279" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="284" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="284" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="284" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="281"/>
+      <c r="G6" s="284" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" s="284" t="s">
+        <v>394</v>
+      </c>
+      <c r="I6" s="284" t="s">
+        <v>394</v>
+      </c>
+      <c r="J6" s="284" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="282"/>
+      <c r="L6" s="284" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="282" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="282" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="282" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="285"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="267" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" s="288" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">_FV(B7,"Price")</f>
+        <v>246.28</v>
+      </c>
+      <c r="D7" s="289" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">_FV(B7,"Market cap",TRUE)/1000000</f>
+        <v>234458.56</v>
+      </c>
+      <c r="E7" s="269">
+        <v>230320</v>
+      </c>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269">
+        <v>34857</v>
+      </c>
+      <c r="H7" s="269">
+        <v>9958</v>
+      </c>
+      <c r="I7" s="269">
+        <v>5999</v>
+      </c>
+      <c r="J7" s="269">
+        <v>4136</v>
+      </c>
+      <c r="K7" s="267"/>
+      <c r="L7" s="270">
+        <f>E7/G7</f>
+        <v>6.6075680638035399</v>
+      </c>
+      <c r="M7" s="270">
+        <f>E7/H7</f>
+        <v>23.129142398071902</v>
+      </c>
+      <c r="N7" s="270">
+        <f>E7/I7</f>
+        <v>38.39306551091849</v>
+      </c>
+      <c r="O7" s="270">
+        <f ca="1">D7/J7</f>
+        <v>56.687272727272727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="267" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="288" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_FV(B8,"Price")</f>
+        <v>94.68</v>
+      </c>
+      <c r="D8" s="289" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">_FV(B8,"Market cap",TRUE)/1000000</f>
+        <v>197447.47091999999</v>
+      </c>
+      <c r="E8" s="269">
+        <v>202420</v>
+      </c>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269">
+        <v>43978</v>
+      </c>
+      <c r="H8" s="269">
+        <v>5385</v>
+      </c>
+      <c r="I8" s="269">
+        <v>4648</v>
+      </c>
+      <c r="J8" s="269">
+        <v>9856</v>
+      </c>
+      <c r="K8" s="267"/>
+      <c r="L8" s="270">
+        <f t="shared" ref="L8:L13" si="0">E8/G8</f>
+        <v>4.6027559234162538</v>
+      </c>
+      <c r="M8" s="270">
+        <f t="shared" ref="M8:M11" si="1">E8/H8</f>
+        <v>37.589600742804087</v>
+      </c>
+      <c r="N8" s="270">
+        <f t="shared" ref="N8:N11" si="2">E8/I8</f>
+        <v>43.549913941480206</v>
+      </c>
+      <c r="O8" s="270">
+        <f t="shared" ref="O8:O11" ca="1" si="3">D8/J8</f>
+        <v>20.033225539772726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="267" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="288" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Price")</f>
+        <v>938.28</v>
+      </c>
+      <c r="D9" s="289" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Market cap",TRUE)/1000000</f>
+        <v>195162.23999999999</v>
+      </c>
+      <c r="E9" s="269">
+        <v>190990</v>
+      </c>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269">
+        <v>10984</v>
+      </c>
+      <c r="H9" s="269">
+        <v>2325</v>
+      </c>
+      <c r="I9" s="269">
+        <v>1761</v>
+      </c>
+      <c r="J9" s="269">
+        <v>1425</v>
+      </c>
+      <c r="K9" s="267"/>
+      <c r="L9" s="270">
+        <f t="shared" si="0"/>
+        <v>17.388018936635106</v>
+      </c>
+      <c r="M9" s="270">
+        <f t="shared" si="1"/>
+        <v>82.14623655913978</v>
+      </c>
+      <c r="N9" s="270">
+        <f t="shared" si="2"/>
+        <v>108.45542305508233</v>
+      </c>
+      <c r="O9" s="270">
+        <f t="shared" ca="1" si="3"/>
+        <v>136.95595789473683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="267" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="288" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_FV(B10,"Price")</f>
+        <v>660.52</v>
+      </c>
+      <c r="D10" s="289" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Market cap",TRUE)/1000000</f>
+        <v>184156.27859999999</v>
+      </c>
+      <c r="E10" s="269">
+        <v>186240</v>
+      </c>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269">
+        <v>16285</v>
+      </c>
+      <c r="H10" s="269">
+        <v>4581</v>
+      </c>
+      <c r="I10" s="269">
+        <v>3792</v>
+      </c>
+      <c r="J10" s="269">
+        <v>2963</v>
+      </c>
+      <c r="K10" s="267"/>
+      <c r="L10" s="270">
+        <f t="shared" si="0"/>
+        <v>11.436291065397604</v>
+      </c>
+      <c r="M10" s="270">
+        <f t="shared" si="1"/>
+        <v>40.654878847413229</v>
+      </c>
+      <c r="N10" s="270">
+        <f t="shared" si="2"/>
+        <v>49.11392405063291</v>
+      </c>
+      <c r="O10" s="270">
+        <f t="shared" ca="1" si="3"/>
+        <v>62.151967127910901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="267" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="288" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_FV(B11,"Price")</f>
+        <v>350.55</v>
+      </c>
+      <c r="D11" s="289" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Market cap",TRUE)/1000000</f>
+        <v>148703.31</v>
+      </c>
+      <c r="E11" s="269">
+        <v>149550</v>
+      </c>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269">
+        <v>21505</v>
+      </c>
+      <c r="H11" s="269">
+        <v>7957</v>
+      </c>
+      <c r="I11" s="269">
+        <v>7100</v>
+      </c>
+      <c r="J11" s="269">
+        <v>5560</v>
+      </c>
+      <c r="K11" s="267"/>
+      <c r="L11" s="270">
+        <f t="shared" si="0"/>
+        <v>6.9541966984422228</v>
+      </c>
+      <c r="M11" s="270">
+        <f t="shared" si="1"/>
+        <v>18.794771898956892</v>
+      </c>
+      <c r="N11" s="270">
+        <f t="shared" si="2"/>
+        <v>21.06338028169014</v>
+      </c>
+      <c r="O11" s="270">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.745199640287769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="267"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="269"/>
+      <c r="F12" s="269"/>
+      <c r="G12" s="269"/>
+      <c r="H12" s="269"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="267" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="287" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_FV(B13,"Price")</f>
+        <v>18.32</v>
+      </c>
+      <c r="D13" s="289" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Market cap",TRUE)/1000000</f>
+        <v>7446.00828</v>
+      </c>
+      <c r="E13" s="290">
+        <v>6420</v>
+      </c>
+      <c r="F13" s="291"/>
+      <c r="G13" s="292">
+        <f>'3_Statement_Model'!G6/1000000</f>
+        <v>5.786016</v>
+      </c>
+      <c r="H13" s="292">
+        <f>Schedules!C127/1000000</f>
+        <v>0.256187</v>
+      </c>
+      <c r="I13" s="292">
+        <f>'3_Statement_Model'!G14/1000000</f>
+        <v>-0.118912</v>
+      </c>
+      <c r="J13" s="292">
+        <f>'3_Statement_Model'!G19/1000000</f>
+        <v>2.2783999999999999E-2</v>
+      </c>
+      <c r="K13" s="267"/>
+      <c r="L13" s="270">
+        <v>0.85</v>
+      </c>
+      <c r="M13" s="270">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="N13" s="270">
+        <v>118.29</v>
+      </c>
+      <c r="O13" s="270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="279" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="279"/>
+      <c r="G14" s="279"/>
+      <c r="H14" s="279"/>
+      <c r="I14" s="279"/>
+      <c r="J14" s="279"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="286">
+        <f>AVERAGE(L7:L11)</f>
+        <v>9.3977661375389463</v>
+      </c>
+      <c r="M14" s="286">
+        <f t="shared" ref="M14:O14" si="4">AVERAGE(M7:M11)</f>
+        <v>40.462926089277182</v>
+      </c>
+      <c r="N14" s="286">
+        <f t="shared" si="4"/>
+        <v>52.115141367960817</v>
+      </c>
+      <c r="O14" s="286">
+        <f t="shared" ca="1" si="4"/>
+        <v>60.514724585996191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="279" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="279"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="279"/>
+      <c r="I15" s="279"/>
+      <c r="J15" s="279"/>
+      <c r="K15" s="279"/>
+      <c r="L15" s="286">
+        <f>MEDIAN(L7:L11)</f>
+        <v>6.9541966984422228</v>
+      </c>
+      <c r="M15" s="286">
+        <f t="shared" ref="M15:O15" si="5">MEDIAN(M7:M11)</f>
+        <v>37.589600742804087</v>
+      </c>
+      <c r="N15" s="286">
+        <f t="shared" si="5"/>
+        <v>43.549913941480206</v>
+      </c>
+      <c r="O15" s="286">
+        <f t="shared" ca="1" si="5"/>
+        <v>56.687272727272727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D16" s="289"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="271"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="272"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="272"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="272"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="272"/>
+      <c r="C22" s="272"/>
+      <c r="D22" s="272"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="272"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="272"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="272"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="272"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="272"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="272"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="272"/>
+      <c r="C26" s="273"/>
+      <c r="D26" s="273"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="274"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716BD05-9983-4734-8502-2751C86206D4}">
   <dimension ref="B1:N131"/>
   <sheetViews>
@@ -23472,7 +28049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFD3C7E-257F-4B49-A708-ACE6390F92F6}">
   <dimension ref="B2:N67"/>
   <sheetViews>
@@ -25090,2177 +29667,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921937AC-E959-4924-AF12-8B80161ACD7D}">
-  <dimension ref="A1:AD64"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="2" style="60" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="255" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2">
-        <v>0.77602700000000002</v>
-      </c>
-      <c r="D2">
-        <v>468.2</v>
-      </c>
-      <c r="E2" s="57">
-        <v>21111.599999999999</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="V2" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="255"/>
-      <c r="B3" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3">
-        <v>0.86726499999999995</v>
-      </c>
-      <c r="D3">
-        <v>481.1</v>
-      </c>
-      <c r="E3" s="57">
-        <v>21397.9</v>
-      </c>
-      <c r="F3">
-        <f>(E3/E2)-1</f>
-        <v>1.3561264897023584E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="255"/>
-      <c r="B4" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4">
-        <v>0.95559799999999995</v>
-      </c>
-      <c r="D4">
-        <v>493.9</v>
-      </c>
-      <c r="E4" s="57">
-        <v>21717.200000000001</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F25" si="0">(E4/E3)-1</f>
-        <v>1.4922025058533794E-2</v>
-      </c>
-      <c r="L4" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="V4" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="W4" s="62"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="255"/>
-      <c r="B5" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5">
-        <v>1.0170699999999999</v>
-      </c>
-      <c r="D5">
-        <v>502</v>
-      </c>
-      <c r="E5" s="57">
-        <v>21933.200000000001</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>9.9460335586538662E-3</v>
-      </c>
-      <c r="G5" s="63">
-        <f>SUM(F3:F5)</f>
-        <v>3.8429323514211244E-2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5">
-        <v>0.93495434748030126</v>
-      </c>
-      <c r="V5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W5">
-        <v>0.91339699501793736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>0.95571200000000001</v>
-      </c>
-      <c r="D6">
-        <v>457.1</v>
-      </c>
-      <c r="E6" s="57">
-        <v>21727.7</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-9.369357868436845E-3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6">
-        <v>0.87413963187231591</v>
-      </c>
-      <c r="V6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6">
-        <v>0.83429407050779791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="255"/>
-      <c r="B7" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7">
-        <v>0.33934500000000001</v>
-      </c>
-      <c r="D7">
-        <v>300.39999999999998</v>
-      </c>
-      <c r="E7" s="57">
-        <v>19935.400000000001</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-8.2489172807061917E-2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7">
-        <v>0.86841870604833027</v>
-      </c>
-      <c r="V7" t="s">
-        <v>108</v>
-      </c>
-      <c r="W7">
-        <v>0.82676198280360691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="255"/>
-      <c r="B8" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8">
-        <v>0.49974400000000002</v>
-      </c>
-      <c r="D8">
-        <v>345.2</v>
-      </c>
-      <c r="E8" s="57">
-        <v>21684.6</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>8.7743411218234701E-2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8">
-        <v>0.11115035233505428</v>
-      </c>
-      <c r="V8" t="s">
-        <v>109</v>
-      </c>
-      <c r="W8">
-        <v>44.454364336751844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="255"/>
-      <c r="B9" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9">
-        <v>0.56988000000000005</v>
-      </c>
-      <c r="D9">
-        <v>363</v>
-      </c>
-      <c r="E9" s="57">
-        <v>22068.799999999999</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.7717642935539457E-2</v>
-      </c>
-      <c r="G9" s="63">
-        <f>SUM(F7:F9)</f>
-        <v>2.2971881346712242E-2</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="64">
-        <v>24</v>
-      </c>
-      <c r="V9" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="W9" s="64">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="255" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10">
-        <v>0.60895999999999995</v>
-      </c>
-      <c r="D10">
-        <v>375.9</v>
-      </c>
-      <c r="E10" s="57">
-        <v>22656.799999999999</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>2.6643949829623814E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="255"/>
-      <c r="B11" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11">
-        <v>0.76502499999999996</v>
-      </c>
-      <c r="D11">
-        <v>450.3</v>
-      </c>
-      <c r="E11" s="57">
-        <v>23368.9</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3.1429857702764741E-2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="V11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="255"/>
-      <c r="B12" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12">
-        <v>0.86440499999999998</v>
-      </c>
-      <c r="D12">
-        <v>514.29999999999995</v>
-      </c>
-      <c r="E12" s="57">
-        <v>23922</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>2.3668208602030782E-2</v>
-      </c>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q12" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="X12" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y12" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z12" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA12" s="65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="255"/>
-      <c r="B13" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13">
-        <v>0.96993300000000005</v>
-      </c>
-      <c r="D13">
-        <v>529.79999999999995</v>
-      </c>
-      <c r="E13" s="57">
-        <v>24777</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>3.5741158765989489E-2</v>
-      </c>
-      <c r="G13" s="63">
-        <f>SUM(F11:F13)</f>
-        <v>9.0839225070785012E-2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1.887713933153452</v>
-      </c>
-      <c r="O13">
-        <v>1.887713933153452</v>
-      </c>
-      <c r="P13">
-        <v>152.79688266668043</v>
-      </c>
-      <c r="Q13">
-        <v>2.2449826743243882E-11</v>
-      </c>
-      <c r="V13" t="s">
-        <v>112</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>218893.36506113713</v>
-      </c>
-      <c r="Y13">
-        <v>218893.36506113713</v>
-      </c>
-      <c r="Z13">
-        <v>110.76531544416034</v>
-      </c>
-      <c r="AA13">
-        <v>4.7241684621870538E-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="255" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14">
-        <v>0.87557499999999999</v>
-      </c>
-      <c r="D14">
-        <v>539.5</v>
-      </c>
-      <c r="E14" s="57">
-        <v>25215.5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.7697864955402265E-2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14">
-        <v>22</v>
-      </c>
-      <c r="N14">
-        <v>0.27179681813254752</v>
-      </c>
-      <c r="O14">
-        <v>1.2354400824206706E-2</v>
-      </c>
-      <c r="V14" t="s">
-        <v>113</v>
-      </c>
-      <c r="W14">
-        <v>22</v>
-      </c>
-      <c r="X14">
-        <v>43476.191188862838</v>
-      </c>
-      <c r="Y14">
-        <v>1976.1905085846745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="255"/>
-      <c r="B15" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15">
-        <v>0.99074799999999996</v>
-      </c>
-      <c r="D15">
-        <v>572.20000000000005</v>
-      </c>
-      <c r="E15" s="57">
-        <v>25805.8</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>2.3410204041165228E-2</v>
-      </c>
-      <c r="L15" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="M15" s="64">
-        <v>23</v>
-      </c>
-      <c r="N15" s="64">
-        <v>2.1595107512859997</v>
-      </c>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="V15" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="W15" s="64">
-        <v>23</v>
-      </c>
-      <c r="X15" s="64">
-        <v>262369.55624999997</v>
-      </c>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="255"/>
-      <c r="B16" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16">
-        <v>1.05382</v>
-      </c>
-      <c r="D16">
-        <v>582.1</v>
-      </c>
-      <c r="E16" s="57">
-        <v>26272</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.8065706159080541E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="255"/>
-      <c r="B17" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17">
-        <v>1.174992</v>
-      </c>
-      <c r="D17">
-        <v>593</v>
-      </c>
-      <c r="E17" s="57">
-        <v>26734.3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1.7596680876979187E-2</v>
-      </c>
-      <c r="G17" s="63">
-        <f>SUM(F15:F17)</f>
-        <v>5.9072591077224956E-2</v>
-      </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="O17" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="R17" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="S17" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="T17" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="X17" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y17" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z17" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA17" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB17" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC17" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD17" s="65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="255" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18">
-        <v>1.000548</v>
-      </c>
-      <c r="D18">
-        <v>608.29999999999995</v>
-      </c>
-      <c r="E18" s="57">
-        <v>27164.400000000001</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1.6087946944561837E-2</v>
-      </c>
-      <c r="L18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18">
-        <v>-0.43702299460386618</v>
-      </c>
-      <c r="N18">
-        <v>0.11670621985750448</v>
-      </c>
-      <c r="O18">
-        <v>-3.7446418463168532</v>
-      </c>
-      <c r="P18">
-        <v>1.1220217359732064E-3</v>
-      </c>
-      <c r="Q18">
-        <v>-0.67905688082323068</v>
-      </c>
-      <c r="R18">
-        <v>-0.19498910838450162</v>
-      </c>
-      <c r="S18">
-        <v>-0.67905688082323068</v>
-      </c>
-      <c r="T18">
-        <v>-0.19498910838450162</v>
-      </c>
-      <c r="V18" t="s">
-        <v>115</v>
-      </c>
-      <c r="W18">
-        <v>-258.61919650246921</v>
-      </c>
-      <c r="X18">
-        <v>75.249201879505634</v>
-      </c>
-      <c r="Y18">
-        <v>-3.4368364054756171</v>
-      </c>
-      <c r="Z18">
-        <v>2.3547086115294031E-3</v>
-      </c>
-      <c r="AA18">
-        <v>-414.67648966164893</v>
-      </c>
-      <c r="AB18">
-        <v>-102.56190334328949</v>
-      </c>
-      <c r="AC18">
-        <v>-414.67648966164893</v>
-      </c>
-      <c r="AD18">
-        <v>-102.56190334328949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="255"/>
-      <c r="B19" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19">
-        <v>1.0209060000000001</v>
-      </c>
-      <c r="D19">
-        <v>610.1</v>
-      </c>
-      <c r="E19" s="57">
-        <v>27453.8</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1.065364962966231E-2</v>
-      </c>
-      <c r="L19" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="64">
-        <v>2.6823248327996515E-3</v>
-      </c>
-      <c r="N19" s="64">
-        <v>2.1699719665731033E-4</v>
-      </c>
-      <c r="O19" s="64">
-        <v>12.361103618475191</v>
-      </c>
-      <c r="P19" s="64">
-        <v>2.2449826743243882E-11</v>
-      </c>
-      <c r="Q19" s="64">
-        <v>2.2323001908413822E-3</v>
-      </c>
-      <c r="R19" s="64">
-        <v>3.1323494747579209E-3</v>
-      </c>
-      <c r="S19" s="64">
-        <v>2.2323001908413822E-3</v>
-      </c>
-      <c r="T19" s="64">
-        <v>3.1323494747579209E-3</v>
-      </c>
-      <c r="V19" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="W19" s="64">
-        <v>3.1555017727298254E-2</v>
-      </c>
-      <c r="X19" s="64">
-        <v>2.9982409686767132E-3</v>
-      </c>
-      <c r="Y19" s="64">
-        <v>10.524510223481203</v>
-      </c>
-      <c r="Z19" s="64">
-        <v>4.7241684621870372E-10</v>
-      </c>
-      <c r="AA19" s="64">
-        <v>2.5337046531273142E-2</v>
-      </c>
-      <c r="AB19" s="64">
-        <v>3.777298892332337E-2</v>
-      </c>
-      <c r="AC19" s="64">
-        <v>2.5337046531273142E-2</v>
-      </c>
-      <c r="AD19" s="64">
-        <v>3.777298892332337E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="255"/>
-      <c r="B20" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20">
-        <v>1.1575500000000001</v>
-      </c>
-      <c r="D20">
-        <v>617.1</v>
-      </c>
-      <c r="E20" s="57">
-        <v>27967.7</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.8718720177170356E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="255"/>
-      <c r="B21" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21">
-        <v>1.224585</v>
-      </c>
-      <c r="D21">
-        <v>632</v>
-      </c>
-      <c r="E21" s="57">
-        <v>28297</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1.177429677806896E-2</v>
-      </c>
-      <c r="G21" s="63">
-        <f>SUM(F19:F21)</f>
-        <v>4.1146666584901626E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="255" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22">
-        <v>1.227201</v>
-      </c>
-      <c r="D22">
-        <v>637.6</v>
-      </c>
-      <c r="E22" s="57">
-        <v>28624.1</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1.1559529278722058E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="255"/>
-      <c r="B23" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23">
-        <v>1.435846</v>
-      </c>
-      <c r="D23">
-        <v>659.4</v>
-      </c>
-      <c r="E23" s="57">
-        <v>29016.7</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.3715715079251511E-2</v>
-      </c>
-      <c r="L23" t="s">
-        <v>128</v>
-      </c>
-      <c r="V23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="255"/>
-      <c r="B24" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24">
-        <v>1.5226919999999999</v>
-      </c>
-      <c r="D24">
-        <v>654.4</v>
-      </c>
-      <c r="E24" s="57">
-        <v>29374.9</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.234461534219955E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="255"/>
-      <c r="B25" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25">
-        <v>1.6002769999999999</v>
-      </c>
-      <c r="D25">
-        <v>674.6</v>
-      </c>
-      <c r="E25" s="57">
-        <v>29723.9</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>1.1880891509417957E-2</v>
-      </c>
-      <c r="G25" s="63">
-        <f>SUM(F23:F25)</f>
-        <v>3.7941221930869018E-2</v>
-      </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="34"/>
-      <c r="L25" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="M25" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="N25" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="V25" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="W25" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="X25" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.81884149211293056</v>
-      </c>
-      <c r="N26">
-        <v>-4.2814492112930536E-2</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>407.55771574916059</v>
-      </c>
-      <c r="X26">
-        <v>60.642284250839396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C27" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>0.85344348245604618</v>
-      </c>
-      <c r="N27">
-        <v>1.3821517543953776E-2</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>416.59191732448619</v>
-      </c>
-      <c r="X27">
-        <v>64.508082675513833</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="255">
-        <f>A22+1</f>
-        <v>2025</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28">
-        <v>1.450172</v>
-      </c>
-      <c r="D28" s="34">
-        <f>$W$18+(($W$19)*(E28))</f>
-        <v>686.83224464284103</v>
-      </c>
-      <c r="E28" s="34">
-        <v>29962</v>
-      </c>
-      <c r="F28" s="63">
-        <f ca="1">((1+$G$31)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>0.88777724031588168</v>
-      </c>
-      <c r="N28">
-        <v>6.782075968411827E-2</v>
-      </c>
-      <c r="V28">
-        <v>3</v>
-      </c>
-      <c r="W28">
-        <v>426.66743448481247</v>
-      </c>
-      <c r="X28">
-        <v>67.232565515187503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="255"/>
-      <c r="B29" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29">
-        <v>1.5881829999999999</v>
-      </c>
-      <c r="D29" s="34">
-        <f t="shared" ref="D29:D51" si="1">$W$18+(($W$19)*(E29))</f>
-        <v>698.47920168598682</v>
-      </c>
-      <c r="E29" s="34">
-        <v>30331.1</v>
-      </c>
-      <c r="F29" s="63">
-        <f ca="1">((1+$G$31)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>0.90950407146155898</v>
-      </c>
-      <c r="N29">
-        <v>0.10756592853844094</v>
-      </c>
-      <c r="V29">
-        <v>4</v>
-      </c>
-      <c r="W29">
-        <v>433.48331831390885</v>
-      </c>
-      <c r="X29">
-        <v>68.516681686091147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="255"/>
-      <c r="B30" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ref="C30" ca="1" si="2">$M$18+(($M$19)*(D30))</f>
-        <v>1.4747492824671509</v>
-      </c>
-      <c r="D30" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>712.72958953134048</v>
-      </c>
-      <c r="E30" s="34">
-        <f t="shared" ref="E30:E51" ca="1" si="3">E29*(1+F30)</f>
-        <v>30782.704494996862</v>
-      </c>
-      <c r="F30" s="63">
-        <f ca="1">((1+$G$31)^(1/2))-1</f>
-        <v>1.4889156509221957E-2</v>
-      </c>
-      <c r="G30" s="63"/>
-      <c r="L30">
-        <v>5</v>
-      </c>
-      <c r="M30">
-        <v>0.78906768646885461</v>
-      </c>
-      <c r="N30">
-        <v>0.16664431353114539</v>
-      </c>
-      <c r="V30">
-        <v>5</v>
-      </c>
-      <c r="W30">
-        <v>426.99876217094913</v>
-      </c>
-      <c r="X30">
-        <v>30.101237829050888</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="255"/>
-      <c r="B31" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="67">
-        <f ca="1">$M$18+(($M$19)*(D31))</f>
-        <v>1.5135425772993425</v>
-      </c>
-      <c r="D31" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>727.19215363164051</v>
-      </c>
-      <c r="E31" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>31241.032999999999</v>
-      </c>
-      <c r="F31" s="63">
-        <f ca="1">((1+$G$31)^(1/2))-1</f>
-        <v>1.4889156509221957E-2</v>
-      </c>
-      <c r="G31" s="69">
-        <f ca="1">OFFSET(B61,MATCH(S,A62:A64,0),0)</f>
-        <v>0.03</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="L31">
-        <v>6</v>
-      </c>
-      <c r="M31">
-        <v>0.36874738516914907</v>
-      </c>
-      <c r="N31">
-        <v>-2.9402385169149059E-2</v>
-      </c>
-      <c r="V31">
-        <v>6</v>
-      </c>
-      <c r="W31">
-        <v>370.4427038983124</v>
-      </c>
-      <c r="X31">
-        <v>-70.042703898312425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="255">
-        <f>A28+1</f>
-        <v>2026</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:C51" ca="1" si="4">$M$18+(($M$19)*(D32))</f>
-        <v>1.5331552899856953</v>
-      </c>
-      <c r="D32" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>734.50398717488895</v>
-      </c>
-      <c r="E32" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>31472.749984171522</v>
-      </c>
-      <c r="F32" s="63">
-        <f ca="1">((1+$G$35)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G32" s="71"/>
-      <c r="L32">
-        <v>7</v>
-      </c>
-      <c r="M32">
-        <v>0.48891553767857354</v>
-      </c>
-      <c r="N32">
-        <v>1.082846232142648E-2</v>
-      </c>
-      <c r="V32">
-        <v>7</v>
-      </c>
-      <c r="W32">
-        <v>425.63874090690251</v>
-      </c>
-      <c r="X32">
-        <v>-80.438740906902524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="255"/>
-      <c r="B33" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5529134715697992</v>
-      </c>
-      <c r="D33" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>741.87005311235464</v>
-      </c>
-      <c r="E33" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>31706.185629846765</v>
-      </c>
-      <c r="F33" s="63">
-        <f t="shared" ref="F33" ca="1" si="5">((1+$G$35)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G33" s="71"/>
-      <c r="I33" s="34"/>
-      <c r="L33">
-        <v>8</v>
-      </c>
-      <c r="M33">
-        <v>0.53666091970240737</v>
-      </c>
-      <c r="N33">
-        <v>3.3219080297592685E-2</v>
-      </c>
-      <c r="V33">
-        <v>8</v>
-      </c>
-      <c r="W33">
-        <v>437.76217871773042</v>
-      </c>
-      <c r="X33">
-        <v>-74.762178717730421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="255"/>
-      <c r="B34" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5728182010049094</v>
-      </c>
-      <c r="D34" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>749.29075368959786</v>
-      </c>
-      <c r="E34" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>31941.352684461461</v>
-      </c>
-      <c r="F34" s="63">
-        <f ca="1">((1+$G$35)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G34" s="71"/>
-      <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="M34">
-        <v>0.57126291004552288</v>
-      </c>
-      <c r="N34">
-        <v>3.769708995447707E-2</v>
-      </c>
-      <c r="V34">
-        <v>9</v>
-      </c>
-      <c r="W34">
-        <v>456.31652914138181</v>
-      </c>
-      <c r="X34">
-        <v>-80.41652914138183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="255"/>
-      <c r="B35" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5928705652469564</v>
-      </c>
-      <c r="D35" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>756.76649413566361</v>
-      </c>
-      <c r="E35" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>32178.263989999992</v>
-      </c>
-      <c r="F35" s="68">
-        <f ca="1">((1+$G$35)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G35" s="69">
-        <f ca="1">OFFSET(C61,MATCH(S,A62:A64,0),0)</f>
-        <v>0.03</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35">
-        <v>0.77082787760581684</v>
-      </c>
-      <c r="N35">
-        <v>-5.8028776058168807E-3</v>
-      </c>
-      <c r="V35">
-        <v>10</v>
-      </c>
-      <c r="W35">
-        <v>478.786857264991</v>
-      </c>
-      <c r="X35">
-        <v>-28.486857264990988</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="255">
-        <f t="shared" ref="A36" si="6">A32+1</f>
-        <v>2027</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.6130716593138992</v>
-      </c>
-      <c r="D36" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>764.29768268520945</v>
-      </c>
-      <c r="E36" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>32416.932483696659</v>
-      </c>
-      <c r="F36" s="63">
-        <f ca="1">((1+$G$39)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G36" s="71"/>
-      <c r="L36">
-        <v>11</v>
-      </c>
-      <c r="M36">
-        <v>0.94249666690499456</v>
-      </c>
-      <c r="N36">
-        <v>-7.8091666904994583E-2</v>
-      </c>
-      <c r="V36">
-        <v>11</v>
-      </c>
-      <c r="W36">
-        <v>496.23993756995958</v>
-      </c>
-      <c r="X36">
-        <v>18.060062430040375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="255"/>
-      <c r="B37" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.6334225863455258</v>
-      </c>
-      <c r="D37" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>771.88473060079889</v>
-      </c>
-      <c r="E37" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>32657.371198742156</v>
-      </c>
-      <c r="F37" s="63">
-        <f t="shared" ref="F37:F38" ca="1" si="7">((1+$G$39)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G37" s="71"/>
-      <c r="L37">
-        <v>12</v>
-      </c>
-      <c r="M37">
-        <v>0.98407270181338902</v>
-      </c>
-      <c r="N37">
-        <v>-1.4139701813388972E-2</v>
-      </c>
-      <c r="V37">
-        <v>12</v>
-      </c>
-      <c r="W37">
-        <v>523.2194777267996</v>
-      </c>
-      <c r="X37">
-        <v>6.5805222732003585</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="255"/>
-      <c r="B38" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.65392445766369</v>
-      </c>
-      <c r="D38" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>779.52805219535969</v>
-      </c>
-      <c r="E38" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>32899.593264995296</v>
-      </c>
-      <c r="F38" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G38" s="71"/>
-      <c r="L38">
-        <v>13</v>
-      </c>
-      <c r="M38">
-        <v>1.0100912526915458</v>
-      </c>
-      <c r="N38">
-        <v>-0.13451625269154577</v>
-      </c>
-      <c r="V38">
-        <v>13</v>
-      </c>
-      <c r="W38">
-        <v>537.05635300021993</v>
-      </c>
-      <c r="X38">
-        <v>2.4436469997800714</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="255"/>
-      <c r="B39" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.674578392832998</v>
-      </c>
-      <c r="D39" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>787.22806485480726</v>
-      </c>
-      <c r="E39" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>33143.611909699983</v>
-      </c>
-      <c r="F39" s="68">
-        <f ca="1">((1+$G$39)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G39" s="69">
-        <f ca="1">OFFSET(D61,MATCH(S,A62:A64,0),0)</f>
-        <v>0.03</v>
-      </c>
-      <c r="L39">
-        <v>14</v>
-      </c>
-      <c r="M39">
-        <v>1.0978032747240944</v>
-      </c>
-      <c r="N39">
-        <v>-0.10705527472409448</v>
-      </c>
-      <c r="V39">
-        <v>14</v>
-      </c>
-      <c r="W39">
-        <v>555.68327996464404</v>
-      </c>
-      <c r="X39">
-        <v>16.516720035356002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="255">
-        <f t="shared" ref="A40" si="8">A36+1</f>
-        <v>2028</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.6953855197219498</v>
-      </c>
-      <c r="D40" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>794.98518906083962</v>
-      </c>
-      <c r="E40" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>33389.440458207551</v>
-      </c>
-      <c r="F40" s="63">
-        <f ca="1">((1+$G$43)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G40" s="71"/>
-      <c r="L40">
-        <v>15</v>
-      </c>
-      <c r="M40">
-        <v>1.124358290568811</v>
-      </c>
-      <c r="N40">
-        <v>-7.0538290568811002E-2</v>
-      </c>
-      <c r="V40">
-        <v>15</v>
-      </c>
-      <c r="W40">
-        <v>570.39422922911058</v>
-      </c>
-      <c r="X40">
-        <v>11.705770770889444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="255"/>
-      <c r="B41" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.7163469745645257</v>
-      </c>
-      <c r="D41" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>802.79984841389694</v>
-      </c>
-      <c r="E41" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>33637.092334704415</v>
-      </c>
-      <c r="F41" s="63">
-        <f t="shared" ref="F41:F43" ca="1" si="9">((1+$G$43)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G41" s="71"/>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41">
-        <v>1.1535956312463271</v>
-      </c>
-      <c r="N41">
-        <v>2.1396368753672901E-2</v>
-      </c>
-      <c r="V41">
-        <v>16</v>
-      </c>
-      <c r="W41">
-        <v>584.98211392444045</v>
-      </c>
-      <c r="X41">
-        <v>8.0178860755595451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="255"/>
-      <c r="B42" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.7374639020222333</v>
-      </c>
-      <c r="D42" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>810.67246965629408</v>
-      </c>
-      <c r="E42" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>33886.581062945144</v>
-      </c>
-      <c r="F42" s="63">
-        <f ca="1">((1+$G$43)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G42" s="71"/>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>1.1946352011881618</v>
-      </c>
-      <c r="N42">
-        <v>-0.19408720118816181</v>
-      </c>
-      <c r="V42">
-        <v>17</v>
-      </c>
-      <c r="W42">
-        <v>598.55392704895155</v>
-      </c>
-      <c r="X42">
-        <v>9.7460729510484043</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="255"/>
-      <c r="B43" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.7587374552466208</v>
-      </c>
-      <c r="D43" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>818.60348269552526</v>
-      </c>
-      <c r="E43" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>34137.920266990972</v>
-      </c>
-      <c r="F43" s="68">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G43" s="69">
-        <f ca="1">OFFSET(E61,MATCH(S,A62:A64,0),0)</f>
-        <v>0.03</v>
-      </c>
-      <c r="L43">
-        <v>18</v>
-      </c>
-      <c r="M43">
-        <v>1.1994633858872012</v>
-      </c>
-      <c r="N43">
-        <v>-0.17855738588720116</v>
-      </c>
-      <c r="V43">
-        <v>18</v>
-      </c>
-      <c r="W43">
-        <v>607.68594917923156</v>
-      </c>
-      <c r="X43">
-        <v>2.4140508207684661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="255">
-        <f t="shared" ref="A44" si="10">A40+1</f>
-        <v>2029</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.7801687959422408</v>
-      </c>
-      <c r="D44" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>826.59332062773831</v>
-      </c>
-      <c r="E44" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>34391.123671953763</v>
-      </c>
-      <c r="F44" s="63">
-        <f ca="1">((1+$G$47)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G44" s="71"/>
-      <c r="L44">
-        <v>19</v>
-      </c>
-      <c r="M44">
-        <v>1.2182396597167988</v>
-      </c>
-      <c r="N44">
-        <v>-6.0689659716798738E-2</v>
-      </c>
-      <c r="V44">
-        <v>19</v>
-      </c>
-      <c r="W44">
-        <v>623.90207278929017</v>
-      </c>
-      <c r="X44">
-        <v>-6.8020727892901505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="255"/>
-      <c r="B45" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8017590944300936</v>
-      </c>
-      <c r="D45" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>834.64241976138726</v>
-      </c>
-      <c r="E45" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>34646.205104745532</v>
-      </c>
-      <c r="F45" s="63">
-        <f t="shared" ref="F45:F47" ca="1" si="11">((1+$G$47)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G45" s="71"/>
-      <c r="L45">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>1.2582062997255137</v>
-      </c>
-      <c r="N45">
-        <v>-3.3621299725513643E-2</v>
-      </c>
-      <c r="V45">
-        <v>20</v>
-      </c>
-      <c r="W45">
-        <v>634.29314012688951</v>
-      </c>
-      <c r="X45">
-        <v>-2.2931401268895115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="255"/>
-      <c r="B46" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8235095297115334</v>
-      </c>
-      <c r="D46" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>842.75121964105654</v>
-      </c>
-      <c r="E46" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>34903.178494833483</v>
-      </c>
-      <c r="F46" s="63">
-        <f ca="1">((1+$G$47)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G46" s="71"/>
-      <c r="L46">
-        <v>21</v>
-      </c>
-      <c r="M46">
-        <v>1.2732273187891916</v>
-      </c>
-      <c r="N46">
-        <v>-4.6026318789191611E-2</v>
-      </c>
-      <c r="V46">
-        <v>21</v>
-      </c>
-      <c r="W46">
-        <v>644.61478642548866</v>
-      </c>
-      <c r="X46">
-        <v>-7.0147864254886372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="255"/>
-      <c r="B47" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8454212895326521</v>
-      </c>
-      <c r="D47" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>850.92016307146457</v>
-      </c>
-      <c r="E47" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>35162.057875000683</v>
-      </c>
-      <c r="F47" s="68">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G47" s="69">
-        <f ca="1">OFFSET(F61,MATCH(S,A62:A64,0),0)</f>
-        <v>0.03</v>
-      </c>
-      <c r="L47">
-        <v>22</v>
-      </c>
-      <c r="M47">
-        <v>1.3317020001442239</v>
-      </c>
-      <c r="N47">
-        <v>0.10414399985577605</v>
-      </c>
-      <c r="V47">
-        <v>22</v>
-      </c>
-      <c r="W47">
-        <v>657.00328638522603</v>
-      </c>
-      <c r="X47">
-        <v>2.3967136147739438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="255">
-        <f t="shared" ref="A48" si="12">A44+1</f>
-        <v>2030</v>
-      </c>
-      <c r="B48" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8674955704491407</v>
-      </c>
-      <c r="D48" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>859.14969614164409</v>
-      </c>
-      <c r="E48" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>35422.857382112357</v>
-      </c>
-      <c r="F48" s="63">
-        <f ca="1">((1+$G$51)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G48" s="71"/>
-      <c r="L48">
-        <v>23</v>
-      </c>
-      <c r="M48">
-        <v>1.3182903759802258</v>
-      </c>
-      <c r="N48">
-        <v>0.20440162401977413</v>
-      </c>
-      <c r="V48">
-        <v>23</v>
-      </c>
-      <c r="W48">
-        <v>668.30629373514432</v>
-      </c>
-      <c r="X48">
-        <v>-13.906293735144345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="255"/>
-      <c r="B49" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8897335778916289</v>
-      </c>
-      <c r="D49" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>867.44026824930245</v>
-      </c>
-      <c r="E49" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>35685.591257887878</v>
-      </c>
-      <c r="F49" s="63">
-        <f t="shared" ref="F49:F51" ca="1" si="13">((1+$G$51)^(1/4))-1</f>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G49" s="71"/>
-      <c r="L49" s="64">
-        <v>24</v>
-      </c>
-      <c r="M49" s="64">
-        <v>1.3724733376027789</v>
-      </c>
-      <c r="N49" s="64">
-        <v>0.22780366239722105</v>
-      </c>
-      <c r="V49" s="64">
-        <v>24</v>
-      </c>
-      <c r="W49" s="64">
-        <v>679.31899492197147</v>
-      </c>
-      <c r="X49" s="64">
-        <v>-4.7189949219714435</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="255"/>
-      <c r="B50" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9121365262315115</v>
-      </c>
-      <c r="D50" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>875.79233212536167</v>
-      </c>
-      <c r="E50" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>35950.273849678466</v>
-      </c>
-      <c r="F50" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G50" s="71"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="255"/>
-      <c r="B51" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9347056388472637</v>
-      </c>
-      <c r="D51" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>884.20634385868186</v>
-      </c>
-      <c r="E51" s="59">
-        <f t="shared" ca="1" si="3"/>
-        <v>36216.919611250683</v>
-      </c>
-      <c r="F51" s="68">
-        <f t="shared" ca="1" si="13"/>
-        <v>7.4170717777328754E-3</v>
-      </c>
-      <c r="G51" s="69">
-        <f ca="1">OFFSET(G61,MATCH(S,A62:A64,0),0)</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="75">
-        <v>0.03</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="76">
-        <v>2025</v>
-      </c>
-      <c r="C61" s="76">
-        <f>B61+1</f>
-        <v>2026</v>
-      </c>
-      <c r="D61" s="76">
-        <f t="shared" ref="D61:G61" si="14">C61+1</f>
-        <v>2027</v>
-      </c>
-      <c r="E61" s="76">
-        <f t="shared" si="14"/>
-        <v>2028</v>
-      </c>
-      <c r="F61" s="76">
-        <f t="shared" si="14"/>
-        <v>2029</v>
-      </c>
-      <c r="G61" s="76">
-        <f t="shared" si="14"/>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="63">
-        <v>0.03</v>
-      </c>
-      <c r="C62" s="63">
-        <v>0.03</v>
-      </c>
-      <c r="D62" s="63">
-        <v>0.03</v>
-      </c>
-      <c r="E62" s="63">
-        <v>0.03</v>
-      </c>
-      <c r="F62" s="63">
-        <v>0.03</v>
-      </c>
-      <c r="G62" s="63">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="63">
-        <f>AVERAGE($G$5,$G$9,$G$13,$G$17,$G$21,$G$25)</f>
-        <v>4.8400151587450681E-2</v>
-      </c>
-      <c r="C63" s="63">
-        <f t="shared" ref="C63:G63" si="15">AVERAGE($G$5,$G$9,$G$13,$G$17,$G$21,$G$25)</f>
-        <v>4.8400151587450681E-2</v>
-      </c>
-      <c r="D63" s="63">
-        <f t="shared" si="15"/>
-        <v>4.8400151587450681E-2</v>
-      </c>
-      <c r="E63" s="63">
-        <f t="shared" si="15"/>
-        <v>4.8400151587450681E-2</v>
-      </c>
-      <c r="F63" s="63">
-        <f t="shared" si="15"/>
-        <v>4.8400151587450681E-2</v>
-      </c>
-      <c r="G63" s="63">
-        <f t="shared" si="15"/>
-        <v>4.8400151587450681E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="63">
-        <f>B62-0.01</f>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="C64" s="63">
-        <f t="shared" ref="C64:G64" si="16">C62-0.01</f>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="D64" s="63">
-        <f t="shared" si="16"/>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="E64" s="63">
-        <f t="shared" si="16"/>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="F64" s="63">
-        <f t="shared" si="16"/>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="G64" s="63">
-        <f t="shared" si="16"/>
-        <v>1.9999999999999997E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Lyft/LYFT_FM.xlsx
+++ b/Lyft/LYFT_FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\Projects\IB Projects\Equity_Research\Lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D494EF-F25E-497E-A8DD-B9BBCAB40AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601708CB-6381-4249-AA3A-21368D2F8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">DCF!$L$37:$L$39</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">DCF!$N$37:$N$39</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">DCF!$L$37:$L$39</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">DCF!$N$37:$N$39</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">DCF!$L$37:$L$39</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">DCF!$N$37:$N$39</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">DCF!$L$37:$L$39</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">DCF!$N$37:$N$39</definedName>
     <definedName name="S">'3_Statement_Model'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2173,8 +2167,8 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="190" formatCode="#,##0.00;\(#,##0.00\);&quot;-&quot;"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00;\(#,##0.00\);&quot;-&quot;"/>
   </numFmts>
   <fonts count="56" x14ac:knownFonts="1">
     <font>
@@ -3000,7 +2994,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3356,19 +3350,11 @@
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="166" fontId="41" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3388,7 +3374,7 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3441,8 +3427,14 @@
     <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3844,10 +3836,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5305,7 +5297,7 @@
     <v>US</v>
     <v>USD</v>
     <v>Bond</v>
-    <v>45912.533680555556</v>
+    <v>45912.833321759259</v>
     <v>0</v>
     <v>49536</v>
     <v>US Treasury 10Y</v>
@@ -5340,8 +5332,10 @@
     <v>19.350000000000001</v>
     <v>9.66</v>
     <v>2.3578999999999999</v>
-    <v>-0.64</v>
-    <v>-3.3755E-2</v>
+    <v>0.3</v>
+    <v>0</v>
+    <v>1.6375999999999998E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Lyft, Inc. is a global mobility platform offering rideshare, taxis, private hire vehicles, car sharing, bikes, and scooters across North America and Europe. It operates across 11 countries and in nearly 1,000 cities, and Lyft Urban Solutions supports bike sharing in 16 countries and more than 86 cities. Its Lyft mobile application (the Lyft App) connects riders with drivers for on-demand ride services and supports a variety of other multimodal mobility solutions. Its offerings on the Lyft App include an expanded set of transportation modes in select cities, such as access to a network of shared bikes and scooters (Light Vehicles) for shorter rides and first-mile and last-mile legs of multimodal trips. FREENOW by Lyft is the European taxi app featuring broad multi-mobility options. Through FREENOW, passengers can access various mobility services within a single app, including taxis, private hire vehicles, car sharing, car rental, e-scooters, e-bikes, e-mopeds, and public transport.</v>
     <v>2934</v>
@@ -5349,23 +5343,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>185 Berry Street, Suite 400, SAN FRANCISCO, CA, 94107 US</v>
-    <v>19.16</v>
+    <v>18.829999999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45911.999835138282</v>
+    <v>45912.834591157029</v>
     <v>3</v>
-    <v>18.309999999999999</v>
-    <v>7446008280</v>
+    <v>18.3</v>
+    <v>7567940730</v>
     <v>LYFT, INC.</v>
     <v>LYFT, INC.</v>
-    <v>19.04</v>
-    <v>85.852199999999996</v>
-    <v>18.96</v>
+    <v>18.36</v>
+    <v>87.254000000000005</v>
     <v>18.32</v>
+    <v>18.62</v>
+    <v>18.62</v>
     <v>406441500</v>
     <v>LYFT</v>
     <v>LYFT, INC. (XNAS:LYFT)</v>
-    <v>127843</v>
+    <v>18061661</v>
     <v>21608659</v>
     <v>2007</v>
   </rv>
@@ -5391,8 +5386,10 @@
     <v>369</v>
     <v>226.48</v>
     <v>1.2118</v>
-    <v>3.71</v>
-    <v>1.5295000000000001E-2</v>
+    <v>-3.51</v>
+    <v>-1.771E-3</v>
+    <v>-1.4252000000000001E-2</v>
+    <v>-0.43</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company helps organizations of any size reimagine their business for the world of artificial intelligence (AI). With Agentforce, its platform, organizations can bring humans together with AI agents to drive customer success on one deeply unified platform. With the Salesforce platform, it delivers a single source of truth, connecting customer data with integrated AI across systems, apps and devices to help companies sell, service, market and conduct commerce from anywhere. Agentforce is a new layer of the Salesforce platform that enables companies to build and deploy AI agents that can respond to inputs, make decisions and take action autonomously across business functions. Agentforce includes a suite of customizable agents for use across sales, service, marketing and commerce. Datablazer is a data-driven innovator, which leverages the Company’s platform to unlock insights and drive decisions.</v>
     <v>76453</v>
@@ -5400,23 +5397,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>247.17</v>
+    <v>247.58879999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45911.999990821096</v>
+    <v>45912.835349733592</v>
     <v>6</v>
-    <v>243.5</v>
-    <v>234458560000</v>
+    <v>241.25</v>
+    <v>231117040000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>243.7</v>
-    <v>35.7363</v>
-    <v>242.57</v>
+    <v>246.42</v>
+    <v>35.226900000000001</v>
     <v>246.28</v>
+    <v>242.77</v>
+    <v>242.34</v>
     <v>952000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>20926</v>
+    <v>8310287</v>
     <v>10404849</v>
     <v>1999</v>
   </rv>
@@ -5442,8 +5440,10 @@
     <v>97.715000000000003</v>
     <v>59.33</v>
     <v>1.48</v>
-    <v>0.47</v>
-    <v>4.9890000000000004E-3</v>
+    <v>1.21</v>
+    <v>0</v>
+    <v>1.278E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Uber Technologies, Inc. operates a technology platform that uses network and technology to power movement from point A to point B. It develops and operates technology applications supporting a variety of offerings on its platform (platform(s)). Its segments include Mobility, Delivery and Freight. Mobility products connect consumers with drivers who provide rides in a variety of vehicles, such as cars, auto rickshaws, motorbikes, minibuses, or taxis. Delivery offerings allow consumers to search for and discover local restaurants, order a meal, and either pick-up at the restaurant or have the meal delivered. In certain markets, the Delivery segment provides offerings for grocery, alcohol, and convenience store delivery as well as select other goods. The Freight segment connects carriers with shippers on its platform, and gives carriers upfront, pricing and the ability to book a shipment. The Freight segment also includes transportation management and other logistics service offerings.</v>
     <v>31100</v>
@@ -5451,23 +5451,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1725 3Rd Street, SAN FRANCISCO, CA, 94158 US</v>
-    <v>96.32</v>
+    <v>96.27</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45911.999916562498</v>
+    <v>45912.835376029689</v>
     <v>9</v>
-    <v>94</v>
-    <v>197447470920</v>
+    <v>93.71</v>
+    <v>197447400000</v>
     <v>UBER TECHNOLOGIES, INC.</v>
     <v>UBER TECHNOLOGIES, INC.</v>
-    <v>94.55</v>
-    <v>16.049700000000001</v>
-    <v>94.21</v>
+    <v>94.62</v>
+    <v>16.2547</v>
     <v>94.68</v>
+    <v>95.89</v>
+    <v>95.89</v>
     <v>2085419000</v>
     <v>UBER</v>
     <v>UBER TECHNOLOGIES, INC. (XNYS:UBER)</v>
-    <v>27721</v>
+    <v>13612818</v>
     <v>16297277</v>
     <v>2010</v>
   </rv>
@@ -5493,8 +5494,10 @@
     <v>1198.0899999999999</v>
     <v>678.65880000000004</v>
     <v>0.92900000000000005</v>
-    <v>14.71</v>
-    <v>1.5927E-2</v>
+    <v>-9.1300000000000008</v>
+    <v>-2.0449999999999998E-4</v>
+    <v>-9.7310000000000001E-3</v>
+    <v>-0.19</v>
     <v>USD</v>
     <v>ServiceNow, Inc. provides an artificial intelligence (AI) platform for business transformation. The Company’s AI platform connects people, processes, data, and devices to increase productivity and maximize business outcomes. Its intelligent platform, the Now Platform, is a cloud-based solution that helps enterprises and organizations across public and private sectors digitize workflows. The workflow applications built on the Now Platform are organized in four primary areas: technology, customer and industry, employee and creator. Its technology workflows empower information technology (IT) departments to plan, build, operate and service the IT needs of the business enterprise. Its customer and industry workflows help organizations reimagine their customer experience. Its employee workflows help customers simplify how their employees access services they need. Its creator workflows enable customers to automate processes by creating their own custom workflows on the Now Platform.</v>
     <v>26293</v>
@@ -5502,23 +5505,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Lane, SANTA CLARA, CA, 95054 US</v>
-    <v>942.67</v>
+    <v>941.9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45911.995539467185</v>
+    <v>45912.835377812502</v>
     <v>12</v>
-    <v>923.64499999999998</v>
-    <v>195162240000</v>
+    <v>926.93</v>
+    <v>193263200000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>927.72</v>
-    <v>118.1844</v>
-    <v>923.57</v>
+    <v>941.9</v>
+    <v>117.0347</v>
     <v>938.28</v>
+    <v>929.15</v>
+    <v>928.96</v>
     <v>208000000</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>1807</v>
+    <v>667857</v>
     <v>1831586</v>
     <v>2012</v>
   </rv>
@@ -5544,8 +5548,10 @@
     <v>813.7</v>
     <v>532.64499999999998</v>
     <v>1.2554000000000001</v>
-    <v>4.26</v>
-    <v>6.4910000000000002E-3</v>
+    <v>-14.49</v>
+    <v>3.0959999999999995E-5</v>
+    <v>-2.1937000000000002E-2</v>
+    <v>0.02</v>
     <v>USD</v>
     <v>Intuit Inc. offers a financial technology platform that helps consumers and small and mid-market businesses prosper by delivering financial management, compliance, and marketing products and services. It also provides specialized tax products to accounting professionals. Its offerings include TurboTax, Credit Karma, QuickBooks, and Mailchimp. Lacerte, ProSeries, and ProConnect Tax Online. Its Global Business Solutions segment serves small and mid-market businesses around the world, and the accounting professionals who assist and advise them. Its Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services sold in the United States and Canada. Its Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations for credit card, home, auto, and personal loan, and insurance products. Its ProTax segment serves professional accountants in the United States and Canada.</v>
     <v>18200</v>
@@ -5553,23 +5559,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2700 Coast Avenue, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>666.39</v>
+    <v>660.4</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45911.999923541407</v>
+    <v>45912.83534240703</v>
     <v>15</v>
-    <v>656.91</v>
-    <v>184156278600</v>
+    <v>645.30999999999995</v>
+    <v>180116394150</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
-    <v>660.29</v>
-    <v>48.314100000000003</v>
-    <v>656.26</v>
+    <v>660.4</v>
+    <v>47.254100000000001</v>
     <v>660.52</v>
+    <v>646.03</v>
+    <v>646.04999999999995</v>
     <v>278805000</v>
     <v>INTU</v>
     <v>INTUIT INC. (XNAS:INTU)</v>
-    <v>1348</v>
+    <v>2171122</v>
     <v>2174286</v>
     <v>1993</v>
   </rv>
@@ -5615,8 +5622,10 @@
     <v>587.75</v>
     <v>330.04</v>
     <v>1.4964999999999999</v>
-    <v>0.39</v>
-    <v>1.114E-3</v>
+    <v>-1.19</v>
+    <v>-1.7749999999999999E-3</v>
+    <v>-3.3950000000000004E-3</v>
+    <v>-0.62</v>
     <v>USD</v>
     <v>Adobe Inc. is a global technology company. The Company's products, services and solutions are used around the world to imagine, create, manage, deliver, measure, optimize and engage with content across surfaces and fuel digital experiences. Its segments include Digital Media, Digital Experience, and Publishing and Advertising. The Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud, which include Adobe Express, Adobe Firefly, Photoshop and other products, offering a variety of tools for creative professionals, communicators and other consumers. The Digital Experience segment provides an integrated platform and set of products, services and solutions through Adobe Experience Cloud. The Publishing and Advertising segment contains legacy products and services. In addition, its Adobe GenStudio solution allows businesses to simplify their content supply chain process with generative artificial intelligence (AI) capabilities and intelligent automation.</v>
     <v>30709</v>
@@ -5624,24 +5633,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 Park Avenue, SAN JOSE, CA, 95110-2704 US</v>
-    <v>355.25</v>
+    <v>366.5</v>
     <v>21</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45911.99999920078</v>
+    <v>45912.835342395316</v>
     <v>22</v>
-    <v>347.16</v>
-    <v>148703310000</v>
+    <v>341.61</v>
+    <v>148198512000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>354.685</v>
-    <v>21.846299999999999</v>
-    <v>350.16</v>
+    <v>362</v>
+    <v>21.772099999999998</v>
     <v>350.55</v>
+    <v>349.36</v>
+    <v>348.74</v>
     <v>424200000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>761513</v>
+    <v>14061906</v>
     <v>4020878</v>
     <v>1997</v>
   </rv>
@@ -5706,7 +5716,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5727,6 +5739,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5762,7 +5775,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5784,6 +5799,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5827,7 +5843,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5838,13 +5854,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5871,7 +5890,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5882,13 +5901,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5982,13 +6004,19 @@
       <v>10</v>
       <v>6</v>
       <v>8</v>
+      <v>2</v>
+      <v>2</v>
+      <v>4</v>
     </spb>
     <spb s="7">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -6028,6 +6056,9 @@
       <v>10</v>
       <v>6</v>
       <v>8</v>
+      <v>2</v>
+      <v>2</v>
+      <v>4</v>
     </spb>
     <spb s="11">
       <v>Powered by Refinitiv</v>
@@ -6097,6 +6128,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -6104,6 +6138,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -6138,6 +6175,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -8357,7 +8397,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="290" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="56" t="s">
@@ -8395,7 +8435,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="256"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="56" t="s">
         <v>93</v>
       </c>
@@ -8414,7 +8454,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="256"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="56" t="s">
         <v>94</v>
       </c>
@@ -8441,7 +8481,7 @@
       <c r="W4" s="62"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="256"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="56" t="s">
         <v>95</v>
       </c>
@@ -8476,7 +8516,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="290" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="56" t="s">
@@ -8509,7 +8549,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="256"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="56" t="s">
         <v>93</v>
       </c>
@@ -8540,7 +8580,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="256"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="56" t="s">
         <v>94</v>
       </c>
@@ -8571,7 +8611,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="256"/>
+      <c r="A9" s="290"/>
       <c r="B9" s="56" t="s">
         <v>95</v>
       </c>
@@ -8606,7 +8646,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="256" t="s">
+      <c r="A10" s="290" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="56" t="s">
@@ -8627,7 +8667,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="256"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="56" t="s">
         <v>93</v>
       </c>
@@ -8652,7 +8692,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="256"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="56" t="s">
         <v>94</v>
       </c>
@@ -8703,7 +8743,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="256"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="56" t="s">
         <v>95</v>
       </c>
@@ -8762,7 +8802,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="256" t="s">
+      <c r="A14" s="290" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="56" t="s">
@@ -8807,7 +8847,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="256"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="56" t="s">
         <v>93</v>
       </c>
@@ -8850,7 +8890,7 @@
       <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="256"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="56" t="s">
         <v>94</v>
       </c>
@@ -8869,7 +8909,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="256"/>
+      <c r="A17" s="290"/>
       <c r="B17" s="56" t="s">
         <v>95</v>
       </c>
@@ -8942,7 +8982,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="256" t="s">
+      <c r="A18" s="290" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="56" t="s">
@@ -9017,7 +9057,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="256"/>
+      <c r="A19" s="290"/>
       <c r="B19" s="56" t="s">
         <v>93</v>
       </c>
@@ -9090,7 +9130,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="256"/>
+      <c r="A20" s="290"/>
       <c r="B20" s="56" t="s">
         <v>94</v>
       </c>
@@ -9109,7 +9149,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="256"/>
+      <c r="A21" s="290"/>
       <c r="B21" s="56" t="s">
         <v>95</v>
       </c>
@@ -9132,7 +9172,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="256" t="s">
+      <c r="A22" s="290" t="s">
         <v>100</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -9153,7 +9193,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="256"/>
+      <c r="A23" s="290"/>
       <c r="B23" s="56" t="s">
         <v>93</v>
       </c>
@@ -9178,7 +9218,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="256"/>
+      <c r="A24" s="290"/>
       <c r="B24" s="56" t="s">
         <v>94</v>
       </c>
@@ -9197,7 +9237,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="256"/>
+      <c r="A25" s="290"/>
       <c r="B25" s="56" t="s">
         <v>95</v>
       </c>
@@ -9303,7 +9343,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="256">
+      <c r="A28" s="290">
         <f>A22+1</f>
         <v>2025</v>
       </c>
@@ -9347,7 +9387,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="256"/>
+      <c r="A29" s="290"/>
       <c r="B29" s="56" t="s">
         <v>93</v>
       </c>
@@ -9388,7 +9428,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="256"/>
+      <c r="A30" s="290"/>
       <c r="B30" s="56" t="s">
         <v>94</v>
       </c>
@@ -9429,7 +9469,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="256"/>
+      <c r="A31" s="290"/>
       <c r="B31" s="66" t="s">
         <v>95</v>
       </c>
@@ -9475,7 +9515,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="256">
+      <c r="A32" s="290">
         <f>A28+1</f>
         <v>2026</v>
       </c>
@@ -9519,7 +9559,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="256"/>
+      <c r="A33" s="290"/>
       <c r="B33" s="72" t="s">
         <v>93</v>
       </c>
@@ -9561,7 +9601,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="256"/>
+      <c r="A34" s="290"/>
       <c r="B34" s="72" t="s">
         <v>94</v>
       </c>
@@ -9602,7 +9642,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="256"/>
+      <c r="A35" s="290"/>
       <c r="B35" s="73" t="s">
         <v>95</v>
       </c>
@@ -9646,7 +9686,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="256">
+      <c r="A36" s="290">
         <f t="shared" ref="A36" si="6">A32+1</f>
         <v>2027</v>
       </c>
@@ -9690,7 +9730,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="256"/>
+      <c r="A37" s="290"/>
       <c r="B37" s="72" t="s">
         <v>93</v>
       </c>
@@ -9731,7 +9771,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="256"/>
+      <c r="A38" s="290"/>
       <c r="B38" s="72" t="s">
         <v>94</v>
       </c>
@@ -9772,7 +9812,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="256"/>
+      <c r="A39" s="290"/>
       <c r="B39" s="73" t="s">
         <v>95</v>
       </c>
@@ -9816,7 +9856,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="256">
+      <c r="A40" s="290">
         <f t="shared" ref="A40" si="8">A36+1</f>
         <v>2028</v>
       </c>
@@ -9860,7 +9900,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="256"/>
+      <c r="A41" s="290"/>
       <c r="B41" s="72" t="s">
         <v>93</v>
       </c>
@@ -9901,7 +9941,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="256"/>
+      <c r="A42" s="290"/>
       <c r="B42" s="72" t="s">
         <v>94</v>
       </c>
@@ -9942,7 +9982,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="256"/>
+      <c r="A43" s="290"/>
       <c r="B43" s="73" t="s">
         <v>95</v>
       </c>
@@ -9986,7 +10026,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="256">
+      <c r="A44" s="290">
         <f t="shared" ref="A44" si="10">A40+1</f>
         <v>2029</v>
       </c>
@@ -10030,7 +10070,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="256"/>
+      <c r="A45" s="290"/>
       <c r="B45" s="72" t="s">
         <v>93</v>
       </c>
@@ -10071,7 +10111,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="256"/>
+      <c r="A46" s="290"/>
       <c r="B46" s="72" t="s">
         <v>94</v>
       </c>
@@ -10112,7 +10152,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="256"/>
+      <c r="A47" s="290"/>
       <c r="B47" s="73" t="s">
         <v>95</v>
       </c>
@@ -10156,7 +10196,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="256">
+      <c r="A48" s="290">
         <f t="shared" ref="A48" si="12">A44+1</f>
         <v>2030</v>
       </c>
@@ -10200,7 +10240,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="256"/>
+      <c r="A49" s="290"/>
       <c r="B49" s="72" t="s">
         <v>93</v>
       </c>
@@ -10241,7 +10281,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="256"/>
+      <c r="A50" s="290"/>
       <c r="B50" s="72" t="s">
         <v>94</v>
       </c>
@@ -10264,7 +10304,7 @@
       <c r="G50" s="71"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="256"/>
+      <c r="A51" s="290"/>
       <c r="B51" s="73" t="s">
         <v>95</v>
       </c>
@@ -16148,7 +16188,7 @@
       </c>
     </row>
     <row r="110" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="257" t="s">
+      <c r="B110" s="255" t="s">
         <v>373</v>
       </c>
       <c r="C110" s="38">
@@ -16166,10 +16206,10 @@
       </c>
     </row>
     <row r="113" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="257" t="s">
+      <c r="B113" s="255" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="259">
+      <c r="C113" s="257">
         <f>(C112/C109)*(1-H15)</f>
         <v>4.5938955912701772E-2</v>
       </c>
@@ -16190,7 +16230,7 @@
       <c r="B116" t="s">
         <v>376</v>
       </c>
-      <c r="C116" s="260" cm="1">
+      <c r="C116" s="258" cm="1">
         <f t="array" aca="1" ref="C116" ca="1">_FV(D116,"Beta")</f>
         <v>2.3578999999999999</v>
       </c>
@@ -16207,10 +16247,10 @@
       </c>
     </row>
     <row r="118" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="257" t="s">
+      <c r="B118" s="255" t="s">
         <v>378</v>
       </c>
-      <c r="C118" s="258">
+      <c r="C118" s="256">
         <f ca="1">C115+(C116*C117)</f>
         <v>0.24805098999999997</v>
       </c>
@@ -16219,14 +16259,13 @@
       <c r="B120" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="C120" s="261">
+      <c r="C120" s="259">
         <f ca="1">(D109*C118)+(D108*C113)</f>
         <v>0.13175314701200977</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="262"/>
-      <c r="C121" s="263"/>
+      <c r="C121" s="63"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C122" s="109">
@@ -16322,10 +16361,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="289" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="255"/>
+      <c r="C1" s="289"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -18510,7 +18549,7 @@
         <v>4343540</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:M13" si="18">SUM(E8:E12)</f>
+        <f t="shared" ref="E13:G13" si="18">SUM(E8:E12)</f>
         <v>5554051</v>
       </c>
       <c r="F13" s="8">
@@ -18522,27 +18561,27 @@
         <v>5904928</v>
       </c>
       <c r="H13" s="8">
-        <f ca="1">SUM(H8:H12)</f>
+        <f t="shared" ref="H13:M13" ca="1" si="19">SUM(H8:H12)</f>
         <v>6112713.3289948823</v>
       </c>
       <c r="I13" s="8">
-        <f ca="1">SUM(I8:I12)</f>
+        <f t="shared" ca="1" si="19"/>
         <v>6200369.8037727978</v>
       </c>
       <c r="J13" s="8">
-        <f ca="1">SUM(J8:J12)</f>
+        <f t="shared" ca="1" si="19"/>
         <v>6380731.6043496793</v>
       </c>
       <c r="K13" s="8">
-        <f ca="1">SUM(K8:K12)</f>
+        <f t="shared" ca="1" si="19"/>
         <v>6578284.7796479939</v>
       </c>
       <c r="L13" s="8">
-        <f ca="1">SUM(L8:L12)</f>
+        <f t="shared" ca="1" si="19"/>
         <v>6806844.3799423743</v>
       </c>
       <c r="M13" s="8">
-        <f ca="1">SUM(M8:M12)</f>
+        <f t="shared" ca="1" si="19"/>
         <v>7044410.8747559823</v>
       </c>
     </row>
@@ -18555,47 +18594,47 @@
         <v>-2702480</v>
       </c>
       <c r="C14" s="10">
-        <f t="shared" ref="C14:M14" si="19">C6-C13</f>
+        <f t="shared" ref="C14:G14" si="20">C6-C13</f>
         <v>-1808382</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1135217</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1458916</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-475604</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-118912</v>
       </c>
       <c r="H14" s="10">
-        <f ca="1">H6-H13</f>
+        <f t="shared" ref="H14:M14" ca="1" si="21">H6-H13</f>
         <v>-86066.469228388742</v>
       </c>
       <c r="I14" s="10">
-        <f ca="1">I6-I13</f>
+        <f t="shared" ca="1" si="21"/>
         <v>51387.724034561776</v>
       </c>
       <c r="J14" s="10">
-        <f ca="1">J6-J13</f>
+        <f t="shared" ca="1" si="21"/>
         <v>194265.49180643447</v>
       </c>
       <c r="K14" s="10">
-        <f ca="1">K6-K13</f>
+        <f t="shared" ca="1" si="21"/>
         <v>329649.07190733496</v>
       </c>
       <c r="L14" s="10">
-        <f ca="1">L6-L13</f>
+        <f t="shared" ca="1" si="21"/>
         <v>444014.32967414521</v>
       </c>
       <c r="M14" s="10">
-        <f ca="1">M6-M13</f>
+        <f t="shared" ca="1" si="21"/>
         <v>559660.43866356369</v>
       </c>
     </row>
@@ -18702,47 +18741,47 @@
         <v>-2599885</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:G17" si="20">SUM(C14,C15,C16)</f>
+        <f t="shared" ref="C17:G17" si="22">SUM(C14,C15,C16)</f>
         <v>-1797391</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-1050919</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-1578639</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-331704</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25350</v>
       </c>
       <c r="H17" s="8">
-        <f ca="1">SUM(H14,H15,H16)</f>
+        <f t="shared" ref="H17:M17" ca="1" si="23">SUM(H14,H15,H16)</f>
         <v>58409.003611390421</v>
       </c>
       <c r="I17" s="8">
-        <f ca="1">SUM(I14,I15,I16)</f>
+        <f t="shared" ca="1" si="23"/>
         <v>201008.51023082196</v>
       </c>
       <c r="J17" s="8">
-        <f ca="1">SUM(J14,J15,J16)</f>
+        <f t="shared" ca="1" si="23"/>
         <v>352204.37186056341</v>
       </c>
       <c r="K17" s="8">
-        <f ca="1">SUM(K14,K15,K16)</f>
+        <f t="shared" ca="1" si="23"/>
         <v>476572.57789144642</v>
       </c>
       <c r="L17" s="8">
-        <f ca="1">SUM(L14,L15,L16)</f>
+        <f t="shared" ca="1" si="23"/>
         <v>601265.95459886675</v>
       </c>
       <c r="M17" s="8">
-        <f ca="1">SUM(M14,M15,M16)</f>
+        <f t="shared" ca="1" si="23"/>
         <v>721164.06856105023</v>
       </c>
     </row>
@@ -18802,47 +18841,47 @@
         <v>-2602241</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19:M19" si="21">C17-C18</f>
+        <f t="shared" ref="C19:F19" si="24">C17-C18</f>
         <v>-1752857</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1062144</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1584511</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-340320</v>
       </c>
       <c r="G19" s="12">
-        <f>G17-G18</f>
+        <f t="shared" ref="G19:M19" si="25">G17-G18</f>
         <v>22784</v>
       </c>
       <c r="H19" s="12">
-        <f ca="1">H17-H18</f>
+        <f t="shared" ca="1" si="25"/>
         <v>51715.465332438987</v>
       </c>
       <c r="I19" s="12">
-        <f ca="1">I17-I18</f>
+        <f t="shared" ca="1" si="25"/>
         <v>175600.66601498588</v>
       </c>
       <c r="J19" s="12">
-        <f ca="1">J17-J18</f>
+        <f t="shared" ca="1" si="25"/>
         <v>303527.63101752754</v>
       </c>
       <c r="K19" s="12">
-        <f ca="1">K17-K18</f>
+        <f t="shared" ca="1" si="25"/>
         <v>405081.8909238163</v>
       </c>
       <c r="L19" s="12">
-        <f ca="1">L17-L18</f>
+        <f t="shared" ca="1" si="25"/>
         <v>503972.58992626052</v>
       </c>
       <c r="M19" s="12">
-        <f ca="1">M17-M18</f>
+        <f t="shared" ca="1" si="25"/>
         <v>595956.78054809687</v>
       </c>
     </row>
@@ -18855,47 +18894,47 @@
         <v>-11.438522536461859</v>
       </c>
       <c r="C20" s="23">
-        <f t="shared" ref="C20:M20" si="22">C19/C22</f>
+        <f t="shared" ref="C20:G20" si="26">C19/C22</f>
         <v>-5.6149819812605113</v>
       </c>
       <c r="D20" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-3.1731934369809158</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-4.4667959665211106</v>
       </c>
       <c r="F20" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.88317957102261668</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.5681959817293569E-2</v>
       </c>
       <c r="H20" s="23">
-        <f ca="1">H19/H22</f>
+        <f t="shared" ref="H20:M20" ca="1" si="27">H19/H22</f>
         <v>0.1175521590359606</v>
       </c>
       <c r="I20" s="23">
-        <f ca="1">I19/I22</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0.37967146474583258</v>
       </c>
       <c r="J20" s="23">
-        <f ca="1">J19/J22</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0.62471300951457198</v>
       </c>
       <c r="K20" s="23">
-        <f ca="1">K19/K22</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0.79370759583080841</v>
       </c>
       <c r="L20" s="23">
-        <f ca="1">L19/L22</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0.93897704710594854</v>
       </c>
       <c r="M20" s="23">
-        <f ca="1">M19/M22</f>
+        <f t="shared" ca="1" si="27"/>
         <v>1.0523040893232933</v>
       </c>
     </row>
@@ -19208,23 +19247,23 @@
         <v>1599311</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" ref="C29:G29" si="23">SUM(C24:C28)</f>
+        <f t="shared" ref="C29:G29" si="28">SUM(C24:C28)</f>
         <v>565807</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>724560</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>750767</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>484533</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>330921</v>
       </c>
       <c r="H29" s="6"/>
@@ -19239,51 +19278,51 @@
         <v>14</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" ref="B30:M30" si="24">B19</f>
+        <f t="shared" ref="B30:G30" si="29">B19</f>
         <v>-2602241</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1752857</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1062144</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1584511</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-340320</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>22784</v>
       </c>
       <c r="H30" s="15">
-        <f ca="1">H19</f>
+        <f t="shared" ref="H30:M30" ca="1" si="30">H19</f>
         <v>51715.465332438987</v>
       </c>
       <c r="I30" s="15">
-        <f ca="1">I19</f>
+        <f t="shared" ca="1" si="30"/>
         <v>175600.66601498588</v>
       </c>
       <c r="J30" s="15">
-        <f ca="1">J19</f>
+        <f t="shared" ca="1" si="30"/>
         <v>303527.63101752754</v>
       </c>
       <c r="K30" s="15">
-        <f ca="1">K19</f>
+        <f t="shared" ca="1" si="30"/>
         <v>405081.8909238163</v>
       </c>
       <c r="L30" s="15">
-        <f ca="1">L19</f>
+        <f t="shared" ca="1" si="30"/>
         <v>503972.58992626052</v>
       </c>
       <c r="M30" s="15">
-        <f ca="1">M19</f>
+        <f t="shared" ca="1" si="30"/>
         <v>595956.78054809687</v>
       </c>
     </row>
@@ -19299,43 +19338,43 @@
         <v>2020</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" ref="D32:G32" si="25">C32+1</f>
+        <f t="shared" ref="D32:G32" si="31">C32+1</f>
         <v>2021</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2023</v>
       </c>
       <c r="G32" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2024</v>
       </c>
       <c r="H32" s="27">
-        <f t="shared" ref="H32:M32" si="26">H5</f>
+        <f t="shared" ref="H32:M32" si="32">H5</f>
         <v>2025</v>
       </c>
       <c r="I32" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2026</v>
       </c>
       <c r="J32" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2027</v>
       </c>
       <c r="K32" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2028</v>
       </c>
       <c r="L32" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2029</v>
       </c>
       <c r="M32" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2030</v>
       </c>
       <c r="N32" s="193"/>
@@ -19349,47 +19388,47 @@
         <v>-2602241</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" ref="C33:M33" si="27">C30</f>
+        <f t="shared" ref="C33:G33" si="33">C30</f>
         <v>-1752857</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1062144</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1584511</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-340320</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>22784</v>
       </c>
       <c r="H33" s="28">
-        <f ca="1">H30</f>
+        <f t="shared" ref="H33:M33" ca="1" si="34">H30</f>
         <v>51715.465332438987</v>
       </c>
       <c r="I33" s="28">
-        <f ca="1">I30</f>
+        <f t="shared" ca="1" si="34"/>
         <v>175600.66601498588</v>
       </c>
       <c r="J33" s="28">
-        <f ca="1">J30</f>
+        <f t="shared" ca="1" si="34"/>
         <v>303527.63101752754</v>
       </c>
       <c r="K33" s="28">
-        <f ca="1">K30</f>
+        <f t="shared" ca="1" si="34"/>
         <v>405081.8909238163</v>
       </c>
       <c r="L33" s="28">
-        <f ca="1">L30</f>
+        <f t="shared" ca="1" si="34"/>
         <v>503972.58992626052</v>
       </c>
       <c r="M33" s="28">
-        <f ca="1">M30</f>
+        <f t="shared" ca="1" si="34"/>
         <v>595956.78054809687</v>
       </c>
     </row>
@@ -19513,47 +19552,47 @@
         <v>2592</v>
       </c>
       <c r="C37" s="17">
-        <f t="shared" ref="C37:F37" si="28">SUM(C35:C36)</f>
+        <f t="shared" ref="C37:F37" si="35">SUM(C35:C36)</f>
         <v>-3198</v>
       </c>
       <c r="D37" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-2038</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-3243</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>805</v>
       </c>
       <c r="G37" s="17">
-        <f>SUM(G35:G36)</f>
+        <f t="shared" ref="G37:M37" si="36">SUM(G35:G36)</f>
         <v>-5154</v>
       </c>
       <c r="H37" s="17">
-        <f ca="1">SUM(H35:H36)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>-5368.3463570160375</v>
       </c>
       <c r="I37" s="17">
-        <f ca="1">SUM(I35:I36)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>-5568.8678182568328</v>
       </c>
       <c r="J37" s="17">
-        <f ca="1">SUM(J35:J36)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>-5856.7993993774999</v>
       </c>
       <c r="K37" s="17">
-        <f ca="1">SUM(K35:K36)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>-6153.3689279317859</v>
       </c>
       <c r="L37" s="17">
-        <f ca="1">SUM(L35:L36)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>-6458.8355423426983</v>
       </c>
       <c r="M37" s="17">
-        <f ca="1">SUM(M35:M36)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>-6773.4661551859399</v>
       </c>
     </row>
@@ -19566,47 +19605,47 @@
         <v>-2599649</v>
       </c>
       <c r="C38" s="19">
-        <f t="shared" ref="C38:M38" si="29">SUM(C37,C33)</f>
+        <f t="shared" ref="C38:G38" si="37">SUM(C37,C33)</f>
         <v>-1756055</v>
       </c>
       <c r="D38" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>-1064182</v>
       </c>
       <c r="E38" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>-1587754</v>
       </c>
       <c r="F38" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>-339515</v>
       </c>
       <c r="G38" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>17630</v>
       </c>
       <c r="H38" s="19">
-        <f ca="1">SUM(H37,H33)</f>
+        <f t="shared" ref="H38:M38" ca="1" si="38">SUM(H37,H33)</f>
         <v>46347.118975422949</v>
       </c>
       <c r="I38" s="19">
-        <f ca="1">SUM(I37,I33)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>170031.79819672904</v>
       </c>
       <c r="J38" s="19">
-        <f ca="1">SUM(J37,J33)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>297670.83161815006</v>
       </c>
       <c r="K38" s="19">
-        <f ca="1">SUM(K37,K33)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>398928.52199588454</v>
       </c>
       <c r="L38" s="19">
-        <f ca="1">SUM(L37,L33)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>497513.75438391784</v>
       </c>
       <c r="M38" s="19">
-        <f ca="1">SUM(M37,M33)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>589183.31439291092</v>
       </c>
     </row>
@@ -19638,19 +19677,19 @@
         <v>2020</v>
       </c>
       <c r="D45" s="20">
-        <f t="shared" ref="D45" si="30">C45+1</f>
+        <f t="shared" ref="D45" si="39">C45+1</f>
         <v>2021</v>
       </c>
       <c r="E45" s="20">
-        <f t="shared" ref="E45" si="31">D45+1</f>
+        <f t="shared" ref="E45" si="40">D45+1</f>
         <v>2022</v>
       </c>
       <c r="F45" s="20">
-        <f t="shared" ref="F45" si="32">E45+1</f>
+        <f t="shared" ref="F45" si="41">E45+1</f>
         <v>2023</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" ref="G45" si="33">F45+1</f>
+        <f t="shared" ref="G45" si="42">F45+1</f>
         <v>2024</v>
       </c>
       <c r="H45" s="27">
@@ -19721,27 +19760,27 @@
         <v>759319</v>
       </c>
       <c r="H48" s="90">
-        <f ca="1">H123</f>
+        <f t="shared" ref="H48:M48" ca="1" si="43">H123</f>
         <v>768458.45279941487</v>
       </c>
       <c r="I48" s="90">
-        <f ca="1">I123</f>
+        <f t="shared" ca="1" si="43"/>
         <v>802011.77472920378</v>
       </c>
       <c r="J48" s="90">
-        <f ca="1">J123</f>
+        <f t="shared" ca="1" si="43"/>
         <v>936260.15847229806</v>
       </c>
       <c r="K48" s="90">
-        <f ca="1">K123</f>
+        <f t="shared" ca="1" si="43"/>
         <v>1145279.3187718673</v>
       </c>
       <c r="L48" s="90">
-        <f ca="1">L123</f>
+        <f t="shared" ca="1" si="43"/>
         <v>868149.35834779835</v>
       </c>
       <c r="M48" s="90">
-        <f ca="1">M123</f>
+        <f t="shared" ca="1" si="43"/>
         <v>1403101.7975730509</v>
       </c>
     </row>
@@ -19868,27 +19907,27 @@
         <v>186721</v>
       </c>
       <c r="H51" s="90">
-        <f ca="1">H124+H125</f>
+        <f t="shared" ref="H51:M51" ca="1" si="44">H124+H125</f>
         <v>263316.6247800042</v>
       </c>
       <c r="I51" s="90">
-        <f ca="1">I124+I125</f>
+        <f t="shared" ca="1" si="44"/>
         <v>248944.52794704083</v>
       </c>
       <c r="J51" s="90">
-        <f ca="1">J124+J125</f>
+        <f t="shared" ca="1" si="44"/>
         <v>281586.13967978652</v>
       </c>
       <c r="K51" s="90">
-        <f ca="1">K124+K125</f>
+        <f t="shared" ca="1" si="44"/>
         <v>374819.61727091687</v>
       </c>
       <c r="L51" s="90">
-        <f ca="1">L124+L125</f>
+        <f t="shared" ca="1" si="44"/>
         <v>275010.47793084179</v>
       </c>
       <c r="M51" s="90">
-        <f ca="1">M124+M125</f>
+        <f t="shared" ca="1" si="44"/>
         <v>430145.73602861207</v>
       </c>
       <c r="P51" s="34"/>
@@ -20258,43 +20297,43 @@
         <v>4678964</v>
       </c>
       <c r="D59" s="41">
-        <f t="shared" ref="D59:M59" si="34">SUM(D48:D58)</f>
+        <f t="shared" ref="D59:G59" si="45">SUM(D48:D58)</f>
         <v>4773884</v>
       </c>
       <c r="E59" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>4556431</v>
       </c>
       <c r="F59" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>4564467</v>
       </c>
       <c r="G59" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>5435069</v>
       </c>
       <c r="H59" s="41">
-        <f ca="1">SUM(H48:H58)</f>
+        <f t="shared" ref="H59:M59" ca="1" si="46">SUM(H48:H58)</f>
         <v>6088172.3538761912</v>
       </c>
       <c r="I59" s="41">
-        <f ca="1">SUM(I48:I58)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>6868485.029653932</v>
       </c>
       <c r="J59" s="41">
-        <f ca="1">SUM(J48:J58)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>7827019.5226290813</v>
       </c>
       <c r="K59" s="41">
-        <f ca="1">SUM(K48:K58)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>8951159.1751069874</v>
       </c>
       <c r="L59" s="41">
-        <f ca="1">SUM(L48:L58)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>9423219.5768518746</v>
       </c>
       <c r="M59" s="41">
-        <f ca="1">SUM(M48:M58)</f>
+        <f t="shared" ca="1" si="46"/>
         <v>11000047.762027539</v>
       </c>
     </row>
@@ -20738,47 +20777,47 @@
         <v>2837299</v>
       </c>
       <c r="C71" s="33">
-        <f t="shared" ref="C71:M71" si="35">SUM(C63:C70)</f>
+        <f t="shared" ref="C71:G71" si="47">SUM(C63:C70)</f>
         <v>3002801</v>
       </c>
       <c r="D71" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>3432671</v>
       </c>
       <c r="E71" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>4167763</v>
       </c>
       <c r="F71" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>4022949</v>
       </c>
       <c r="G71" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>4668053</v>
       </c>
       <c r="H71" s="33">
-        <f ca="1">SUM(H63:H70)</f>
+        <f t="shared" ref="H71:M71" ca="1" si="48">SUM(H63:H70)</f>
         <v>4772378.3250228893</v>
       </c>
       <c r="I71" s="33">
-        <f ca="1">SUM(I63:I70)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>5299602.376228204</v>
       </c>
       <c r="J71" s="33">
-        <f ca="1">SUM(J63:J70)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>5916668.3866358409</v>
       </c>
       <c r="K71" s="33">
-        <f ca="1">SUM(K63:K70)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>6632937.9973223265</v>
       </c>
       <c r="L71" s="33">
-        <f ca="1">SUM(L63:L70)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>7480046.0215312233</v>
       </c>
       <c r="M71" s="33">
-        <f ca="1">SUM(M63:M70)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>8068250.3500321899</v>
       </c>
     </row>
@@ -20954,43 +20993,43 @@
         <v>-473</v>
       </c>
       <c r="D77" s="28">
-        <f t="shared" ref="D77:G77" si="36">C77+D37</f>
+        <f t="shared" ref="D77:G77" si="49">C77+D37</f>
         <v>-2511</v>
       </c>
       <c r="E77" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-5754</v>
       </c>
       <c r="F77" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-4949</v>
       </c>
       <c r="G77" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-10103</v>
       </c>
       <c r="H77" s="90">
-        <f ca="1">G77+H35</f>
+        <f t="shared" ref="H77:M77" ca="1" si="50">G77+H35</f>
         <v>-15232.82262481645</v>
       </c>
       <c r="I77" s="90">
-        <f ca="1">H77+I35</f>
+        <f t="shared" ca="1" si="50"/>
         <v>-20554.257239662184</v>
       </c>
       <c r="J77" s="90">
-        <f ca="1">I77+J35</f>
+        <f t="shared" ca="1" si="50"/>
         <v>-26150.830200844604</v>
       </c>
       <c r="K77" s="90">
-        <f ca="1">J77+K35</f>
+        <f t="shared" ca="1" si="50"/>
         <v>-32030.79565875381</v>
       </c>
       <c r="L77" s="90">
-        <f ca="1">K77+L35</f>
+        <f t="shared" ca="1" si="50"/>
         <v>-38202.655388291605</v>
       </c>
       <c r="M77" s="90">
-        <f ca="1">L77+M35</f>
+        <f t="shared" ca="1" si="50"/>
         <v>-44675.166217606849</v>
       </c>
     </row>
@@ -21017,27 +21056,27 @@
         <v>-10258131</v>
       </c>
       <c r="H78" s="34">
-        <f ca="1">G78+H19</f>
+        <f t="shared" ref="H78:M78" ca="1" si="51">G78+H19</f>
         <v>-10206415.534667561</v>
       </c>
       <c r="I78" s="34">
-        <f ca="1">H78+I19</f>
+        <f t="shared" ca="1" si="51"/>
         <v>-10030814.868652575</v>
       </c>
       <c r="J78" s="34">
-        <f ca="1">I78+J19</f>
+        <f t="shared" ca="1" si="51"/>
         <v>-9727287.2376350462</v>
       </c>
       <c r="K78" s="34">
-        <f ca="1">J78+K19</f>
+        <f t="shared" ca="1" si="51"/>
         <v>-9322205.3467112295</v>
       </c>
       <c r="L78" s="34">
-        <f ca="1">K78+L19</f>
+        <f t="shared" ca="1" si="51"/>
         <v>-8818232.7567849681</v>
       </c>
       <c r="M78" s="34">
-        <f ca="1">L78+M19</f>
+        <f t="shared" ca="1" si="51"/>
         <v>-8222275.9762368714</v>
       </c>
     </row>
@@ -21054,43 +21093,43 @@
         <v>1676163</v>
       </c>
       <c r="D79" s="38">
-        <f t="shared" ref="D79:M79" si="37">SUM(D74:D78)</f>
+        <f t="shared" ref="D79:F79" si="52">SUM(D74:D78)</f>
         <v>1341213</v>
       </c>
       <c r="E79" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>388668</v>
       </c>
       <c r="F79" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>541518</v>
       </c>
       <c r="G79" s="38">
-        <f>SUM(G74:G78)</f>
+        <f t="shared" ref="G79:M79" si="53">SUM(G74:G78)</f>
         <v>767016</v>
       </c>
       <c r="H79" s="38">
-        <f ca="1">SUM(H74:H78)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>1315794.0288533028</v>
       </c>
       <c r="I79" s="38">
-        <f ca="1">SUM(I74:I78)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>1568882.6534257289</v>
       </c>
       <c r="J79" s="38">
-        <f ca="1">SUM(J74:J78)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>1910351.1359932404</v>
       </c>
       <c r="K79" s="38">
-        <f ca="1">SUM(K74:K78)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>2318221.1777846608</v>
       </c>
       <c r="L79" s="38">
-        <f ca="1">SUM(L74:L78)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>1943173.5553206485</v>
       </c>
       <c r="M79" s="38">
-        <f ca="1">SUM(M74:M78)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>2931797.4119953522</v>
       </c>
     </row>
@@ -21108,51 +21147,51 @@
         <v>55</v>
       </c>
       <c r="B81" s="40">
-        <f t="shared" ref="B81:M81" si="38">SUM(B79,B71)</f>
+        <f t="shared" ref="B81:G81" si="54">SUM(B79,B71)</f>
         <v>5691383</v>
       </c>
       <c r="C81" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>4678964</v>
       </c>
       <c r="D81" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>4773884</v>
       </c>
       <c r="E81" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>4556431</v>
       </c>
       <c r="F81" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>4564467</v>
       </c>
       <c r="G81" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>5435069</v>
       </c>
       <c r="H81" s="40">
-        <f ca="1">SUM(H79,H71)</f>
+        <f t="shared" ref="H81:M81" ca="1" si="55">SUM(H79,H71)</f>
         <v>6088172.3538761921</v>
       </c>
       <c r="I81" s="40">
-        <f ca="1">SUM(I79,I71)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>6868485.0296539329</v>
       </c>
       <c r="J81" s="40">
-        <f ca="1">SUM(J79,J71)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>7827019.5226290813</v>
       </c>
       <c r="K81" s="40">
-        <f ca="1">SUM(K79,K71)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>8951159.1751069874</v>
       </c>
       <c r="L81" s="40">
-        <f ca="1">SUM(L79,L71)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>9423219.5768518709</v>
       </c>
       <c r="M81" s="40">
-        <f ca="1">SUM(M79,M71)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>11000047.762027543</v>
       </c>
     </row>
@@ -21165,47 +21204,47 @@
         <v>0</v>
       </c>
       <c r="C82" s="191">
-        <f t="shared" ref="C82:M82" si="39">C59-(C71+C79)</f>
+        <f t="shared" ref="C82:G82" si="56">C59-(C71+C79)</f>
         <v>0</v>
       </c>
       <c r="D82" s="191">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E82" s="191">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F82" s="191">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G82" s="191">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H82" s="191">
-        <f ca="1">H59-(H71+H79)</f>
+        <f t="shared" ref="H82:M82" ca="1" si="57">H59-(H71+H79)</f>
         <v>0</v>
       </c>
       <c r="I82" s="191">
-        <f ca="1">I59-(I71+I79)</f>
+        <f t="shared" ca="1" si="57"/>
         <v>0</v>
       </c>
       <c r="J82" s="191">
-        <f ca="1">J59-(J71+J79)</f>
+        <f t="shared" ca="1" si="57"/>
         <v>0</v>
       </c>
       <c r="K82" s="191">
-        <f ca="1">K59-(K71+K79)</f>
+        <f t="shared" ca="1" si="57"/>
         <v>0</v>
       </c>
       <c r="L82" s="191">
-        <f ca="1">L59-(L71+L79)</f>
+        <f t="shared" ca="1" si="57"/>
         <v>0</v>
       </c>
       <c r="M82" s="191">
-        <f ca="1">M59-(M71+M79)</f>
+        <f t="shared" ca="1" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -21267,19 +21306,19 @@
         <v>2020</v>
       </c>
       <c r="D87" s="135">
-        <f t="shared" ref="D87" si="40">C87+1</f>
+        <f t="shared" ref="D87" si="58">C87+1</f>
         <v>2021</v>
       </c>
       <c r="E87" s="135">
-        <f t="shared" ref="E87" si="41">D87+1</f>
+        <f t="shared" ref="E87" si="59">D87+1</f>
         <v>2022</v>
       </c>
       <c r="F87" s="135">
-        <f t="shared" ref="F87" si="42">E87+1</f>
+        <f t="shared" ref="F87" si="60">E87+1</f>
         <v>2023</v>
       </c>
       <c r="G87" s="135">
-        <f t="shared" ref="G87" si="43">F87+1</f>
+        <f t="shared" ref="G87" si="61">F87+1</f>
         <v>2024</v>
       </c>
       <c r="H87" s="136">
@@ -21342,27 +21381,27 @@
         <v>22784</v>
       </c>
       <c r="H89" s="34">
-        <f ca="1">H19</f>
+        <f t="shared" ref="H89:M89" ca="1" si="62">H19</f>
         <v>51715.465332438987</v>
       </c>
       <c r="I89" s="34">
-        <f ca="1">I19</f>
+        <f t="shared" ca="1" si="62"/>
         <v>175600.66601498588</v>
       </c>
       <c r="J89" s="34">
-        <f ca="1">J19</f>
+        <f t="shared" ca="1" si="62"/>
         <v>303527.63101752754</v>
       </c>
       <c r="K89" s="34">
-        <f ca="1">K19</f>
+        <f t="shared" ca="1" si="62"/>
         <v>405081.8909238163</v>
       </c>
       <c r="L89" s="34">
-        <f ca="1">L19</f>
+        <f t="shared" ca="1" si="62"/>
         <v>503972.58992626052</v>
       </c>
       <c r="M89" s="34">
-        <f ca="1">M19</f>
+        <f t="shared" ca="1" si="62"/>
         <v>595956.78054809687</v>
       </c>
       <c r="O89" s="42"/>
@@ -21453,27 +21492,27 @@
         <v>-76359</v>
       </c>
       <c r="H92" s="34">
-        <f ca="1">(G50+G58)-(H50+H58)</f>
+        <f t="shared" ref="H92:M92" ca="1" si="63">(G50+G58)-(H50+H58)</f>
         <v>-53091.731322286301</v>
       </c>
       <c r="I92" s="34">
-        <f ca="1">(H50+H58)-(I50+I58)</f>
+        <f t="shared" ca="1" si="63"/>
         <v>-47124.20711761259</v>
       </c>
       <c r="J92" s="34">
-        <f ca="1">(I50+I58)-(J50+J58)</f>
+        <f t="shared" ca="1" si="63"/>
         <v>-49320.48478165362</v>
       </c>
       <c r="K92" s="34">
-        <f ca="1">(J50+J58)-(K50+K58)</f>
+        <f t="shared" ca="1" si="63"/>
         <v>-51619.122482554754</v>
       </c>
       <c r="L92" s="34">
-        <f ca="1">(K50+K58)-(L50+L58)</f>
+        <f t="shared" ca="1" si="63"/>
         <v>-54024.89082711027</v>
       </c>
       <c r="M92" s="34">
-        <f ca="1">(L50+L58)-(M50+M58)</f>
+        <f t="shared" ca="1" si="63"/>
         <v>-56542.782761709997</v>
       </c>
       <c r="O92" s="42"/>
@@ -21549,27 +21588,27 @@
         <v>21712</v>
       </c>
       <c r="H94" s="34">
-        <f ca="1">H63-G63</f>
+        <f t="shared" ref="H94:M95" ca="1" si="64">H63-G63</f>
         <v>4714.5105779130536</v>
       </c>
       <c r="I94" s="34">
-        <f ca="1">I63-H63</f>
+        <f t="shared" ca="1" si="64"/>
         <v>4941.9998310577939</v>
       </c>
       <c r="J94" s="34">
-        <f ca="1">J63-I63</f>
+        <f t="shared" ca="1" si="64"/>
         <v>5180.4661218909896</v>
       </c>
       <c r="K94" s="34">
-        <f ca="1">K63-J63</f>
+        <f t="shared" ca="1" si="64"/>
         <v>5430.439125352219</v>
       </c>
       <c r="L94" s="34">
-        <f ca="1">L63-K63</f>
+        <f t="shared" ca="1" si="64"/>
         <v>5692.4740747830074</v>
       </c>
       <c r="M94" s="34">
-        <f ca="1">M63-L63</f>
+        <f t="shared" ca="1" si="64"/>
         <v>5967.1529951963021</v>
       </c>
       <c r="O94" s="42"/>
@@ -21597,27 +21636,27 @@
         <v>363524</v>
       </c>
       <c r="H95" s="90">
-        <f ca="1">H64-G64</f>
+        <f t="shared" ca="1" si="64"/>
         <v>340278.59999999986</v>
       </c>
       <c r="I95" s="90">
-        <f ca="1">I64-H64</f>
+        <f t="shared" ca="1" si="64"/>
         <v>408334.32000000007</v>
       </c>
       <c r="J95" s="90">
-        <f ca="1">J64-I64</f>
+        <f t="shared" ca="1" si="64"/>
         <v>490001.18399999989</v>
       </c>
       <c r="K95" s="90">
-        <f ca="1">K64-J64</f>
+        <f t="shared" ca="1" si="64"/>
         <v>588001.42079999996</v>
       </c>
       <c r="L95" s="90">
-        <f ca="1">L64-K64</f>
+        <f t="shared" ca="1" si="64"/>
         <v>705601.70495999977</v>
       </c>
       <c r="M95" s="90">
-        <f ca="1">M64-L64</f>
+        <f t="shared" ca="1" si="64"/>
         <v>846722.04595199972</v>
       </c>
       <c r="O95" s="42"/>
@@ -21645,27 +21684,27 @@
         <v>164057</v>
       </c>
       <c r="H96" s="34">
-        <f ca="1">(H65+H70)-(G65+G70)</f>
+        <f t="shared" ref="H96:M96" ca="1" si="65">(H65+H70)-(G65+G70)</f>
         <v>84446.68055148609</v>
       </c>
       <c r="I96" s="34">
-        <f ca="1">(I65+I70)-(H65+H70)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>87705.967400419991</v>
       </c>
       <c r="J96" s="34">
-        <f ca="1">(J65+J70)-(I65+I70)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>94312.681559968973</v>
       </c>
       <c r="K96" s="34">
-        <f ca="1">(K65+K70)-(J65+J70)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>93871.695297886617</v>
       </c>
       <c r="L96" s="34">
-        <f ca="1">(L65+L70)-(K65+K70)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>105385.8891321558</v>
       </c>
       <c r="M96" s="34">
-        <f ca="1">(M65+M70)-(L65+L70)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>103307.68166357232</v>
       </c>
       <c r="O96" s="42"/>
@@ -21693,27 +21732,27 @@
         <v>-47356</v>
       </c>
       <c r="H97" s="34">
-        <f ca="1">(H68+H66)-(G68+G66)</f>
+        <f t="shared" ref="H97:M97" ca="1" si="66">(H68+H66)-(G68+G66)</f>
         <v>8261.6850278715137</v>
       </c>
       <c r="I97" s="34">
-        <f ca="1">(I68+I66)-(H68+H66)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>8646.7303242044873</v>
       </c>
       <c r="J97" s="34">
-        <f ca="1">(J68+J66)-(I68+I66)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>9049.7210977285577</v>
       </c>
       <c r="K97" s="34">
-        <f ca="1">(K68+K66)-(J68+J66)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>9471.4937179688422</v>
       </c>
       <c r="L97" s="34">
-        <f ca="1">(L68+L66)-(K68+K66)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>9912.9235344104236</v>
       </c>
       <c r="M97" s="34">
-        <f ca="1">(M68+M66)-(L68+L66)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>10374.926693203772</v>
       </c>
       <c r="O97" s="42"/>
@@ -21723,51 +21762,51 @@
         <v>72</v>
       </c>
       <c r="B98" s="38">
-        <f t="shared" ref="B98:M98" si="44">SUM(B89:B97)</f>
+        <f t="shared" ref="B98:G98" si="67">SUM(B89:B97)</f>
         <v>-105702</v>
       </c>
       <c r="C98" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>-1378899</v>
       </c>
       <c r="D98" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>-101721</v>
       </c>
       <c r="E98" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>-237285</v>
       </c>
       <c r="F98" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>-98244</v>
       </c>
       <c r="G98" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>849737</v>
       </c>
       <c r="H98" s="38">
-        <f ca="1">SUM(H89:H97)</f>
+        <f t="shared" ref="H98:M98" ca="1" si="68">SUM(H89:H97)</f>
         <v>725358.39080635982</v>
       </c>
       <c r="I98" s="38">
-        <f ca="1">SUM(I89:I97)</f>
+        <f t="shared" ca="1" si="68"/>
         <v>896304.76151862461</v>
       </c>
       <c r="J98" s="38">
-        <f ca="1">SUM(J89:J97)</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1080435.4376352895</v>
       </c>
       <c r="K98" s="38">
-        <f ca="1">SUM(K89:K97)</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1252256.5946125439</v>
       </c>
       <c r="L98" s="38">
-        <f ca="1">SUM(L89:L97)</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1457732.8414116274</v>
       </c>
       <c r="M98" s="38">
-        <f ca="1">SUM(M89:M97)</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1663706.8468769491</v>
       </c>
       <c r="O98" s="42"/>
@@ -21828,27 +21867,27 @@
         <v>-250598.82163626322</v>
       </c>
       <c r="H101" s="28">
-        <f ca="1">G49-H49</f>
+        <f t="shared" ref="H101:M101" ca="1" si="69">G49-H49</f>
         <v>-326233.98978734179</v>
       </c>
       <c r="I101" s="28">
-        <f ca="1">H49-I49</f>
+        <f t="shared" ca="1" si="69"/>
         <v>-333345.09226207598</v>
       </c>
       <c r="J101" s="28">
-        <f ca="1">I49-J49</f>
+        <f t="shared" ca="1" si="69"/>
         <v>-345351.53404249763</v>
       </c>
       <c r="K101" s="28">
-        <f ca="1">J49-K49</f>
+        <f t="shared" ca="1" si="69"/>
         <v>-356901.59806064516</v>
       </c>
       <c r="L101" s="28">
-        <f ca="1">K49-L49</f>
+        <f t="shared" ca="1" si="69"/>
         <v>-371349.32255047746</v>
       </c>
       <c r="M101" s="28">
-        <f ca="1">L49-M49</f>
+        <f t="shared" ca="1" si="69"/>
         <v>-388020.83870877372</v>
       </c>
     </row>
@@ -21881,27 +21920,27 @@
         <v>-277257.17836373678</v>
       </c>
       <c r="H102" s="28">
-        <f ca="1">G52-H52</f>
+        <f t="shared" ref="H102:M102" ca="1" si="70">G52-H52</f>
         <v>-93247.670404558768</v>
       </c>
       <c r="I102" s="28">
-        <f ca="1">H52-I52</f>
+        <f t="shared" ca="1" si="70"/>
         <v>-339659.6464210134</v>
       </c>
       <c r="J102" s="28">
-        <f ca="1">I52-J52</f>
+        <f t="shared" ca="1" si="70"/>
         <v>-350827.67118092324</v>
       </c>
       <c r="K102" s="28">
-        <f ca="1">J52-K52</f>
+        <f t="shared" ca="1" si="70"/>
         <v>-364175.16134459618</v>
       </c>
       <c r="L102" s="28">
-        <f ca="1">K52-L52</f>
+        <f t="shared" ca="1" si="70"/>
         <v>-373738.77563066734</v>
       </c>
       <c r="M102" s="28">
-        <f ca="1">L52-M52</f>
+        <f t="shared" ca="1" si="70"/>
         <v>-386901.25551383011</v>
       </c>
       <c r="P102" s="42"/>
@@ -21929,27 +21968,27 @@
         <v>8575</v>
       </c>
       <c r="H103" s="28">
-        <f ca="1">G54-H54</f>
+        <f t="shared" ref="H103:M103" ca="1" si="71">G54-H54</f>
         <v>-55021.427321555791</v>
       </c>
       <c r="I103" s="28">
-        <f ca="1">H54-I54</f>
+        <f t="shared" ca="1" si="71"/>
         <v>-23297.733070942282</v>
       </c>
       <c r="J103" s="28">
-        <f ca="1">I54-J54</f>
+        <f t="shared" ca="1" si="71"/>
         <v>-24383.550613480329</v>
       </c>
       <c r="K103" s="28">
-        <f ca="1">J54-K54</f>
+        <f t="shared" ca="1" si="71"/>
         <v>-25519.973926635343</v>
       </c>
       <c r="L103" s="28">
-        <f ca="1">K54-L54</f>
+        <f t="shared" ca="1" si="71"/>
         <v>-26709.361550327158</v>
       </c>
       <c r="M103" s="28">
-        <f ca="1">L54-M54</f>
+        <f t="shared" ca="1" si="71"/>
         <v>-27954.181946930941</v>
       </c>
       <c r="P103" s="42"/>
@@ -21977,27 +22016,27 @@
         <v>1303</v>
       </c>
       <c r="H104" s="28">
-        <f ca="1">(G56+G57)-(H56+H57)</f>
+        <f t="shared" ref="H104:M104" ca="1" si="72">(G56+G57)-(H56+H57)</f>
         <v>-42175.411920724669</v>
       </c>
       <c r="I104" s="28">
-        <f ca="1">(H56+H57)-(I56+I57)</f>
+        <f t="shared" ca="1" si="72"/>
         <v>-10466.221608324966</v>
       </c>
       <c r="J104" s="28">
-        <f ca="1">(I56+I57)-(J56+J57)</f>
+        <f t="shared" ca="1" si="72"/>
         <v>-14185.345754313923</v>
       </c>
       <c r="K104" s="28">
-        <f ca="1">(J56+J57)-(K56+K57)</f>
+        <f t="shared" ca="1" si="72"/>
         <v>-15742.163628385402</v>
       </c>
       <c r="L104" s="28">
-        <f ca="1">(K56+K57)-(L56+L57)</f>
+        <f t="shared" ca="1" si="72"/>
         <v>-14878.615902916936</v>
       </c>
       <c r="M104" s="28">
-        <f ca="1">(L56+L57)-(M56+M57)</f>
+        <f t="shared" ca="1" si="72"/>
         <v>-18636.131140142388</v>
       </c>
       <c r="P104" s="42"/>
@@ -22007,51 +22046,51 @@
         <v>74</v>
       </c>
       <c r="B105" s="38">
-        <f t="shared" ref="B105:M105" si="45">SUM(B101:B104)</f>
+        <f t="shared" ref="B105:G105" si="73">SUM(B101:B104)</f>
         <v>-1610843</v>
       </c>
       <c r="C105" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>740427</v>
       </c>
       <c r="D105" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>267012</v>
       </c>
       <c r="E105" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>186045</v>
       </c>
       <c r="F105" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>599753</v>
       </c>
       <c r="G105" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>-517978</v>
       </c>
       <c r="H105" s="38">
-        <f ca="1">SUM(H101:H104)</f>
+        <f t="shared" ref="H105:M105" ca="1" si="74">SUM(H101:H104)</f>
         <v>-516678.49943418102</v>
       </c>
       <c r="I105" s="38">
-        <f ca="1">SUM(I101:I104)</f>
+        <f t="shared" ca="1" si="74"/>
         <v>-706768.69336235663</v>
       </c>
       <c r="J105" s="38">
-        <f ca="1">SUM(J101:J104)</f>
+        <f t="shared" ca="1" si="74"/>
         <v>-734748.10159121524</v>
       </c>
       <c r="K105" s="38">
-        <f ca="1">SUM(K101:K104)</f>
+        <f t="shared" ca="1" si="74"/>
         <v>-762338.89696026209</v>
       </c>
       <c r="L105" s="38">
-        <f ca="1">SUM(L101:L104)</f>
+        <f t="shared" ca="1" si="74"/>
         <v>-786676.07563438895</v>
       </c>
       <c r="M105" s="38">
-        <f ca="1">SUM(M101:M104)</f>
+        <f t="shared" ca="1" si="74"/>
         <v>-821512.40730967722</v>
       </c>
       <c r="P105" s="42"/>
@@ -22225,51 +22264,51 @@
         <v>80</v>
       </c>
       <c r="B111" s="38">
-        <f t="shared" ref="B111:M111" si="46">SUM(B108:B110)</f>
+        <f t="shared" ref="B111:G111" si="75">SUM(B108:B110)</f>
         <v>1574196</v>
       </c>
       <c r="C111" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="75"/>
         <v>512566</v>
       </c>
       <c r="D111" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="75"/>
         <v>-72470</v>
       </c>
       <c r="E111" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="75"/>
         <v>-87500</v>
       </c>
       <c r="F111" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="75"/>
         <v>-122078</v>
       </c>
       <c r="G111" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="75"/>
         <v>-155869</v>
       </c>
       <c r="H111" s="38">
-        <f ca="1">SUM(H108:H110)</f>
+        <f t="shared" ref="H111:M111" ca="1" si="76">SUM(H108:H110)</f>
         <v>-121240.7752518054</v>
       </c>
       <c r="I111" s="38">
-        <f ca="1">SUM(I108:I110)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>-168587.15432240936</v>
       </c>
       <c r="J111" s="38">
-        <f ca="1">SUM(J108:J110)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>-176938.25562112895</v>
       </c>
       <c r="K111" s="38">
-        <f ca="1">SUM(K108:K110)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>-185711.83671810228</v>
       </c>
       <c r="L111" s="38">
-        <f ca="1">SUM(L108:L110)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>-1045945.6802586364</v>
       </c>
       <c r="M111" s="38">
-        <f ca="1">SUM(M108:M110)</f>
+        <f t="shared" ca="1" si="76"/>
         <v>-149956.68585505945</v>
       </c>
     </row>
@@ -22347,51 +22386,51 @@
         <v>82</v>
       </c>
       <c r="B115" s="28">
-        <f t="shared" ref="B115:M115" si="47">B98+B105+B111+B114</f>
+        <f t="shared" ref="B115:G115" si="77">B98+B105+B111+B114</f>
         <v>-142021</v>
       </c>
       <c r="C115" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="77"/>
         <v>-125980</v>
       </c>
       <c r="D115" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="77"/>
         <v>92708</v>
       </c>
       <c r="E115" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="77"/>
         <v>-139371</v>
       </c>
       <c r="F115" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="77"/>
         <v>379964</v>
       </c>
       <c r="G115" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="77"/>
         <v>174254</v>
       </c>
       <c r="H115" s="28">
-        <f ca="1">H98+H105+H111+H114</f>
+        <f t="shared" ref="H115:M115" ca="1" si="78">H98+H105+H111+H114</f>
         <v>85735.077579419143</v>
       </c>
       <c r="I115" s="28">
-        <f ca="1">I98+I105+I111+I114</f>
+        <f t="shared" ca="1" si="78"/>
         <v>19181.225096825601</v>
       </c>
       <c r="J115" s="28">
-        <f ca="1">J98+J105+J111+J114</f>
+        <f t="shared" ca="1" si="78"/>
         <v>166889.99547583985</v>
       </c>
       <c r="K115" s="28">
-        <f ca="1">K98+K105+K111+K114</f>
+        <f t="shared" ca="1" si="78"/>
         <v>302252.63789069949</v>
       </c>
       <c r="L115" s="28">
-        <f ca="1">L98+L105+L111+L114</f>
+        <f t="shared" ca="1" si="78"/>
         <v>-376939.09976414393</v>
       </c>
       <c r="M115" s="28">
-        <f ca="1">M98+M105+M111+M114</f>
+        <f t="shared" ca="1" si="78"/>
         <v>690087.69732302264</v>
       </c>
     </row>
@@ -22445,23 +22484,23 @@
         <v>564465</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" ref="D118:M118" si="48">C119</f>
+        <f t="shared" ref="D118:H118" si="79">C119</f>
         <v>438485</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="79"/>
         <v>531193</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="79"/>
         <v>391822</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="79"/>
         <v>771786</v>
       </c>
       <c r="H118" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="79"/>
         <v>946040</v>
       </c>
       <c r="I118" s="6">
@@ -22494,47 +22533,47 @@
         <v>564465</v>
       </c>
       <c r="C119" s="132">
-        <f t="shared" ref="C119:M119" si="49">C118+C115</f>
+        <f t="shared" ref="C119:G119" si="80">C118+C115</f>
         <v>438485</v>
       </c>
       <c r="D119" s="132">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>531193</v>
       </c>
       <c r="E119" s="132">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>391822</v>
       </c>
       <c r="F119" s="132">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>771786</v>
       </c>
       <c r="G119" s="132">
-        <f t="shared" si="49"/>
+        <f t="shared" si="80"/>
         <v>946040</v>
       </c>
       <c r="H119" s="132">
-        <f ca="1">H118+H115</f>
+        <f t="shared" ref="H119:M119" ca="1" si="81">H118+H115</f>
         <v>1031775.0775794191</v>
       </c>
       <c r="I119" s="132">
-        <f ca="1">I118+I115</f>
+        <f t="shared" ca="1" si="81"/>
         <v>1050956.3026762446</v>
       </c>
       <c r="J119" s="132">
-        <f ca="1">J118+J115</f>
+        <f t="shared" ca="1" si="81"/>
         <v>1217846.2981520845</v>
       </c>
       <c r="K119" s="132">
-        <f ca="1">K118+K115</f>
+        <f t="shared" ca="1" si="81"/>
         <v>1520098.936042784</v>
       </c>
       <c r="L119" s="132">
-        <f ca="1">L118+L115</f>
+        <f t="shared" ca="1" si="81"/>
         <v>1143159.8362786402</v>
       </c>
       <c r="M119" s="132">
-        <f ca="1">M118+M115</f>
+        <f t="shared" ca="1" si="81"/>
         <v>1833247.5336016628</v>
       </c>
     </row>
@@ -22608,27 +22647,27 @@
         <v>759319</v>
       </c>
       <c r="H123" s="34">
-        <f ca="1">H119*H128</f>
+        <f t="shared" ref="H123:M123" ca="1" si="82">H119*H128</f>
         <v>768458.45279941487</v>
       </c>
       <c r="I123" s="34">
-        <f ca="1">I119*I128</f>
+        <f t="shared" ca="1" si="82"/>
         <v>802011.77472920378</v>
       </c>
       <c r="J123" s="34">
-        <f ca="1">J119*J128</f>
+        <f t="shared" ca="1" si="82"/>
         <v>936260.15847229806</v>
       </c>
       <c r="K123" s="34">
-        <f ca="1">K119*K128</f>
+        <f t="shared" ca="1" si="82"/>
         <v>1145279.3187718673</v>
       </c>
       <c r="L123" s="34">
-        <f ca="1">L119*L128</f>
+        <f t="shared" ca="1" si="82"/>
         <v>868149.35834779835</v>
       </c>
       <c r="M123" s="34">
-        <f ca="1">M119*M128</f>
+        <f t="shared" ca="1" si="82"/>
         <v>1403101.7975730509</v>
       </c>
     </row>
@@ -22655,27 +22694,27 @@
         <v>186721</v>
       </c>
       <c r="H124" s="34">
-        <f ca="1">H129*H119</f>
+        <f t="shared" ref="H124:M124" ca="1" si="83">H129*H119</f>
         <v>261767.71264197424</v>
       </c>
       <c r="I124" s="34">
-        <f ca="1">I129*I119</f>
+        <f t="shared" ca="1" si="83"/>
         <v>247466.93275872196</v>
       </c>
       <c r="J124" s="34">
-        <f ca="1">J129*J119</f>
+        <f t="shared" ca="1" si="83"/>
         <v>279677.40920964279</v>
       </c>
       <c r="K124" s="34">
-        <f ca="1">K129*K119</f>
+        <f t="shared" ca="1" si="83"/>
         <v>372356.30558601615</v>
       </c>
       <c r="L124" s="34">
-        <f ca="1">L129*L119</f>
+        <f t="shared" ca="1" si="83"/>
         <v>273512.50268982229</v>
       </c>
       <c r="M124" s="34">
-        <f ca="1">M129*M119</f>
+        <f t="shared" ca="1" si="83"/>
         <v>427883.09926222335</v>
       </c>
     </row>
@@ -22702,27 +22741,27 @@
         <v>0</v>
       </c>
       <c r="H125" s="34">
-        <f ca="1">H130*H119</f>
+        <f t="shared" ref="H125:M125" ca="1" si="84">H130*H119</f>
         <v>1548.9121380299559</v>
       </c>
       <c r="I125" s="34">
-        <f ca="1">I130*I119</f>
+        <f t="shared" ca="1" si="84"/>
         <v>1477.5951883188554</v>
       </c>
       <c r="J125" s="34">
-        <f ca="1">J130*J119</f>
+        <f t="shared" ca="1" si="84"/>
         <v>1908.7304701437154</v>
       </c>
       <c r="K125" s="34">
-        <f ca="1">K130*K119</f>
+        <f t="shared" ca="1" si="84"/>
         <v>2463.3116849006947</v>
       </c>
       <c r="L125" s="34">
-        <f ca="1">L130*L119</f>
+        <f t="shared" ca="1" si="84"/>
         <v>1497.9752410195169</v>
       </c>
       <c r="M125" s="34">
-        <f ca="1">M130*M119</f>
+        <f t="shared" ca="1" si="84"/>
         <v>2262.6367663887399</v>
       </c>
     </row>
@@ -22735,47 +22774,47 @@
         <v>564465</v>
       </c>
       <c r="C126" s="54">
-        <f t="shared" ref="C126:M126" si="50">SUM(C123:C125)</f>
+        <f t="shared" ref="C126:G126" si="85">SUM(C123:C125)</f>
         <v>438485</v>
       </c>
       <c r="D126" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="85"/>
         <v>531193</v>
       </c>
       <c r="E126" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="85"/>
         <v>391822</v>
       </c>
       <c r="F126" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="85"/>
         <v>771786</v>
       </c>
       <c r="G126" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="85"/>
         <v>946040</v>
       </c>
       <c r="H126" s="54">
-        <f ca="1">SUM(H123:H125)</f>
+        <f t="shared" ref="H126:M126" ca="1" si="86">SUM(H123:H125)</f>
         <v>1031775.077579419</v>
       </c>
       <c r="I126" s="54">
-        <f ca="1">SUM(I123:I125)</f>
+        <f t="shared" ca="1" si="86"/>
         <v>1050956.3026762444</v>
       </c>
       <c r="J126" s="54">
-        <f ca="1">SUM(J123:J125)</f>
+        <f t="shared" ca="1" si="86"/>
         <v>1217846.2981520845</v>
       </c>
       <c r="K126" s="54">
-        <f ca="1">SUM(K123:K125)</f>
+        <f t="shared" ca="1" si="86"/>
         <v>1520098.936042784</v>
       </c>
       <c r="L126" s="54">
-        <f ca="1">SUM(L123:L125)</f>
+        <f t="shared" ca="1" si="86"/>
         <v>1143159.8362786402</v>
       </c>
       <c r="M126" s="54">
-        <f ca="1">SUM(M123:M125)</f>
+        <f t="shared" ca="1" si="86"/>
         <v>1833247.5336016631</v>
       </c>
     </row>
@@ -22789,23 +22828,23 @@
         <v>0.63479400848591139</v>
       </c>
       <c r="C128" s="63">
-        <f t="shared" ref="C128:G128" si="51">C123/C119</f>
+        <f t="shared" ref="C128:G128" si="87">C123/C119</f>
         <v>0.72917887727060215</v>
       </c>
       <c r="D128" s="63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="87"/>
         <v>0.86093943256029348</v>
       </c>
       <c r="E128" s="63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="87"/>
         <v>0.71739208109804964</v>
       </c>
       <c r="F128" s="63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="87"/>
         <v>0.72382240672932652</v>
       </c>
       <c r="G128" s="63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="87"/>
         <v>0.80262885290262564</v>
       </c>
       <c r="H128" s="138">
@@ -22813,23 +22852,23 @@
         <v>0.74479260984113482</v>
       </c>
       <c r="I128" s="139">
-        <f t="shared" ref="I128:M130" si="52">AVERAGE(C128:H128)</f>
+        <f t="shared" ref="I128:M130" si="88">AVERAGE(C128:H128)</f>
         <v>0.76312571006700536</v>
       </c>
       <c r="J128" s="139">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.76878351553307267</v>
       </c>
       <c r="K128" s="139">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.75342419602853583</v>
       </c>
       <c r="L128" s="139">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.7594295485169501</v>
       </c>
       <c r="M128" s="140">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.76536407214822078</v>
       </c>
     </row>
@@ -22842,47 +22881,47 @@
         <v>0.36313323235275879</v>
       </c>
       <c r="C129" s="63">
-        <f t="shared" ref="C129:G129" si="53">C124/C119</f>
+        <f t="shared" ref="C129:G129" si="89">C124/C119</f>
         <v>0.27038325142251163</v>
       </c>
       <c r="D129" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="89"/>
         <v>0.13781243352227909</v>
       </c>
       <c r="E129" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="89"/>
         <v>0.27912674632869006</v>
       </c>
       <c r="F129" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="89"/>
         <v>0.27441026398509433</v>
       </c>
       <c r="G129" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="89"/>
         <v>0.19737114709737433</v>
       </c>
       <c r="H129" s="141">
-        <f t="shared" ref="H129:H130" si="54">AVERAGE(B129:G129)</f>
+        <f t="shared" ref="H129:H130" si="90">AVERAGE(B129:G129)</f>
         <v>0.25370617911811805</v>
       </c>
       <c r="I129" s="63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.23546833691234459</v>
       </c>
       <c r="J129" s="63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.22964918449398342</v>
       </c>
       <c r="K129" s="63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.24495530965593412</v>
       </c>
       <c r="L129" s="63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.23926007021047477</v>
       </c>
       <c r="M129" s="142">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>0.23340170458137155</v>
       </c>
     </row>
@@ -22895,47 +22934,47 @@
         <v>2.0727591613297546E-3</v>
       </c>
       <c r="C130" s="63">
-        <f t="shared" ref="C130:G130" si="55">C125/C119</f>
+        <f t="shared" ref="C130:G130" si="91">C125/C119</f>
         <v>4.3787130688621045E-4</v>
       </c>
       <c r="D130" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="91"/>
         <v>1.2481339174273758E-3</v>
       </c>
       <c r="E130" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="91"/>
         <v>3.4811725732603071E-3</v>
       </c>
       <c r="F130" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="91"/>
         <v>1.7673292855791632E-3</v>
       </c>
       <c r="G130" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H130" s="143">
-        <f t="shared" si="54"/>
+        <f t="shared" si="90"/>
         <v>1.5012110407471352E-3</v>
       </c>
       <c r="I130" s="68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>1.405953020650032E-3</v>
       </c>
       <c r="J130" s="68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>1.5672999729440024E-3</v>
       </c>
       <c r="K130" s="68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>1.6204943155301067E-3</v>
       </c>
       <c r="L130" s="68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>1.3103812725750732E-3</v>
       </c>
       <c r="M130" s="144">
-        <f t="shared" si="52"/>
+        <f t="shared" si="88"/>
         <v>1.2342232704077249E-3</v>
       </c>
     </row>
@@ -22961,8 +23000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683C3F7-1682-47B5-965E-E98B3B170D3C}">
   <dimension ref="B1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23105,7 +23144,7 @@
       </c>
       <c r="D12" s="213" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_FV(B2,"Price")</f>
-        <v>18.32</v>
+        <v>18.62</v>
       </c>
       <c r="E12" s="200" t="s">
         <v>23</v>
@@ -23516,7 +23555,7 @@
       </c>
       <c r="D28" s="240">
         <f ca="1">-I36</f>
-        <v>-6363632.4380200692</v>
+        <v>-6485564.8880200703</v>
       </c>
       <c r="K28" s="240">
         <f ca="1">O21</f>
@@ -23539,7 +23578,7 @@
         <v>786755.34742687643</v>
       </c>
       <c r="G29" s="254">
-        <f t="shared" ref="G29:J29" ca="1" si="6">(G28+G27)*G21</f>
+        <f t="shared" ref="G29:I29" ca="1" si="6">(G28+G27)*G21</f>
         <v>966275.54200333916</v>
       </c>
       <c r="H29" s="254">
@@ -23565,14 +23604,14 @@
       </c>
       <c r="D30" s="227">
         <f ca="1">D28+D27</f>
-        <v>-6363632.4380200692</v>
+        <v>-6485564.8880200703</v>
       </c>
       <c r="E30" s="227">
         <f ca="1">(E28+E27)*E21</f>
         <v>165473.1623467482</v>
       </c>
       <c r="F30" s="227">
-        <f t="shared" ref="F30:J30" ca="1" si="7">(F28+F27)*F21</f>
+        <f t="shared" ref="F30:H30" ca="1" si="7">(F28+F27)*F21</f>
         <v>786755.34742687643</v>
       </c>
       <c r="G30" s="227">
@@ -23628,7 +23667,7 @@
       <c r="H33" s="217"/>
       <c r="I33" s="227">
         <f ca="1">D13*D12</f>
-        <v>7446008.2800000003</v>
+        <v>7567940.7300000004</v>
       </c>
       <c r="L33" s="217" t="s">
         <v>354</v>
@@ -23636,7 +23675,7 @@
       <c r="M33" s="217"/>
       <c r="N33" s="242">
         <f ca="1">D38/I38-1</f>
-        <v>0.64297087451343593</v>
+        <v>0.6164998077919519</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23659,7 +23698,7 @@
       </c>
       <c r="N34" s="243">
         <f ca="1">XIRR(D30:K30,D19:K19)</f>
-        <v>0.28531778454780576</v>
+        <v>0.27963103652000432</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23691,7 +23730,7 @@
       </c>
       <c r="I36" s="239">
         <f ca="1">I33+I34-I35</f>
-        <v>6363632.4380200692</v>
+        <v>6485564.8880200703</v>
       </c>
       <c r="L36" s="223" t="s">
         <v>361</v>
@@ -23707,7 +23746,7 @@
       </c>
       <c r="N37" s="245">
         <f ca="1">I38</f>
-        <v>18.32</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23723,14 +23762,14 @@
       </c>
       <c r="I38" s="245">
         <f ca="1">D12</f>
-        <v>18.32</v>
+        <v>18.62</v>
       </c>
       <c r="L38" s="200" t="s">
         <v>363</v>
       </c>
       <c r="N38" s="245">
         <f ca="1">D38-I38</f>
-        <v>11.779226421086147</v>
+        <v>11.479226421086146</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23813,23 +23852,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="264"/>
-    <col min="2" max="2" width="39.42578125" style="264" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="264"/>
-    <col min="4" max="4" width="14.42578125" style="264" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="264" customWidth="1"/>
-    <col min="6" max="6" width="2" style="264" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="264"/>
-    <col min="8" max="8" width="9.85546875" style="264" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="264"/>
-    <col min="10" max="10" width="10" style="264" customWidth="1"/>
-    <col min="11" max="11" width="2" style="264" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="264" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="264" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="264" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="264" customWidth="1"/>
-    <col min="16" max="16" width="1" style="264" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="264"/>
+    <col min="1" max="1" width="9.140625" style="260"/>
+    <col min="2" max="2" width="39.42578125" style="260" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="260"/>
+    <col min="4" max="4" width="14.42578125" style="260" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="260" customWidth="1"/>
+    <col min="6" max="6" width="2" style="260" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="260"/>
+    <col min="8" max="8" width="9.85546875" style="260" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="260"/>
+    <col min="10" max="10" width="10" style="260" customWidth="1"/>
+    <col min="11" max="11" width="2" style="260" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="260" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="260" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="260" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="260" customWidth="1"/>
+    <col min="16" max="16" width="1" style="260" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="260"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
@@ -23855,14 +23894,14 @@
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="195"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="261" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="262" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
       <c r="F2" s="196"/>
       <c r="G2" s="196"/>
       <c r="H2" s="196"/>
@@ -23877,505 +23916,505 @@
       <c r="Q2" s="196"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="275"/>
-      <c r="C4" s="276" t="s">
+      <c r="B4" s="271"/>
+      <c r="C4" s="272" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="276" t="s">
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="272" t="s">
         <v>383</v>
       </c>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="275"/>
-      <c r="L4" s="276" t="s">
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="271"/>
+      <c r="L4" s="272" t="s">
         <v>384</v>
       </c>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="278"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="274"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="279"/>
-      <c r="C5" s="280" t="s">
+      <c r="B5" s="275"/>
+      <c r="C5" s="276" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="280" t="s">
+      <c r="D5" s="276" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="280" t="s">
+      <c r="E5" s="276" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="280" t="s">
+      <c r="F5" s="277"/>
+      <c r="G5" s="276" t="s">
         <v>387</v>
       </c>
-      <c r="H5" s="280" t="s">
+      <c r="H5" s="276" t="s">
         <v>379</v>
       </c>
-      <c r="I5" s="280" t="s">
+      <c r="I5" s="276" t="s">
         <v>341</v>
       </c>
-      <c r="J5" s="280" t="s">
+      <c r="J5" s="276" t="s">
         <v>388</v>
       </c>
-      <c r="K5" s="282"/>
-      <c r="L5" s="280" t="s">
+      <c r="K5" s="278"/>
+      <c r="L5" s="276" t="s">
         <v>389</v>
       </c>
-      <c r="M5" s="280" t="s">
+      <c r="M5" s="276" t="s">
         <v>339</v>
       </c>
-      <c r="N5" s="280" t="s">
+      <c r="N5" s="276" t="s">
         <v>390</v>
       </c>
-      <c r="O5" s="280" t="s">
+      <c r="O5" s="276" t="s">
         <v>391</v>
       </c>
-      <c r="P5" s="283"/>
+      <c r="P5" s="279"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="275" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="284" t="s">
+      <c r="C6" s="280" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="284" t="s">
+      <c r="D6" s="280" t="s">
         <v>394</v>
       </c>
-      <c r="E6" s="284" t="s">
+      <c r="E6" s="280" t="s">
         <v>394</v>
       </c>
-      <c r="F6" s="281"/>
-      <c r="G6" s="284" t="s">
+      <c r="F6" s="277"/>
+      <c r="G6" s="280" t="s">
         <v>394</v>
       </c>
-      <c r="H6" s="284" t="s">
+      <c r="H6" s="280" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="284" t="s">
+      <c r="I6" s="280" t="s">
         <v>394</v>
       </c>
-      <c r="J6" s="284" t="s">
+      <c r="J6" s="280" t="s">
         <v>394</v>
       </c>
-      <c r="K6" s="282"/>
-      <c r="L6" s="284" t="s">
+      <c r="K6" s="278"/>
+      <c r="L6" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="282" t="s">
+      <c r="M6" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="282" t="s">
+      <c r="N6" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="282" t="s">
+      <c r="O6" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="285"/>
+      <c r="P6" s="281"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="267" t="e" vm="3">
+      <c r="B7" s="263" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="288" cm="1">
+      <c r="C7" s="284" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_FV(B7,"Price")</f>
-        <v>246.28</v>
-      </c>
-      <c r="D7" s="289" cm="1">
+        <v>242.77</v>
+      </c>
+      <c r="D7" s="285" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(B7,"Market cap",TRUE)/1000000</f>
-        <v>234458.56</v>
-      </c>
-      <c r="E7" s="269">
+        <v>231117.04</v>
+      </c>
+      <c r="E7" s="265">
         <v>230320</v>
       </c>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269">
+      <c r="F7" s="265"/>
+      <c r="G7" s="265">
         <v>34857</v>
       </c>
-      <c r="H7" s="269">
+      <c r="H7" s="265">
         <v>9958</v>
       </c>
-      <c r="I7" s="269">
+      <c r="I7" s="265">
         <v>5999</v>
       </c>
-      <c r="J7" s="269">
+      <c r="J7" s="265">
         <v>4136</v>
       </c>
-      <c r="K7" s="267"/>
-      <c r="L7" s="270">
+      <c r="K7" s="263"/>
+      <c r="L7" s="266">
         <f>E7/G7</f>
         <v>6.6075680638035399</v>
       </c>
-      <c r="M7" s="270">
+      <c r="M7" s="266">
         <f>E7/H7</f>
         <v>23.129142398071902</v>
       </c>
-      <c r="N7" s="270">
+      <c r="N7" s="266">
         <f>E7/I7</f>
         <v>38.39306551091849</v>
       </c>
-      <c r="O7" s="270">
+      <c r="O7" s="266">
         <f ca="1">D7/J7</f>
-        <v>56.687272727272727</v>
+        <v>55.87936170212766</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="267" t="e" vm="4">
+      <c r="B8" s="263" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="288" cm="1">
+      <c r="C8" s="284" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_FV(B8,"Price")</f>
-        <v>94.68</v>
-      </c>
-      <c r="D8" s="289" cm="1">
+        <v>95.89</v>
+      </c>
+      <c r="D8" s="285" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">_FV(B8,"Market cap",TRUE)/1000000</f>
-        <v>197447.47091999999</v>
-      </c>
-      <c r="E8" s="269">
+        <v>197447.4</v>
+      </c>
+      <c r="E8" s="265">
         <v>202420</v>
       </c>
-      <c r="F8" s="269"/>
-      <c r="G8" s="269">
+      <c r="F8" s="265"/>
+      <c r="G8" s="265">
         <v>43978</v>
       </c>
-      <c r="H8" s="269">
+      <c r="H8" s="265">
         <v>5385</v>
       </c>
-      <c r="I8" s="269">
+      <c r="I8" s="265">
         <v>4648</v>
       </c>
-      <c r="J8" s="269">
+      <c r="J8" s="265">
         <v>9856</v>
       </c>
-      <c r="K8" s="267"/>
-      <c r="L8" s="270">
-        <f t="shared" ref="L8:L13" si="0">E8/G8</f>
+      <c r="K8" s="263"/>
+      <c r="L8" s="266">
+        <f t="shared" ref="L8:L11" si="0">E8/G8</f>
         <v>4.6027559234162538</v>
       </c>
-      <c r="M8" s="270">
+      <c r="M8" s="266">
         <f t="shared" ref="M8:M11" si="1">E8/H8</f>
         <v>37.589600742804087</v>
       </c>
-      <c r="N8" s="270">
+      <c r="N8" s="266">
         <f t="shared" ref="N8:N11" si="2">E8/I8</f>
         <v>43.549913941480206</v>
       </c>
-      <c r="O8" s="270">
+      <c r="O8" s="266">
         <f t="shared" ref="O8:O11" ca="1" si="3">D8/J8</f>
-        <v>20.033225539772726</v>
+        <v>20.033218344155845</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="267" t="e" vm="5">
+      <c r="B9" s="263" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="288" cm="1">
+      <c r="C9" s="284" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Price")</f>
-        <v>938.28</v>
-      </c>
-      <c r="D9" s="289" cm="1">
+        <v>929.15</v>
+      </c>
+      <c r="D9" s="285" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Market cap",TRUE)/1000000</f>
-        <v>195162.23999999999</v>
-      </c>
-      <c r="E9" s="269">
+        <v>193263.2</v>
+      </c>
+      <c r="E9" s="265">
         <v>190990</v>
       </c>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269">
+      <c r="F9" s="265"/>
+      <c r="G9" s="265">
         <v>10984</v>
       </c>
-      <c r="H9" s="269">
+      <c r="H9" s="265">
         <v>2325</v>
       </c>
-      <c r="I9" s="269">
+      <c r="I9" s="265">
         <v>1761</v>
       </c>
-      <c r="J9" s="269">
+      <c r="J9" s="265">
         <v>1425</v>
       </c>
-      <c r="K9" s="267"/>
-      <c r="L9" s="270">
+      <c r="K9" s="263"/>
+      <c r="L9" s="266">
         <f t="shared" si="0"/>
         <v>17.388018936635106</v>
       </c>
-      <c r="M9" s="270">
+      <c r="M9" s="266">
         <f t="shared" si="1"/>
         <v>82.14623655913978</v>
       </c>
-      <c r="N9" s="270">
+      <c r="N9" s="266">
         <f t="shared" si="2"/>
         <v>108.45542305508233</v>
       </c>
-      <c r="O9" s="270">
+      <c r="O9" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>136.95595789473683</v>
+        <v>135.62329824561405</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="267" t="e" vm="6">
+      <c r="B10" s="263" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="288" cm="1">
+      <c r="C10" s="284" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">_FV(B10,"Price")</f>
-        <v>660.52</v>
-      </c>
-      <c r="D10" s="289" cm="1">
+        <v>646.03</v>
+      </c>
+      <c r="D10" s="285" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Market cap",TRUE)/1000000</f>
-        <v>184156.27859999999</v>
-      </c>
-      <c r="E10" s="269">
+        <v>180116.39415000001</v>
+      </c>
+      <c r="E10" s="265">
         <v>186240</v>
       </c>
-      <c r="F10" s="269"/>
-      <c r="G10" s="269">
+      <c r="F10" s="265"/>
+      <c r="G10" s="265">
         <v>16285</v>
       </c>
-      <c r="H10" s="269">
+      <c r="H10" s="265">
         <v>4581</v>
       </c>
-      <c r="I10" s="269">
+      <c r="I10" s="265">
         <v>3792</v>
       </c>
-      <c r="J10" s="269">
+      <c r="J10" s="265">
         <v>2963</v>
       </c>
-      <c r="K10" s="267"/>
-      <c r="L10" s="270">
+      <c r="K10" s="263"/>
+      <c r="L10" s="266">
         <f t="shared" si="0"/>
         <v>11.436291065397604</v>
       </c>
-      <c r="M10" s="270">
+      <c r="M10" s="266">
         <f t="shared" si="1"/>
         <v>40.654878847413229</v>
       </c>
-      <c r="N10" s="270">
+      <c r="N10" s="266">
         <f t="shared" si="2"/>
         <v>49.11392405063291</v>
       </c>
-      <c r="O10" s="270">
+      <c r="O10" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>62.151967127910901</v>
+        <v>60.788523169085387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="267" t="e" vm="7">
+      <c r="B11" s="263" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="288" cm="1">
+      <c r="C11" s="284" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_FV(B11,"Price")</f>
-        <v>350.55</v>
-      </c>
-      <c r="D11" s="289" cm="1">
+        <v>349.36</v>
+      </c>
+      <c r="D11" s="285" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Market cap",TRUE)/1000000</f>
-        <v>148703.31</v>
-      </c>
-      <c r="E11" s="269">
+        <v>148198.51199999999</v>
+      </c>
+      <c r="E11" s="265">
         <v>149550</v>
       </c>
-      <c r="F11" s="269"/>
-      <c r="G11" s="269">
+      <c r="F11" s="265"/>
+      <c r="G11" s="265">
         <v>21505</v>
       </c>
-      <c r="H11" s="269">
+      <c r="H11" s="265">
         <v>7957</v>
       </c>
-      <c r="I11" s="269">
+      <c r="I11" s="265">
         <v>7100</v>
       </c>
-      <c r="J11" s="269">
+      <c r="J11" s="265">
         <v>5560</v>
       </c>
-      <c r="K11" s="267"/>
-      <c r="L11" s="270">
+      <c r="K11" s="263"/>
+      <c r="L11" s="266">
         <f t="shared" si="0"/>
         <v>6.9541966984422228</v>
       </c>
-      <c r="M11" s="270">
+      <c r="M11" s="266">
         <f t="shared" si="1"/>
         <v>18.794771898956892</v>
       </c>
-      <c r="N11" s="270">
+      <c r="N11" s="266">
         <f t="shared" si="2"/>
         <v>21.06338028169014</v>
       </c>
-      <c r="O11" s="270">
+      <c r="O11" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>26.745199640287769</v>
+        <v>26.654408633093524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="267"/>
-      <c r="C12" s="268"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="269"/>
-      <c r="F12" s="269"/>
-      <c r="G12" s="269"/>
-      <c r="H12" s="269"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="267"/>
-      <c r="L12" s="270"/>
-      <c r="M12" s="270"/>
-      <c r="N12" s="270"/>
-      <c r="O12" s="270"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
+      <c r="G12" s="265"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="265"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="267" t="e" vm="2">
+      <c r="B13" s="263" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="C13" s="287" cm="1">
+      <c r="C13" s="283" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">_FV(B13,"Price")</f>
-        <v>18.32</v>
-      </c>
-      <c r="D13" s="289" cm="1">
+        <v>18.62</v>
+      </c>
+      <c r="D13" s="285" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Market cap",TRUE)/1000000</f>
-        <v>7446.00828</v>
-      </c>
-      <c r="E13" s="290">
+        <v>7567.9407300000003</v>
+      </c>
+      <c r="E13" s="286">
         <v>6420</v>
       </c>
-      <c r="F13" s="291"/>
-      <c r="G13" s="292">
+      <c r="F13" s="287"/>
+      <c r="G13" s="288">
         <f>'3_Statement_Model'!G6/1000000</f>
         <v>5.786016</v>
       </c>
-      <c r="H13" s="292">
+      <c r="H13" s="288">
         <f>Schedules!C127/1000000</f>
         <v>0.256187</v>
       </c>
-      <c r="I13" s="292">
+      <c r="I13" s="288">
         <f>'3_Statement_Model'!G14/1000000</f>
         <v>-0.118912</v>
       </c>
-      <c r="J13" s="292">
+      <c r="J13" s="288">
         <f>'3_Statement_Model'!G19/1000000</f>
         <v>2.2783999999999999E-2</v>
       </c>
-      <c r="K13" s="267"/>
-      <c r="L13" s="270">
+      <c r="K13" s="263"/>
+      <c r="L13" s="266">
         <v>0.85</v>
       </c>
-      <c r="M13" s="270">
+      <c r="M13" s="266">
         <v>38.880000000000003</v>
       </c>
-      <c r="N13" s="270">
+      <c r="N13" s="266">
         <v>118.29</v>
       </c>
-      <c r="O13" s="270">
+      <c r="O13" s="266">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="279" t="s">
+      <c r="B14" s="275" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="279"/>
-      <c r="D14" s="279"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="279"/>
-      <c r="I14" s="279"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="279"/>
-      <c r="L14" s="286">
+      <c r="C14" s="275"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="275"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="275"/>
+      <c r="H14" s="275"/>
+      <c r="I14" s="275"/>
+      <c r="J14" s="275"/>
+      <c r="K14" s="275"/>
+      <c r="L14" s="282">
         <f>AVERAGE(L7:L11)</f>
         <v>9.3977661375389463</v>
       </c>
-      <c r="M14" s="286">
+      <c r="M14" s="282">
         <f t="shared" ref="M14:O14" si="4">AVERAGE(M7:M11)</f>
         <v>40.462926089277182</v>
       </c>
-      <c r="N14" s="286">
+      <c r="N14" s="282">
         <f t="shared" si="4"/>
         <v>52.115141367960817</v>
       </c>
-      <c r="O14" s="286">
+      <c r="O14" s="282">
         <f t="shared" ca="1" si="4"/>
-        <v>60.514724585996191</v>
+        <v>59.795762018815296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="279" t="s">
+      <c r="B15" s="275" t="s">
         <v>395</v>
       </c>
-      <c r="C15" s="279"/>
-      <c r="D15" s="279"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="279"/>
-      <c r="L15" s="286">
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="275"/>
+      <c r="I15" s="275"/>
+      <c r="J15" s="275"/>
+      <c r="K15" s="275"/>
+      <c r="L15" s="282">
         <f>MEDIAN(L7:L11)</f>
         <v>6.9541966984422228</v>
       </c>
-      <c r="M15" s="286">
+      <c r="M15" s="282">
         <f t="shared" ref="M15:O15" si="5">MEDIAN(M7:M11)</f>
         <v>37.589600742804087</v>
       </c>
-      <c r="N15" s="286">
+      <c r="N15" s="282">
         <f t="shared" si="5"/>
         <v>43.549913941480206</v>
       </c>
-      <c r="O15" s="286">
+      <c r="O15" s="282">
         <f t="shared" ca="1" si="5"/>
-        <v>56.687272727272727</v>
+        <v>55.87936170212766</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="289"/>
+      <c r="D16" s="285"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="271"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="268"/>
+      <c r="D19" s="268"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="272"/>
-      <c r="C21" s="272"/>
-      <c r="D21" s="272"/>
+      <c r="B21" s="268"/>
+      <c r="C21" s="268"/>
+      <c r="D21" s="268"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="272"/>
-      <c r="C22" s="272"/>
-      <c r="D22" s="272"/>
+      <c r="B22" s="268"/>
+      <c r="C22" s="268"/>
+      <c r="D22" s="268"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="272"/>
-      <c r="C23" s="272"/>
-      <c r="D23" s="272"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="268"/>
+      <c r="D23" s="268"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="272"/>
-      <c r="C24" s="272"/>
-      <c r="D24" s="272"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="268"/>
+      <c r="D24" s="268"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="272"/>
-      <c r="C25" s="272"/>
-      <c r="D25" s="272"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="268"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="272"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="269"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="274"/>
+      <c r="B27" s="270"/>
       <c r="C27" s="197"/>
       <c r="D27" s="197"/>
     </row>

--- a/Lyft/LYFT_FM.xlsx
+++ b/Lyft/LYFT_FM.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\Projects\IB Projects\Equity_Research\Lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601708CB-6381-4249-AA3A-21368D2F8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA6E0B5-6CE7-4867-9804-ABDC3536AC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="APIC" sheetId="7" r:id="rId1"/>
-    <sheet name="Mark_Secs" sheetId="8" r:id="rId2"/>
+    <sheet name="APIC" sheetId="7" state="hidden" r:id="rId1"/>
+    <sheet name="Mark_Secs" sheetId="8" state="hidden" r:id="rId2"/>
     <sheet name="Schedules" sheetId="5" r:id="rId3"/>
     <sheet name="Debt_Schedule" sheetId="6" r:id="rId4"/>
-    <sheet name="3_Statement_Model" sheetId="1" r:id="rId5"/>
-    <sheet name="DCF" sheetId="10" r:id="rId6"/>
-    <sheet name="Comps_Analysis" sheetId="11" r:id="rId7"/>
-    <sheet name="Assumptions" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
-    <sheet name="Revenue_Regression" sheetId="2" r:id="rId10"/>
+    <sheet name="Metrics" sheetId="12" r:id="rId5"/>
+    <sheet name="3_Statement_Model" sheetId="1" r:id="rId6"/>
+    <sheet name="DCF" sheetId="10" r:id="rId7"/>
+    <sheet name="Comps_Analysis" sheetId="11" r:id="rId8"/>
+    <sheet name="Assumptions" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="Revenue_Regression" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">DCF!$L$37:$L$39</definedName>
@@ -244,6 +245,41 @@
     <author>Nkgopoleng Sebake</author>
   </authors>
   <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{9FAC895D-F592-4EFD-9971-C9DB3006FD51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nkgopoleng Sebake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+average equity
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nkgopoleng Sebake</author>
+  </authors>
+  <commentList>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{D1C0E21B-7335-4387-9513-D48902E87B54}">
       <text>
         <r>
@@ -447,7 +483,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nkgopoleng Sebake</author>
@@ -747,7 +783,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nkgopoleng Sebake</author>
@@ -951,7 +987,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="418">
   <si>
     <t>Income Statement</t>
   </si>
@@ -2143,6 +2179,69 @@
   </si>
   <si>
     <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Financial (Thousands)</t>
+  </si>
+  <si>
+    <t>2024A</t>
+  </si>
+  <si>
+    <t>2025E</t>
+  </si>
+  <si>
+    <t>2026E</t>
+  </si>
+  <si>
+    <t>2027E</t>
+  </si>
+  <si>
+    <t>2028E</t>
+  </si>
+  <si>
+    <t>2029E</t>
+  </si>
+  <si>
+    <t>2030E</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Adjusted EBITDA</t>
+  </si>
+  <si>
+    <t>Free Cash Flow</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>Debt/Equity</t>
+  </si>
+  <si>
+    <t>Debt/EBITDA</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>Other (income) expense, net</t>
+  </si>
+  <si>
+    <t>Payroll tax expense related to SBC</t>
+  </si>
+  <si>
+    <t>Gain from lease termination</t>
+  </si>
+  <si>
+    <t>Restructuring charges</t>
+  </si>
+  <si>
+    <t>Non-cash add backs</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2269,7 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="#,##0.00;\(#,##0.00\);&quot;-&quot;"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2546,8 +2645,15 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2653,6 +2759,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F75B5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2994,7 +3106,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3429,6 +3541,28 @@
     </xf>
     <xf numFmtId="181" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5292,23 +5426,23 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>5.1400000000000001E-2</v>
-    <v>1.2815E-2</v>
+    <v>8.0999999999999996E-3</v>
+    <v>1.9950000000000002E-3</v>
     <v>US</v>
     <v>USD</v>
     <v>Bond</v>
-    <v>45912.833321759259</v>
+    <v>45912.878472222219</v>
     <v>0</v>
     <v>49536</v>
     <v>US Treasury 10Y</v>
-    <v>4.0110000000000001</v>
-    <v>4.0624000000000002</v>
+    <v>4.0599999999999996</v>
+    <v>4.0681000000000003</v>
     <v>US10Y</v>
     <v>US Treasury 10Y</v>
-    <v>4.2965000000000003E-2</v>
+    <v>4.2365000000000007E-2</v>
     <v>4.086E-2</v>
-    <v>3.6514999999999999E-2</v>
-    <v>4.0320000000000002E-2</v>
+    <v>3.6569999999999998E-2</v>
+    <v>4.011E-2</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -5331,7 +5465,7 @@
     <v>8</v>
     <v>19.350000000000001</v>
     <v>9.66</v>
-    <v>2.3578999999999999</v>
+    <v>2.3586</v>
     <v>0.3</v>
     <v>0</v>
     <v>1.6375999999999998E-2</v>
@@ -5346,21 +5480,21 @@
     <v>18.829999999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.834591157029</v>
+    <v>45912.999653205472</v>
     <v>3</v>
     <v>18.3</v>
     <v>7567940730</v>
     <v>LYFT, INC.</v>
     <v>LYFT, INC.</v>
-    <v>18.36</v>
-    <v>87.254000000000005</v>
+    <v>18.375</v>
+    <v>85.852199999999996</v>
     <v>18.32</v>
     <v>18.62</v>
     <v>18.62</v>
     <v>406441500</v>
     <v>LYFT</v>
     <v>LYFT, INC. (XNAS:LYFT)</v>
-    <v>18061661</v>
+    <v>29849275</v>
     <v>21608659</v>
     <v>2007</v>
   </rv>
@@ -5385,11 +5519,11 @@
     <v>8</v>
     <v>369</v>
     <v>226.48</v>
-    <v>1.2118</v>
-    <v>-3.51</v>
-    <v>-1.771E-3</v>
-    <v>-1.4252000000000001E-2</v>
-    <v>-0.43</v>
+    <v>1.2113</v>
+    <v>-3.52</v>
+    <v>9.8860000000000007E-4</v>
+    <v>-1.4293E-2</v>
+    <v>0.24</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company helps organizations of any size reimagine their business for the world of artificial intelligence (AI). With Agentforce, its platform, organizations can bring humans together with AI agents to drive customer success on one deeply unified platform. With the Salesforce platform, it delivers a single source of truth, connecting customer data with integrated AI across systems, apps and devices to help companies sell, service, market and conduct commerce from anywhere. Agentforce is a new layer of the Salesforce platform that enables companies to build and deploy AI agents that can respond to inputs, make decisions and take action autonomously across business functions. Agentforce includes a suite of customizable agents for use across sales, service, marketing and commerce. Datablazer is a data-driven innovator, which leverages the Company’s platform to unlock insights and drive decisions.</v>
     <v>76453</v>
@@ -5400,21 +5534,21 @@
     <v>247.58879999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.835349733592</v>
+    <v>45912.999707303126</v>
     <v>6</v>
     <v>241.25</v>
-    <v>231117040000</v>
+    <v>231107520000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>246.42</v>
-    <v>35.226900000000001</v>
+    <v>246.095</v>
+    <v>35.225499999999997</v>
     <v>246.28</v>
-    <v>242.77</v>
-    <v>242.34</v>
+    <v>242.76</v>
+    <v>243</v>
     <v>952000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>8310287</v>
+    <v>8386354</v>
     <v>10404849</v>
     <v>1999</v>
   </rv>
@@ -5439,11 +5573,11 @@
     <v>8</v>
     <v>97.715000000000003</v>
     <v>59.33</v>
-    <v>1.48</v>
+    <v>1.4809000000000001</v>
     <v>1.21</v>
-    <v>0</v>
+    <v>-2.3990000000000001E-3</v>
     <v>1.278E-2</v>
-    <v>0</v>
+    <v>-0.23</v>
     <v>USD</v>
     <v>Uber Technologies, Inc. operates a technology platform that uses network and technology to power movement from point A to point B. It develops and operates technology applications supporting a variety of offerings on its platform (platform(s)). Its segments include Mobility, Delivery and Freight. Mobility products connect consumers with drivers who provide rides in a variety of vehicles, such as cars, auto rickshaws, motorbikes, minibuses, or taxis. Delivery offerings allow consumers to search for and discover local restaurants, order a meal, and either pick-up at the restaurant or have the meal delivered. In certain markets, the Delivery segment provides offerings for grocery, alcohol, and convenience store delivery as well as select other goods. The Freight segment connects carriers with shippers on its platform, and gives carriers upfront, pricing and the ability to book a shipment. The Freight segment also includes transportation management and other logistics service offerings.</v>
     <v>31100</v>
@@ -5454,21 +5588,21 @@
     <v>96.27</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.835376029689</v>
+    <v>45912.999991307814</v>
     <v>9</v>
     <v>93.71</v>
-    <v>197447400000</v>
+    <v>199970800000</v>
     <v>UBER TECHNOLOGIES, INC.</v>
     <v>UBER TECHNOLOGIES, INC.</v>
-    <v>94.62</v>
-    <v>16.2547</v>
+    <v>94.49</v>
+    <v>16.049700000000001</v>
     <v>94.68</v>
     <v>95.89</v>
-    <v>95.89</v>
+    <v>95.66</v>
     <v>2085419000</v>
     <v>UBER</v>
     <v>UBER TECHNOLOGIES, INC. (XNYS:UBER)</v>
-    <v>13612818</v>
+    <v>13659231</v>
     <v>16297277</v>
     <v>2010</v>
   </rv>
@@ -5493,11 +5627,11 @@
     <v>8</v>
     <v>1198.0899999999999</v>
     <v>678.65880000000004</v>
-    <v>0.92900000000000005</v>
-    <v>-9.1300000000000008</v>
-    <v>-2.0449999999999998E-4</v>
-    <v>-9.7310000000000001E-3</v>
-    <v>-0.19</v>
+    <v>0.92849999999999999</v>
+    <v>-9.32</v>
+    <v>5.3819999999999996E-4</v>
+    <v>-9.9329999999999991E-3</v>
+    <v>0.5</v>
     <v>USD</v>
     <v>ServiceNow, Inc. provides an artificial intelligence (AI) platform for business transformation. The Company’s AI platform connects people, processes, data, and devices to increase productivity and maximize business outcomes. Its intelligent platform, the Now Platform, is a cloud-based solution that helps enterprises and organizations across public and private sectors digitize workflows. The workflow applications built on the Now Platform are organized in four primary areas: technology, customer and industry, employee and creator. Its technology workflows empower information technology (IT) departments to plan, build, operate and service the IT needs of the business enterprise. Its customer and industry workflows help organizations reimagine their customer experience. Its employee workflows help customers simplify how their employees access services they need. Its creator workflows enable customers to automate processes by creating their own custom workflows on the Now Platform.</v>
     <v>26293</v>
@@ -5505,24 +5639,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Lane, SANTA CLARA, CA, 95054 US</v>
-    <v>941.9</v>
+    <v>941.85</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.835377812502</v>
+    <v>45912.994574142969</v>
     <v>12</v>
     <v>926.93</v>
-    <v>193263200000</v>
+    <v>193223680000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>941.9</v>
-    <v>117.0347</v>
+    <v>941.73</v>
+    <v>117.0107</v>
     <v>938.28</v>
-    <v>929.15</v>
     <v>928.96</v>
+    <v>929.46</v>
     <v>208000000</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>667857</v>
+    <v>711217</v>
     <v>1831586</v>
     <v>2012</v>
   </rv>
@@ -5547,11 +5681,11 @@
     <v>8</v>
     <v>813.7</v>
     <v>532.64499999999998</v>
-    <v>1.2554000000000001</v>
+    <v>1.2544</v>
     <v>-14.49</v>
-    <v>3.0959999999999995E-5</v>
+    <v>1.1919999999999999E-3</v>
     <v>-2.1937000000000002E-2</v>
-    <v>0.02</v>
+    <v>0.77</v>
     <v>USD</v>
     <v>Intuit Inc. offers a financial technology platform that helps consumers and small and mid-market businesses prosper by delivering financial management, compliance, and marketing products and services. It also provides specialized tax products to accounting professionals. Its offerings include TurboTax, Credit Karma, QuickBooks, and Mailchimp. Lacerte, ProSeries, and ProConnect Tax Online. Its Global Business Solutions segment serves small and mid-market businesses around the world, and the accounting professionals who assist and advise them. Its Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services sold in the United States and Canada. Its Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations for credit card, home, auto, and personal loan, and insurance products. Its ProTax segment serves professional accountants in the United States and Canada.</v>
     <v>18200</v>
@@ -5562,21 +5696,21 @@
     <v>660.4</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45912.83534240703</v>
+    <v>45912.999684305469</v>
     <v>15</v>
     <v>645.30999999999995</v>
     <v>180116394150</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
-    <v>660.4</v>
-    <v>47.254100000000001</v>
+    <v>658.45500000000004</v>
+    <v>48.314100000000003</v>
     <v>660.52</v>
     <v>646.03</v>
-    <v>646.04999999999995</v>
+    <v>646.79999999999995</v>
     <v>278805000</v>
     <v>INTU</v>
     <v>INTUIT INC. (XNAS:INTU)</v>
-    <v>2171122</v>
+    <v>2202314</v>
     <v>2174286</v>
     <v>1993</v>
   </rv>
@@ -5621,11 +5755,11 @@
     <v>8</v>
     <v>587.75</v>
     <v>330.04</v>
-    <v>1.4964999999999999</v>
+    <v>1.4964</v>
     <v>-1.19</v>
-    <v>-1.7749999999999999E-3</v>
+    <v>-2.4620000000000002E-3</v>
     <v>-3.3950000000000004E-3</v>
-    <v>-0.62</v>
+    <v>-0.86</v>
     <v>USD</v>
     <v>Adobe Inc. is a global technology company. The Company's products, services and solutions are used around the world to imagine, create, manage, deliver, measure, optimize and engage with content across surfaces and fuel digital experiences. Its segments include Digital Media, Digital Experience, and Publishing and Advertising. The Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud, which include Adobe Express, Adobe Firefly, Photoshop and other products, offering a variety of tools for creative professionals, communicators and other consumers. The Digital Experience segment provides an integrated platform and set of products, services and solutions through Adobe Experience Cloud. The Publishing and Advertising segment contains legacy products and services. In addition, its Adobe GenStudio solution allows businesses to simplify their content supply chain process with generative artificial intelligence (AI) capabilities and intelligent automation.</v>
     <v>30709</v>
@@ -5637,21 +5771,21 @@
     <v>21</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.835342395316</v>
+    <v>45912.999994039063</v>
     <v>22</v>
     <v>341.61</v>
-    <v>148198512000</v>
+    <v>148198500000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>362</v>
-    <v>21.772099999999998</v>
+    <v>361.1</v>
+    <v>21.846299999999999</v>
     <v>350.55</v>
     <v>349.36</v>
-    <v>348.74</v>
+    <v>348.5</v>
     <v>424200000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>14061906</v>
+    <v>14146624</v>
     <v>4020878</v>
     <v>1997</v>
   </rv>
@@ -6012,9 +6146,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8352,6 +8486,1626 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFD3C7E-257F-4B49-A708-ACE6390F92F6}">
+  <dimension ref="B2:N67"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65:N65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="177" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="178">
+        <f>SUM(C4:C14)</f>
+        <v>1704718</v>
+      </c>
+      <c r="D3" s="178">
+        <f t="shared" ref="D3:H3" si="0">SUM(D4:D14)</f>
+        <v>710006</v>
+      </c>
+      <c r="E3" s="178">
+        <f t="shared" si="0"/>
+        <v>791644</v>
+      </c>
+      <c r="F3" s="178">
+        <f t="shared" si="0"/>
+        <v>986749</v>
+      </c>
+      <c r="G3" s="178">
+        <f t="shared" si="0"/>
+        <v>520376</v>
+      </c>
+      <c r="H3" s="179">
+        <f t="shared" si="0"/>
+        <v>375099</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6">
+        <v>108429</v>
+      </c>
+      <c r="D4" s="6">
+        <v>157353</v>
+      </c>
+      <c r="E4" s="6">
+        <v>139347</v>
+      </c>
+      <c r="F4" s="6">
+        <v>154798</v>
+      </c>
+      <c r="G4" s="6">
+        <v>116513</v>
+      </c>
+      <c r="H4" s="6">
+        <v>148892</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1599311</v>
+      </c>
+      <c r="D5" s="6">
+        <v>565807</v>
+      </c>
+      <c r="E5" s="6">
+        <v>724560</v>
+      </c>
+      <c r="F5" s="6">
+        <v>750767</v>
+      </c>
+      <c r="G5" s="6">
+        <v>484533</v>
+      </c>
+      <c r="H5" s="6">
+        <v>330921</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6">
+        <v>597</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6461</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4100</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G6" s="6">
+        <v>117</v>
+      </c>
+      <c r="H6" s="6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-39285</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-14075</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-1513</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-23245</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-68125</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-89425</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>21050</v>
+      </c>
+      <c r="E8" s="6">
+        <v>35575</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2823</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2877</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>-46324</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="6">
+        <v>36541</v>
+      </c>
+      <c r="D10" s="6">
+        <v>15216</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5538</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-60655</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-11278</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7831</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-29610</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>135714</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-119284</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-875</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4518</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3321</v>
+      </c>
+      <c r="F14" s="6">
+        <v>23592</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-4261</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="180" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-119453</v>
+      </c>
+      <c r="D17" s="6">
+        <v>39573</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-207046</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-275945</v>
+      </c>
+      <c r="G17" s="6">
+        <v>-86922</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-76359</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6">
+        <v>108600</v>
+      </c>
+      <c r="D18" s="6">
+        <v>61201</v>
+      </c>
+      <c r="E18" s="6">
+        <v>61301</v>
+      </c>
+      <c r="F18" s="6">
+        <v>96317</v>
+      </c>
+      <c r="G18" s="6">
+        <v>20046</v>
+      </c>
+      <c r="H18" s="6">
+        <v>26276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="180" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5067</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44489</v>
+      </c>
+      <c r="E19" s="6">
+        <v>47080</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-27215</v>
+      </c>
+      <c r="G19" s="6">
+        <v>-41079</v>
+      </c>
+      <c r="H19" s="6">
+        <v>21712</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6">
+        <v>568190</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-391398</v>
+      </c>
+      <c r="E20" s="6">
+        <v>81564</v>
+      </c>
+      <c r="F20" s="6">
+        <v>348721</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-79482</v>
+      </c>
+      <c r="H20" s="6">
+        <v>363524</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6">
+        <v>332363</v>
+      </c>
+      <c r="D21" s="6">
+        <v>-36679</v>
+      </c>
+      <c r="E21" s="6">
+        <v>234212</v>
+      </c>
+      <c r="F21" s="6">
+        <v>262358</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-75571</v>
+      </c>
+      <c r="H21" s="6">
+        <v>164057</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-102946</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-53234</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-48332</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-43759</v>
+      </c>
+      <c r="G22" s="6">
+        <v>-15292</v>
+      </c>
+      <c r="H22" s="6">
+        <v>-47356</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>2517091</v>
+      </c>
+      <c r="D29">
+        <v>26067</v>
+      </c>
+      <c r="E29">
+        <v>33822</v>
+      </c>
+      <c r="F29">
+        <v>21655</v>
+      </c>
+      <c r="G29">
+        <v>10993</v>
+      </c>
+      <c r="H29">
+        <v>15051</v>
+      </c>
+      <c r="I29">
+        <v>23288.558514338827</v>
+      </c>
+      <c r="J29">
+        <v>24158.445714776972</v>
+      </c>
+      <c r="K29">
+        <v>25407.528957383165</v>
+      </c>
+      <c r="L29">
+        <v>26694.084697267543</v>
+      </c>
+      <c r="M29">
+        <v>28019.237109348443</v>
+      </c>
+      <c r="N29">
+        <v>29384.14409379178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>682602</v>
+      </c>
+      <c r="E30">
+        <v>-44446</v>
+      </c>
+      <c r="F30">
+        <v>-67639</v>
+      </c>
+      <c r="G30">
+        <v>-72484</v>
+      </c>
+      <c r="H30">
+        <v>14042</v>
+      </c>
+      <c r="I30">
+        <v>-31924.699255937598</v>
+      </c>
+      <c r="J30">
+        <v>-32826.667879806737</v>
+      </c>
+      <c r="K30">
+        <v>-33776.15311329934</v>
+      </c>
+      <c r="L30">
+        <v>-34775.496642869046</v>
+      </c>
+      <c r="M30">
+        <v>-35827.152241143362</v>
+      </c>
+      <c r="N30">
+        <v>-36933.691059249519</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>-942895</v>
+      </c>
+      <c r="D31">
+        <v>-196103</v>
+      </c>
+      <c r="E31">
+        <v>-61846</v>
+      </c>
+      <c r="F31">
+        <v>-41516</v>
+      </c>
+      <c r="G31">
+        <v>-60587</v>
+      </c>
+      <c r="H31">
+        <v>-134962</v>
+      </c>
+      <c r="I31">
+        <v>-156293.91741963645</v>
+      </c>
+      <c r="J31">
+        <v>-164034.01524452865</v>
+      </c>
+      <c r="K31">
+        <v>-173221.74169281006</v>
+      </c>
+      <c r="L31">
+        <v>-182844.76845702308</v>
+      </c>
+      <c r="M31">
+        <v>-192925.64716456199</v>
+      </c>
+      <c r="N31">
+        <v>-203488.17034705577</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>-50000</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="20">
+        <v>2019</v>
+      </c>
+      <c r="D36" s="20">
+        <f>C36+1</f>
+        <v>2020</v>
+      </c>
+      <c r="E36" s="20">
+        <f t="shared" ref="E36:N36" si="1">D36+1</f>
+        <v>2021</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="J36" s="27">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="M36" s="27">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="N36" s="27">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="88">
+        <f>C53/C46</f>
+        <v>3.7363729968127271E-2</v>
+      </c>
+      <c r="D38" s="88">
+        <f t="shared" ref="D38:H38" si="2">D53/D46</f>
+        <v>1.9856775330980798E-2</v>
+      </c>
+      <c r="E38" s="88">
+        <f t="shared" si="2"/>
+        <v>2.3198381969985613E-2</v>
+      </c>
+      <c r="F38" s="88">
+        <f t="shared" si="2"/>
+        <v>1.811854815135959E-2</v>
+      </c>
+      <c r="G38" s="88">
+        <f t="shared" si="2"/>
+        <v>1.1859491170044742E-2</v>
+      </c>
+      <c r="H38" s="88">
+        <f t="shared" si="2"/>
+        <v>7.4586977793783408E-3</v>
+      </c>
+      <c r="I38" s="63">
+        <f>AVERAGE(C38:H38)</f>
+        <v>1.9642604061646061E-2</v>
+      </c>
+      <c r="J38" s="63">
+        <f t="shared" ref="J38:N42" si="3">AVERAGE(D38:I38)</f>
+        <v>1.6689083077232523E-2</v>
+      </c>
+      <c r="K38" s="63">
+        <f t="shared" si="3"/>
+        <v>1.6161134368274477E-2</v>
+      </c>
+      <c r="L38" s="63">
+        <f t="shared" si="3"/>
+        <v>1.4988259767989287E-2</v>
+      </c>
+      <c r="M38" s="63">
+        <f t="shared" si="3"/>
+        <v>1.4466545037427571E-2</v>
+      </c>
+      <c r="N38" s="63">
+        <f t="shared" si="3"/>
+        <v>1.4901054015324711E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="88">
+        <f t="shared" ref="C39:H41" si="4">C54/C47</f>
+        <v>0.11823629652453325</v>
+      </c>
+      <c r="D39" s="88">
+        <f t="shared" si="4"/>
+        <v>3.4868480470875381E-2</v>
+      </c>
+      <c r="E39" s="88">
+        <f t="shared" si="4"/>
+        <v>5.9873257539784154E-2</v>
+      </c>
+      <c r="F39" s="88">
+        <f t="shared" si="4"/>
+        <v>5.7321683647030726E-2</v>
+      </c>
+      <c r="G39" s="88">
+        <f t="shared" si="4"/>
+        <v>3.6204559976968392E-2</v>
+      </c>
+      <c r="H39" s="88">
+        <f t="shared" si="4"/>
+        <v>1.8919789735050842E-2</v>
+      </c>
+      <c r="I39" s="63">
+        <f t="shared" ref="I39:I42" si="5">AVERAGE(C39:H39)</f>
+        <v>5.4237344649040453E-2</v>
+      </c>
+      <c r="J39" s="63">
+        <f t="shared" si="3"/>
+        <v>4.357085266979166E-2</v>
+      </c>
+      <c r="K39" s="63">
+        <f t="shared" si="3"/>
+        <v>4.5021248036277696E-2</v>
+      </c>
+      <c r="L39" s="63">
+        <f t="shared" si="3"/>
+        <v>4.2545913119026633E-2</v>
+      </c>
+      <c r="M39" s="63">
+        <f t="shared" si="3"/>
+        <v>4.0083284697692616E-2</v>
+      </c>
+      <c r="N39" s="63">
+        <f t="shared" si="3"/>
+        <v>4.0729738817813319E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="88">
+        <f t="shared" si="4"/>
+        <v>0.64553346085385621</v>
+      </c>
+      <c r="D40" s="88">
+        <f t="shared" si="4"/>
+        <v>0.35817257453862283</v>
+      </c>
+      <c r="E40" s="88">
+        <f t="shared" si="4"/>
+        <v>0.45432953266969756</v>
+      </c>
+      <c r="F40" s="88">
+        <f t="shared" si="4"/>
+        <v>0.45750877999759565</v>
+      </c>
+      <c r="G40" s="88">
+        <f t="shared" si="4"/>
+        <v>0.38523805754826268</v>
+      </c>
+      <c r="H40" s="88">
+        <f t="shared" si="4"/>
+        <v>0.29675399737579738</v>
+      </c>
+      <c r="I40" s="63">
+        <f t="shared" si="5"/>
+        <v>0.43292273383063873</v>
+      </c>
+      <c r="J40" s="63">
+        <f t="shared" si="3"/>
+        <v>0.39748761266010241</v>
+      </c>
+      <c r="K40" s="63">
+        <f t="shared" si="3"/>
+        <v>0.40404011901368242</v>
+      </c>
+      <c r="L40" s="63">
+        <f t="shared" si="3"/>
+        <v>0.39565855007101325</v>
+      </c>
+      <c r="M40" s="63">
+        <f t="shared" si="3"/>
+        <v>0.38535017841658287</v>
+      </c>
+      <c r="N40" s="63">
+        <f t="shared" si="3"/>
+        <v>0.38536886522796948</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="88">
+        <f t="shared" si="4"/>
+        <v>8.849533607985044E-2</v>
+      </c>
+      <c r="D41" s="88">
+        <f t="shared" si="4"/>
+        <v>5.6169249947757911E-2</v>
+      </c>
+      <c r="E41" s="88">
+        <f t="shared" si="4"/>
+        <v>9.2956835826409914E-2</v>
+      </c>
+      <c r="F41" s="88">
+        <f t="shared" si="4"/>
+        <v>9.3821023796264238E-2</v>
+      </c>
+      <c r="G41" s="88">
+        <f t="shared" si="4"/>
+        <v>6.1708426541151426E-2</v>
+      </c>
+      <c r="H41" s="88">
+        <f t="shared" si="4"/>
+        <v>2.1909522771403803E-2</v>
+      </c>
+      <c r="I41" s="63">
+        <f t="shared" si="5"/>
+        <v>6.9176732493806278E-2</v>
+      </c>
+      <c r="J41" s="63">
+        <f t="shared" si="3"/>
+        <v>6.5956965229465606E-2</v>
+      </c>
+      <c r="K41" s="63">
+        <f t="shared" si="3"/>
+        <v>6.7588251109750211E-2</v>
+      </c>
+      <c r="L41" s="63">
+        <f t="shared" si="3"/>
+        <v>6.3360153656973589E-2</v>
+      </c>
+      <c r="M41" s="63">
+        <f t="shared" si="3"/>
+        <v>5.8283341967091819E-2</v>
+      </c>
+      <c r="N41" s="63">
+        <f t="shared" si="3"/>
+        <v>5.7712494538081881E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="88">
+        <f>C57/C50</f>
+        <v>0.33622237042120645</v>
+      </c>
+      <c r="D42" s="88">
+        <f t="shared" ref="D42:H42" si="6">D57/D50</f>
+        <v>0.18203264466609662</v>
+      </c>
+      <c r="E42" s="88">
+        <f t="shared" si="6"/>
+        <v>0.22762161465557348</v>
+      </c>
+      <c r="F42" s="88">
+        <f t="shared" si="6"/>
+        <v>0.18608826136310624</v>
+      </c>
+      <c r="G42" s="88">
+        <f t="shared" si="6"/>
+        <v>0.22392087982734077</v>
+      </c>
+      <c r="H42" s="88">
+        <f t="shared" si="6"/>
+        <v>0.17337210939800374</v>
+      </c>
+      <c r="I42" s="63">
+        <f t="shared" si="5"/>
+        <v>0.22154298005522119</v>
+      </c>
+      <c r="J42" s="63">
+        <f t="shared" si="3"/>
+        <v>0.202429748327557</v>
+      </c>
+      <c r="K42" s="63">
+        <f t="shared" si="3"/>
+        <v>0.20582926560446704</v>
+      </c>
+      <c r="L42" s="63">
+        <f t="shared" si="3"/>
+        <v>0.20219720742928271</v>
+      </c>
+      <c r="M42" s="63">
+        <f t="shared" si="3"/>
+        <v>0.20488203177364542</v>
+      </c>
+      <c r="N42" s="63">
+        <f t="shared" si="3"/>
+        <v>0.20170889043136286</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I43" s="63"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2176469</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1447516</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1702317</v>
+      </c>
+      <c r="F46" s="6">
+        <v>2435736</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2543954</v>
+      </c>
+      <c r="H46" s="6">
+        <v>3337714</v>
+      </c>
+      <c r="I46" s="34">
+        <v>3509504.280725617</v>
+      </c>
+      <c r="J46" s="34">
+        <v>3640593.2380694742</v>
+      </c>
+      <c r="K46" s="34">
+        <v>3828825.7121493989</v>
+      </c>
+      <c r="L46" s="34">
+        <v>4022705.1604517195</v>
+      </c>
+      <c r="M46" s="34">
+        <v>4222400.9922031099</v>
+      </c>
+      <c r="N46" s="34">
+        <v>4428087.6989070419</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6">
+        <v>636116</v>
+      </c>
+      <c r="D47" s="6">
+        <v>453963</v>
+      </c>
+      <c r="E47" s="6">
+        <v>402233</v>
+      </c>
+      <c r="F47" s="6">
+        <v>443846</v>
+      </c>
+      <c r="G47" s="6">
+        <v>427239</v>
+      </c>
+      <c r="H47" s="6">
+        <v>443821</v>
+      </c>
+      <c r="I47" s="34">
+        <v>417595.34666528151</v>
+      </c>
+      <c r="J47" s="34">
+        <v>392919.38316685474</v>
+      </c>
+      <c r="K47" s="34">
+        <v>384584.0958145677</v>
+      </c>
+      <c r="L47" s="34">
+        <v>382369.90921112726</v>
+      </c>
+      <c r="M47" s="34">
+        <v>373208.55322404118</v>
+      </c>
+      <c r="N47" s="34">
+        <v>365103.72533893719</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1505640</v>
+      </c>
+      <c r="D48" s="6">
+        <v>909126</v>
+      </c>
+      <c r="E48" s="6">
+        <v>911946</v>
+      </c>
+      <c r="F48" s="6">
+        <v>856777</v>
+      </c>
+      <c r="G48" s="6">
+        <v>555916</v>
+      </c>
+      <c r="H48" s="6">
+        <v>397073</v>
+      </c>
+      <c r="I48" s="34">
+        <v>353773.50893808797</v>
+      </c>
+      <c r="J48" s="34">
+        <v>315195.68347978179</v>
+      </c>
+      <c r="K48" s="34">
+        <v>280824.64168246475</v>
+      </c>
+      <c r="L48" s="34">
+        <v>250201.64776826123</v>
+      </c>
+      <c r="M48" s="34">
+        <v>250000</v>
+      </c>
+      <c r="N48" s="34">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6">
+        <v>814122</v>
+      </c>
+      <c r="D49" s="6">
+        <v>416331</v>
+      </c>
+      <c r="E49" s="6">
+        <v>411406</v>
+      </c>
+      <c r="F49" s="6">
+        <v>531512</v>
+      </c>
+      <c r="G49" s="6">
+        <v>481004</v>
+      </c>
+      <c r="H49" s="6">
+        <v>788972</v>
+      </c>
+      <c r="I49" s="34">
+        <v>908837.85736368794</v>
+      </c>
+      <c r="J49" s="34">
+        <v>942785.27488665457</v>
+      </c>
+      <c r="K49" s="34">
+        <v>991530.84826253145</v>
+      </c>
+      <c r="L49" s="34">
+        <v>1041738.7888396842</v>
+      </c>
+      <c r="M49" s="34">
+        <v>1093452.9676341515</v>
+      </c>
+      <c r="N49" s="34">
+        <v>1146718.5717924528</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1186093</v>
+      </c>
+      <c r="D50" s="6">
+        <v>946127</v>
+      </c>
+      <c r="E50" s="6">
+        <v>915638</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1286180</v>
+      </c>
+      <c r="G50" s="6">
+        <v>871080</v>
+      </c>
+      <c r="H50" s="6">
+        <v>937348</v>
+      </c>
+      <c r="I50" s="34">
+        <v>923002.33530220867</v>
+      </c>
+      <c r="J50" s="34">
+        <v>908876.22417003172</v>
+      </c>
+      <c r="K50" s="34">
+        <v>894966.30644071684</v>
+      </c>
+      <c r="L50" s="34">
+        <v>881269.27337720222</v>
+      </c>
+      <c r="M50" s="34">
+        <v>867781.86688107112</v>
+      </c>
+      <c r="N50" s="34">
+        <v>854500.87871755101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="6">
+        <v>81321</v>
+      </c>
+      <c r="D53" s="6">
+        <v>28743</v>
+      </c>
+      <c r="E53" s="6">
+        <v>39491</v>
+      </c>
+      <c r="F53" s="6">
+        <v>44132</v>
+      </c>
+      <c r="G53" s="6">
+        <v>30170</v>
+      </c>
+      <c r="H53" s="6">
+        <v>24895</v>
+      </c>
+      <c r="I53" s="34">
+        <f>I46*I38</f>
+        <v>68935.803038945247</v>
+      </c>
+      <c r="J53" s="34">
+        <f t="shared" ref="J53:N53" si="7">J46*J38</f>
+        <v>60758.163000552413</v>
+      </c>
+      <c r="K53" s="34">
+        <f t="shared" si="7"/>
+        <v>61878.166806750654</v>
+      </c>
+      <c r="L53" s="34">
+        <f t="shared" si="7"/>
+        <v>60293.349914881401</v>
+      </c>
+      <c r="M53" s="34">
+        <f t="shared" si="7"/>
+        <v>61083.554119785149</v>
+      </c>
+      <c r="N53" s="34">
+        <f t="shared" si="7"/>
+        <v>65983.17398600874</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6">
+        <v>75212</v>
+      </c>
+      <c r="D54" s="6">
+        <v>15829</v>
+      </c>
+      <c r="E54" s="6">
+        <v>24083</v>
+      </c>
+      <c r="F54" s="6">
+        <v>25442</v>
+      </c>
+      <c r="G54" s="6">
+        <v>15468</v>
+      </c>
+      <c r="H54" s="6">
+        <v>8397</v>
+      </c>
+      <c r="I54" s="34">
+        <f t="shared" ref="I54:N57" si="8">I47*I39</f>
+        <v>22649.2627409204</v>
+      </c>
+      <c r="J54" s="34">
+        <f t="shared" si="8"/>
+        <v>17119.832555068446</v>
+      </c>
+      <c r="K54" s="34">
+        <f t="shared" si="8"/>
+        <v>17314.455968475238</v>
+      </c>
+      <c r="L54" s="34">
+        <f t="shared" si="8"/>
+        <v>16268.276936626722</v>
+      </c>
+      <c r="M54" s="34">
+        <f t="shared" si="8"/>
+        <v>14959.42469049321</v>
+      </c>
+      <c r="N54" s="34">
+        <f t="shared" si="8"/>
+        <v>14870.579374465562</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6">
+        <v>971941</v>
+      </c>
+      <c r="D55" s="6">
+        <v>325624</v>
+      </c>
+      <c r="E55" s="6">
+        <v>414324</v>
+      </c>
+      <c r="F55" s="6">
+        <v>391983</v>
+      </c>
+      <c r="G55" s="6">
+        <v>214160</v>
+      </c>
+      <c r="H55" s="6">
+        <v>117833</v>
+      </c>
+      <c r="I55" s="34">
+        <f t="shared" si="8"/>
+        <v>153156.59464633494</v>
+      </c>
+      <c r="J55" s="34">
+        <f t="shared" si="8"/>
+        <v>125286.37974714774</v>
+      </c>
+      <c r="K55" s="34">
+        <f t="shared" si="8"/>
+        <v>113464.42164735778</v>
+      </c>
+      <c r="L55" s="34">
+        <f t="shared" si="8"/>
+        <v>98994.421181368612</v>
+      </c>
+      <c r="M55" s="34">
+        <f t="shared" si="8"/>
+        <v>96337.544604145718</v>
+      </c>
+      <c r="N55" s="34">
+        <f t="shared" si="8"/>
+        <v>96342.21630699237</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6">
+        <v>72046</v>
+      </c>
+      <c r="D56" s="6">
+        <v>23385</v>
+      </c>
+      <c r="E56" s="6">
+        <v>38243</v>
+      </c>
+      <c r="F56" s="6">
+        <v>49867</v>
+      </c>
+      <c r="G56" s="6">
+        <v>29682</v>
+      </c>
+      <c r="H56" s="6">
+        <v>17286</v>
+      </c>
+      <c r="I56" s="34">
+        <f t="shared" si="8"/>
+        <v>62870.433339091906</v>
+      </c>
+      <c r="J56" s="34">
+        <f t="shared" si="8"/>
+        <v>62183.25559455125</v>
+      </c>
+      <c r="K56" s="34">
+        <f t="shared" si="8"/>
+        <v>67015.835955431612</v>
+      </c>
+      <c r="L56" s="34">
+        <f t="shared" si="8"/>
+        <v>66004.729731311949</v>
+      </c>
+      <c r="M56" s="34">
+        <f t="shared" si="8"/>
+        <v>63730.093237552632</v>
+      </c>
+      <c r="N56" s="34">
+        <f t="shared" si="8"/>
+        <v>66179.989311288984</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6">
+        <v>398791</v>
+      </c>
+      <c r="D57" s="6">
+        <v>172226</v>
+      </c>
+      <c r="E57" s="6">
+        <v>208419</v>
+      </c>
+      <c r="F57" s="6">
+        <v>239343</v>
+      </c>
+      <c r="G57" s="6">
+        <v>195053</v>
+      </c>
+      <c r="H57" s="6">
+        <v>162510</v>
+      </c>
+      <c r="I57" s="34">
+        <f t="shared" si="8"/>
+        <v>204484.68796077979</v>
+      </c>
+      <c r="J57" s="34">
+        <f t="shared" si="8"/>
+        <v>183983.58531963979</v>
+      </c>
+      <c r="K57" s="34">
+        <f t="shared" si="8"/>
+        <v>184210.25759543516</v>
+      </c>
+      <c r="L57" s="34">
+        <f t="shared" si="8"/>
+        <v>178190.1860701034</v>
+      </c>
+      <c r="M57" s="34">
+        <f t="shared" si="8"/>
+        <v>177792.91202292097</v>
+      </c>
+      <c r="N57" s="34">
+        <f t="shared" si="8"/>
+        <v>172360.42411874179</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I59" s="34">
+        <f>SUM(I53:I57)</f>
+        <v>512096.78172607231</v>
+      </c>
+      <c r="J59" s="34">
+        <f t="shared" ref="J59:N59" si="9">SUM(J53:J57)</f>
+        <v>449331.21621695964</v>
+      </c>
+      <c r="K59" s="34">
+        <f t="shared" si="9"/>
+        <v>443883.13797345047</v>
+      </c>
+      <c r="L59" s="34">
+        <f t="shared" si="9"/>
+        <v>419750.96383429214</v>
+      </c>
+      <c r="M59" s="34">
+        <f t="shared" si="9"/>
+        <v>413903.52867489768</v>
+      </c>
+      <c r="N59" s="34">
+        <f t="shared" si="9"/>
+        <v>415736.38309749746</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f ca="1">SUM(H24:H28)+Schedules!I69+Schedules!I62+Schedules!I28</f>
+        <v>-1842.5173039124529</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="83">
+        <f>DATE(2020,12,31)</f>
+        <v>44196</v>
+      </c>
+      <c r="E63" s="83">
+        <f>EOMONTH(D63,12)</f>
+        <v>44561</v>
+      </c>
+      <c r="F63" s="83">
+        <f t="shared" ref="F63:N63" si="10">EOMONTH(E63,12)</f>
+        <v>44926</v>
+      </c>
+      <c r="G63" s="83">
+        <f t="shared" si="10"/>
+        <v>45291</v>
+      </c>
+      <c r="H63" s="83">
+        <f t="shared" si="10"/>
+        <v>45657</v>
+      </c>
+      <c r="I63" s="83">
+        <f t="shared" si="10"/>
+        <v>46022</v>
+      </c>
+      <c r="J63" s="83">
+        <f t="shared" si="10"/>
+        <v>46387</v>
+      </c>
+      <c r="K63" s="83">
+        <f t="shared" si="10"/>
+        <v>46752</v>
+      </c>
+      <c r="L63" s="83">
+        <f t="shared" si="10"/>
+        <v>47118</v>
+      </c>
+      <c r="M63" s="83">
+        <f t="shared" si="10"/>
+        <v>47483</v>
+      </c>
+      <c r="N63" s="83">
+        <f t="shared" si="10"/>
+        <v>47848</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="63">
+        <f>('3_Statement_Model'!C64/'3_Statement_Model'!B64)-1</f>
+        <v>-0.28393818618141087</v>
+      </c>
+      <c r="E64" s="63">
+        <f>('3_Statement_Model'!D64/'3_Statement_Model'!C64)-1</f>
+        <v>8.2632939708063402E-2</v>
+      </c>
+      <c r="F64" s="63">
+        <f>('3_Statement_Model'!E64/'3_Statement_Model'!D64)-1</f>
+        <v>0.32632684152015479</v>
+      </c>
+      <c r="G64" s="63">
+        <f>('3_Statement_Model'!F64/'3_Statement_Model'!E64)-1</f>
+        <v>-5.6077891840406346E-2</v>
+      </c>
+      <c r="H64" s="63">
+        <f>('3_Statement_Model'!G64/'3_Statement_Model'!F64)-1</f>
+        <v>0.27171963153315581</v>
+      </c>
+      <c r="I64" s="79">
+        <f t="shared" ref="I64:N64" ca="1" si="11">OFFSET(I64,MATCH(S,$B$65:$B$67,0),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J64" s="80">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="K64" s="80">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="L64" s="80">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="M64" s="80">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N64" s="81">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" t="s">
+        <v>154</v>
+      </c>
+      <c r="I65" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="J65" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="K65" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="L65" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="M65" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="N65" s="63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" t="s">
+        <v>155</v>
+      </c>
+      <c r="I66" s="63">
+        <f>_xlfn.FORECAST.ETS(I63,$D$64:$H$64,$D$63:$H$63,1)/3</f>
+        <v>9.770031228117225E-2</v>
+      </c>
+      <c r="J66" s="63">
+        <f t="shared" ref="J66:N66" si="12">_xlfn.FORECAST.ETS(J63,$D$64:$H$64,$D$63:$H$63,1)/3</f>
+        <v>0.12733243041682926</v>
+      </c>
+      <c r="K66" s="63">
+        <f t="shared" si="12"/>
+        <v>0.15696454855248618</v>
+      </c>
+      <c r="L66" s="63">
+        <f t="shared" si="12"/>
+        <v>0.18659666668814315</v>
+      </c>
+      <c r="M66" s="63">
+        <f t="shared" si="12"/>
+        <v>0.21622878482380012</v>
+      </c>
+      <c r="N66" s="63">
+        <f t="shared" si="12"/>
+        <v>0.24586090295945709</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" s="63">
+        <f>_xlfn.FORECAST.LINEAR(I63,$D$64:$H$64,$D$63:$H$63)/3</f>
+        <v>0.11999157786699637</v>
+      </c>
+      <c r="J67" s="63">
+        <f t="shared" ref="J67:N67" si="13">_xlfn.FORECAST.LINEAR(J63,$D$64:$H$64,$D$63:$H$63)/3</f>
+        <v>0.15239480057441668</v>
+      </c>
+      <c r="K67" s="63">
+        <f t="shared" si="13"/>
+        <v>0.184798023281837</v>
+      </c>
+      <c r="L67" s="63">
+        <f t="shared" si="13"/>
+        <v>0.21729002194188021</v>
+      </c>
+      <c r="M67" s="63">
+        <f t="shared" si="13"/>
+        <v>0.24969324464930054</v>
+      </c>
+      <c r="N67" s="63">
+        <f t="shared" si="13"/>
+        <v>0.28209646735672084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921937AC-E959-4924-AF12-8B80161ACD7D}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
@@ -8397,7 +10151,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="298" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="56" t="s">
@@ -8435,7 +10189,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="298"/>
       <c r="B3" s="56" t="s">
         <v>93</v>
       </c>
@@ -8454,7 +10208,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="290"/>
+      <c r="A4" s="298"/>
       <c r="B4" s="56" t="s">
         <v>94</v>
       </c>
@@ -8481,7 +10235,7 @@
       <c r="W4" s="62"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="290"/>
+      <c r="A5" s="298"/>
       <c r="B5" s="56" t="s">
         <v>95</v>
       </c>
@@ -8516,7 +10270,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="290" t="s">
+      <c r="A6" s="298" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="56" t="s">
@@ -8549,7 +10303,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="290"/>
+      <c r="A7" s="298"/>
       <c r="B7" s="56" t="s">
         <v>93</v>
       </c>
@@ -8580,7 +10334,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="290"/>
+      <c r="A8" s="298"/>
       <c r="B8" s="56" t="s">
         <v>94</v>
       </c>
@@ -8611,7 +10365,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="290"/>
+      <c r="A9" s="298"/>
       <c r="B9" s="56" t="s">
         <v>95</v>
       </c>
@@ -8646,7 +10400,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="290" t="s">
+      <c r="A10" s="298" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="56" t="s">
@@ -8667,7 +10421,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="298"/>
       <c r="B11" s="56" t="s">
         <v>93</v>
       </c>
@@ -8692,7 +10446,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="290"/>
+      <c r="A12" s="298"/>
       <c r="B12" s="56" t="s">
         <v>94</v>
       </c>
@@ -8743,7 +10497,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="290"/>
+      <c r="A13" s="298"/>
       <c r="B13" s="56" t="s">
         <v>95</v>
       </c>
@@ -8802,7 +10556,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="290" t="s">
+      <c r="A14" s="298" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="56" t="s">
@@ -8847,7 +10601,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="298"/>
       <c r="B15" s="56" t="s">
         <v>93</v>
       </c>
@@ -8890,7 +10644,7 @@
       <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="298"/>
       <c r="B16" s="56" t="s">
         <v>94</v>
       </c>
@@ -8909,7 +10663,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="290"/>
+      <c r="A17" s="298"/>
       <c r="B17" s="56" t="s">
         <v>95</v>
       </c>
@@ -8982,7 +10736,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="290" t="s">
+      <c r="A18" s="298" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="56" t="s">
@@ -9057,7 +10811,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="290"/>
+      <c r="A19" s="298"/>
       <c r="B19" s="56" t="s">
         <v>93</v>
       </c>
@@ -9130,7 +10884,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="290"/>
+      <c r="A20" s="298"/>
       <c r="B20" s="56" t="s">
         <v>94</v>
       </c>
@@ -9149,7 +10903,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="290"/>
+      <c r="A21" s="298"/>
       <c r="B21" s="56" t="s">
         <v>95</v>
       </c>
@@ -9172,7 +10926,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="290" t="s">
+      <c r="A22" s="298" t="s">
         <v>100</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -9193,7 +10947,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="290"/>
+      <c r="A23" s="298"/>
       <c r="B23" s="56" t="s">
         <v>93</v>
       </c>
@@ -9218,7 +10972,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="290"/>
+      <c r="A24" s="298"/>
       <c r="B24" s="56" t="s">
         <v>94</v>
       </c>
@@ -9237,7 +10991,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="290"/>
+      <c r="A25" s="298"/>
       <c r="B25" s="56" t="s">
         <v>95</v>
       </c>
@@ -9343,7 +11097,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="290">
+      <c r="A28" s="298">
         <f>A22+1</f>
         <v>2025</v>
       </c>
@@ -9387,7 +11141,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="290"/>
+      <c r="A29" s="298"/>
       <c r="B29" s="56" t="s">
         <v>93</v>
       </c>
@@ -9428,7 +11182,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="290"/>
+      <c r="A30" s="298"/>
       <c r="B30" s="56" t="s">
         <v>94</v>
       </c>
@@ -9469,7 +11223,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="290"/>
+      <c r="A31" s="298"/>
       <c r="B31" s="66" t="s">
         <v>95</v>
       </c>
@@ -9515,7 +11269,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="290">
+      <c r="A32" s="298">
         <f>A28+1</f>
         <v>2026</v>
       </c>
@@ -9559,7 +11313,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="290"/>
+      <c r="A33" s="298"/>
       <c r="B33" s="72" t="s">
         <v>93</v>
       </c>
@@ -9601,7 +11355,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="290"/>
+      <c r="A34" s="298"/>
       <c r="B34" s="72" t="s">
         <v>94</v>
       </c>
@@ -9642,7 +11396,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="290"/>
+      <c r="A35" s="298"/>
       <c r="B35" s="73" t="s">
         <v>95</v>
       </c>
@@ -9686,7 +11440,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="290">
+      <c r="A36" s="298">
         <f t="shared" ref="A36" si="6">A32+1</f>
         <v>2027</v>
       </c>
@@ -9730,7 +11484,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="290"/>
+      <c r="A37" s="298"/>
       <c r="B37" s="72" t="s">
         <v>93</v>
       </c>
@@ -9771,7 +11525,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="290"/>
+      <c r="A38" s="298"/>
       <c r="B38" s="72" t="s">
         <v>94</v>
       </c>
@@ -9812,7 +11566,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="290"/>
+      <c r="A39" s="298"/>
       <c r="B39" s="73" t="s">
         <v>95</v>
       </c>
@@ -9856,7 +11610,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="290">
+      <c r="A40" s="298">
         <f t="shared" ref="A40" si="8">A36+1</f>
         <v>2028</v>
       </c>
@@ -9900,7 +11654,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="290"/>
+      <c r="A41" s="298"/>
       <c r="B41" s="72" t="s">
         <v>93</v>
       </c>
@@ -9941,7 +11695,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="290"/>
+      <c r="A42" s="298"/>
       <c r="B42" s="72" t="s">
         <v>94</v>
       </c>
@@ -9982,7 +11736,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="290"/>
+      <c r="A43" s="298"/>
       <c r="B43" s="73" t="s">
         <v>95</v>
       </c>
@@ -10026,7 +11780,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="290">
+      <c r="A44" s="298">
         <f t="shared" ref="A44" si="10">A40+1</f>
         <v>2029</v>
       </c>
@@ -10070,7 +11824,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="290"/>
+      <c r="A45" s="298"/>
       <c r="B45" s="72" t="s">
         <v>93</v>
       </c>
@@ -10111,7 +11865,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="290"/>
+      <c r="A46" s="298"/>
       <c r="B46" s="72" t="s">
         <v>94</v>
       </c>
@@ -10152,7 +11906,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="290"/>
+      <c r="A47" s="298"/>
       <c r="B47" s="73" t="s">
         <v>95</v>
       </c>
@@ -10196,7 +11950,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="290">
+      <c r="A48" s="298">
         <f t="shared" ref="A48" si="12">A44+1</f>
         <v>2030</v>
       </c>
@@ -10240,7 +11994,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="290"/>
+      <c r="A49" s="298"/>
       <c r="B49" s="72" t="s">
         <v>93</v>
       </c>
@@ -10281,7 +12035,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="290"/>
+      <c r="A50" s="298"/>
       <c r="B50" s="72" t="s">
         <v>94</v>
       </c>
@@ -10304,7 +12058,7 @@
       <c r="G50" s="71"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="290"/>
+      <c r="A51" s="298"/>
       <c r="B51" s="73" t="s">
         <v>95</v>
       </c>
@@ -11924,10 +13678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED63A80-B681-4218-B621-0B781578A5D7}">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView showGridLines="0" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16220,7 +17974,7 @@
       </c>
       <c r="C115" s="63" cm="1">
         <f t="array" aca="1" ref="C115" ca="1">_FV(D115,"Yield yesterday",TRUE)</f>
-        <v>4.0320000000000002E-2</v>
+        <v>4.011E-2</v>
       </c>
       <c r="D115" t="e" vm="1">
         <v>#VALUE!</v>
@@ -16232,7 +17986,7 @@
       </c>
       <c r="C116" s="258" cm="1">
         <f t="array" aca="1" ref="C116" ca="1">_FV(D116,"Beta")</f>
-        <v>2.3578999999999999</v>
+        <v>2.3586</v>
       </c>
       <c r="D116" t="e" vm="2">
         <v>#VALUE!</v>
@@ -16252,7 +18006,7 @@
       </c>
       <c r="C118" s="256">
         <f ca="1">C115+(C116*C117)</f>
-        <v>0.24805098999999997</v>
+        <v>0.24790266</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16261,7 +18015,7 @@
       </c>
       <c r="C120" s="259">
         <f ca="1">(D109*C118)+(D108*C113)</f>
-        <v>0.13175314701200977</v>
+        <v>0.13169016798642508</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -16325,7 +18079,7 @@
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C125">
         <f ca="1">DCF!D33/Schedules!H123</f>
-        <v>15.354136011289404</v>
+        <v>15.361553499065563</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
@@ -16333,6 +18087,399 @@
         <f>'3_Statement_Model'!G14+'3_Statement_Model'!G90</f>
         <v>256187</v>
       </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="C129" s="107">
+        <v>2024</v>
+      </c>
+      <c r="D129" s="109">
+        <v>2025</v>
+      </c>
+      <c r="E129" s="109">
+        <v>2026</v>
+      </c>
+      <c r="F129" s="109">
+        <v>2027</v>
+      </c>
+      <c r="G129" s="109">
+        <v>2028</v>
+      </c>
+      <c r="H129" s="109">
+        <v>2029</v>
+      </c>
+      <c r="I129" s="109">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="34">
+        <f>'3_Statement_Model'!G30</f>
+        <v>22784</v>
+      </c>
+      <c r="D130" s="34">
+        <f ca="1">'3_Statement_Model'!H30</f>
+        <v>51715.465332438987</v>
+      </c>
+      <c r="E130" s="34">
+        <f ca="1">'3_Statement_Model'!I30</f>
+        <v>175600.66601498588</v>
+      </c>
+      <c r="F130" s="34">
+        <f ca="1">'3_Statement_Model'!J30</f>
+        <v>303527.63101752754</v>
+      </c>
+      <c r="G130" s="34">
+        <f ca="1">'3_Statement_Model'!K30</f>
+        <v>405081.8909238163</v>
+      </c>
+      <c r="H130" s="34">
+        <f ca="1">'3_Statement_Model'!L30</f>
+        <v>503972.58992626052</v>
+      </c>
+      <c r="I130" s="34">
+        <f ca="1">'3_Statement_Model'!M30</f>
+        <v>595956.78054809687</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="34">
+        <v>34700</v>
+      </c>
+      <c r="D132" s="34">
+        <f ca="1">-'3_Statement_Model'!H15</f>
+        <v>53004.237912664932</v>
+      </c>
+      <c r="E132" s="34">
+        <f ca="1">-'3_Statement_Model'!I15</f>
+        <v>57850.762574134598</v>
+      </c>
+      <c r="F132" s="34">
+        <f ca="1">-'3_Statement_Model'!J15</f>
+        <v>62920.617273878677</v>
+      </c>
+      <c r="G132" s="34">
+        <f ca="1">-'3_Statement_Model'!K15</f>
+        <v>68224.15145533008</v>
+      </c>
+      <c r="H132" s="34">
+        <f ca="1">-'3_Statement_Model'!L15</f>
+        <v>73772.195538264685</v>
+      </c>
+      <c r="I132" s="34">
+        <f ca="1">-'3_Statement_Model'!M15</f>
+        <v>79576.083303439984</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C133" s="34">
+        <v>-173200</v>
+      </c>
+      <c r="D133" s="34">
+        <f ca="1">-'3_Statement_Model'!H16</f>
+        <v>-197479.71075244411</v>
+      </c>
+      <c r="E133" s="34">
+        <f ca="1">-'3_Statement_Model'!I16</f>
+        <v>-207471.54877039479</v>
+      </c>
+      <c r="F133" s="34">
+        <f ca="1">-'3_Statement_Model'!J16</f>
+        <v>-220859.49732800765</v>
+      </c>
+      <c r="G133" s="34">
+        <f ca="1">-'3_Statement_Model'!K16</f>
+        <v>-215147.65743944154</v>
+      </c>
+      <c r="H133" s="34">
+        <f ca="1">-'3_Statement_Model'!L16</f>
+        <v>-231023.82046298624</v>
+      </c>
+      <c r="I133" s="34">
+        <f ca="1">-'3_Statement_Model'!M16</f>
+        <v>-241079.71320092655</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="34">
+        <v>2600</v>
+      </c>
+      <c r="D134" s="34">
+        <f ca="1">'3_Statement_Model'!H18</f>
+        <v>6693.5382789514315</v>
+      </c>
+      <c r="E134" s="34">
+        <f ca="1">'3_Statement_Model'!I18</f>
+        <v>25407.844215836096</v>
+      </c>
+      <c r="F134" s="34">
+        <f ca="1">'3_Statement_Model'!J18</f>
+        <v>48676.740843035856</v>
+      </c>
+      <c r="G134" s="34">
+        <f ca="1">'3_Statement_Model'!K18</f>
+        <v>71490.686967630128</v>
+      </c>
+      <c r="H134" s="34">
+        <f ca="1">'3_Statement_Model'!L18</f>
+        <v>97293.364672606258</v>
+      </c>
+      <c r="I134" s="34">
+        <f ca="1">'3_Statement_Model'!M18</f>
+        <v>125207.2880129534</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C135" s="34">
+        <v>479800</v>
+      </c>
+      <c r="D135" s="34">
+        <f ca="1">'3_Statement_Model'!H90</f>
+        <v>295949.39284590835</v>
+      </c>
+      <c r="E135" s="34">
+        <f ca="1">'3_Statement_Model'!I90</f>
+        <v>265437.83526651526</v>
+      </c>
+      <c r="F135" s="34">
+        <f ca="1">'3_Statement_Model'!J90</f>
+        <v>235260.14974626779</v>
+      </c>
+      <c r="G135" s="34">
+        <f ca="1">'3_Statement_Model'!K90</f>
+        <v>209947.77237446461</v>
+      </c>
+      <c r="H135" s="34">
+        <f ca="1">'3_Statement_Model'!L90</f>
+        <v>189490.68565866083</v>
+      </c>
+      <c r="I135" s="34">
+        <f ca="1">'3_Statement_Model'!M90</f>
+        <v>166606.33956784158</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C136" s="34">
+        <v>14800</v>
+      </c>
+      <c r="D136" s="34">
+        <f>AVERAGE(C136)</f>
+        <v>14800</v>
+      </c>
+      <c r="E136" s="34">
+        <f t="shared" ref="E136:I136" si="87">AVERAGE(D136)</f>
+        <v>14800</v>
+      </c>
+      <c r="F136" s="34">
+        <f t="shared" si="87"/>
+        <v>14800</v>
+      </c>
+      <c r="G136" s="34">
+        <f t="shared" si="87"/>
+        <v>14800</v>
+      </c>
+      <c r="H136" s="34">
+        <f t="shared" si="87"/>
+        <v>14800</v>
+      </c>
+      <c r="I136" s="34">
+        <f t="shared" si="87"/>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" s="34">
+        <v>3500</v>
+      </c>
+      <c r="D137" s="34">
+        <f t="shared" ref="D137:I137" ca="1" si="88">I78</f>
+        <v>4221.068424699617</v>
+      </c>
+      <c r="E137" s="34">
+        <f t="shared" ca="1" si="88"/>
+        <v>4417.7961548112125</v>
+      </c>
+      <c r="F137" s="34">
+        <f t="shared" ca="1" si="88"/>
+        <v>4623.6926061802969</v>
+      </c>
+      <c r="G137" s="34">
+        <f t="shared" ca="1" si="88"/>
+        <v>4839.1850975658981</v>
+      </c>
+      <c r="H137" s="34">
+        <f t="shared" ca="1" si="88"/>
+        <v>5064.7208634073968</v>
+      </c>
+      <c r="I137" s="34">
+        <f t="shared" ca="1" si="88"/>
+        <v>5300.7679820176281</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C138" s="34">
+        <v>-29600</v>
+      </c>
+      <c r="D138" s="34">
+        <f>AVERAGE(C138)</f>
+        <v>-29600</v>
+      </c>
+      <c r="E138" s="34">
+        <f t="shared" ref="E138:I138" si="89">AVERAGE(D138)</f>
+        <v>-29600</v>
+      </c>
+      <c r="F138" s="34">
+        <f t="shared" si="89"/>
+        <v>-29600</v>
+      </c>
+      <c r="G138" s="34">
+        <f t="shared" si="89"/>
+        <v>-29600</v>
+      </c>
+      <c r="H138" s="34">
+        <f t="shared" si="89"/>
+        <v>-29600</v>
+      </c>
+      <c r="I138" s="34">
+        <f t="shared" si="89"/>
+        <v>-29600</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C139" s="34">
+        <v>26900</v>
+      </c>
+      <c r="D139" s="34">
+        <f>AVERAGE(C139)</f>
+        <v>26900</v>
+      </c>
+      <c r="E139" s="34">
+        <f t="shared" ref="E139:I139" si="90">AVERAGE(D139)</f>
+        <v>26900</v>
+      </c>
+      <c r="F139" s="34">
+        <f t="shared" si="90"/>
+        <v>26900</v>
+      </c>
+      <c r="G139" s="34">
+        <f t="shared" si="90"/>
+        <v>26900</v>
+      </c>
+      <c r="H139" s="34">
+        <f t="shared" si="90"/>
+        <v>26900</v>
+      </c>
+      <c r="I139" s="34">
+        <f t="shared" si="90"/>
+        <v>26900</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="C140" s="294">
+        <f t="shared" ref="C140:I140" si="91">SUM(C132:C139,C130)</f>
+        <v>382284</v>
+      </c>
+      <c r="D140" s="294">
+        <f t="shared" ca="1" si="91"/>
+        <v>226203.99204221924</v>
+      </c>
+      <c r="E140" s="294">
+        <f t="shared" ca="1" si="91"/>
+        <v>333343.35545588826</v>
+      </c>
+      <c r="F140" s="294">
+        <f t="shared" ca="1" si="91"/>
+        <v>446249.3341588825</v>
+      </c>
+      <c r="G140" s="294">
+        <f t="shared" ca="1" si="91"/>
+        <v>556536.0293793655</v>
+      </c>
+      <c r="H140" s="294">
+        <f t="shared" ca="1" si="91"/>
+        <v>650669.7361962134</v>
+      </c>
+      <c r="I140" s="294">
+        <f t="shared" ca="1" si="91"/>
+        <v>743667.5462134229</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C142" s="34"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="34"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="14"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="34"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="14"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16347,7 +18494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA79A8-4199-48D3-8B12-68E428EB3C36}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -16361,10 +18508,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="297" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="289"/>
+      <c r="C1" s="297"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -18096,12 +20243,307 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35B4462-BF58-485E-9433-FEEA22F38AD2}">
+  <dimension ref="B3:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C4:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="289" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="290" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="291" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="291" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" s="291" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" s="291" t="s">
+        <v>402</v>
+      </c>
+      <c r="H3" s="291" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="291" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="293">
+        <v>5786016</v>
+      </c>
+      <c r="D4" s="293">
+        <v>5988679.4000000004</v>
+      </c>
+      <c r="E4" s="293">
+        <v>6148195.2999999998</v>
+      </c>
+      <c r="F4" s="293">
+        <v>6468328</v>
+      </c>
+      <c r="G4" s="293">
+        <v>6798064.7000000002</v>
+      </c>
+      <c r="H4" s="293">
+        <v>7137693.5</v>
+      </c>
+      <c r="I4" s="293">
+        <v>7487511.2000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="292" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="293">
+        <v>22784</v>
+      </c>
+      <c r="D5" s="293">
+        <v>35400</v>
+      </c>
+      <c r="E5" s="293">
+        <v>52244.7</v>
+      </c>
+      <c r="F5" s="293">
+        <v>122885.5</v>
+      </c>
+      <c r="G5" s="293">
+        <v>191149.2</v>
+      </c>
+      <c r="H5" s="293">
+        <v>246148.6</v>
+      </c>
+      <c r="I5" s="293">
+        <v>251153.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="292" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="293">
+        <f>Schedules!C140</f>
+        <v>382284</v>
+      </c>
+      <c r="D6" s="293">
+        <f ca="1">Schedules!D140</f>
+        <v>226203.99204221924</v>
+      </c>
+      <c r="E6" s="293">
+        <f ca="1">Schedules!E140</f>
+        <v>333343.35545588826</v>
+      </c>
+      <c r="F6" s="293">
+        <f ca="1">Schedules!F140</f>
+        <v>446249.3341588825</v>
+      </c>
+      <c r="G6" s="293">
+        <f ca="1">Schedules!G140</f>
+        <v>556536.0293793655</v>
+      </c>
+      <c r="H6" s="293">
+        <f ca="1">Schedules!H140</f>
+        <v>650669.7361962134</v>
+      </c>
+      <c r="I6" s="293">
+        <f ca="1">Schedules!I140</f>
+        <v>743667.5462134229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="292" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="293">
+        <v>766300</v>
+      </c>
+      <c r="D7" s="293">
+        <f ca="1">'3_Statement_Model'!H98+'3_Statement_Model'!H103</f>
+        <v>670336.96348480403</v>
+      </c>
+      <c r="E7" s="293">
+        <f ca="1">'3_Statement_Model'!I98+'3_Statement_Model'!I103</f>
+        <v>873007.02844768227</v>
+      </c>
+      <c r="F7" s="293">
+        <f ca="1">'3_Statement_Model'!J98+'3_Statement_Model'!J103</f>
+        <v>1056051.8870218091</v>
+      </c>
+      <c r="G7" s="293">
+        <f ca="1">'3_Statement_Model'!K98+'3_Statement_Model'!K103</f>
+        <v>1226736.6206859085</v>
+      </c>
+      <c r="H7" s="293">
+        <f ca="1">'3_Statement_Model'!L98+'3_Statement_Model'!L103</f>
+        <v>1431023.4798613002</v>
+      </c>
+      <c r="I7" s="293">
+        <f ca="1">'3_Statement_Model'!M98+'3_Statement_Model'!M103</f>
+        <v>1635752.6649300181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="292" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="295">
+        <f>'3_Statement_Model'!G19/(AVERAGE('3_Statement_Model'!F79:G79))</f>
+        <v>3.4823703472741253E-2</v>
+      </c>
+      <c r="D8" s="295">
+        <f ca="1">'3_Statement_Model'!H19/(AVERAGE('3_Statement_Model'!G79:H79))</f>
+        <v>4.9659320452678145E-2</v>
+      </c>
+      <c r="E8" s="295">
+        <f ca="1">'3_Statement_Model'!I19/(AVERAGE('3_Statement_Model'!H79:I79))</f>
+        <v>0.12174720799299629</v>
+      </c>
+      <c r="F8" s="295">
+        <f ca="1">'3_Statement_Model'!J19/(AVERAGE('3_Statement_Model'!I79:J79))</f>
+        <v>0.17447958337299119</v>
+      </c>
+      <c r="G8" s="295">
+        <f ca="1">'3_Statement_Model'!K19/(AVERAGE('3_Statement_Model'!J79:K79))</f>
+        <v>0.19159274613984645</v>
+      </c>
+      <c r="H8" s="295">
+        <f ca="1">'3_Statement_Model'!L19/(AVERAGE('3_Statement_Model'!K79:L79))</f>
+        <v>0.23652940949641246</v>
+      </c>
+      <c r="I8" s="295">
+        <f ca="1">'3_Statement_Model'!M19/(AVERAGE('3_Statement_Model'!L79:M79))</f>
+        <v>0.24449654553582342</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="292" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="295">
+        <f>'3_Statement_Model'!G19/(AVERAGE('3_Statement_Model'!F59:G59))</f>
+        <v>4.5570114453310634E-3</v>
+      </c>
+      <c r="D9" s="295">
+        <f ca="1">'3_Statement_Model'!H19/(AVERAGE('3_Statement_Model'!G59:H59))</f>
+        <v>8.9758538842099177E-3</v>
+      </c>
+      <c r="E9" s="295">
+        <f ca="1">'3_Statement_Model'!I19/(AVERAGE('3_Statement_Model'!H59:I59))</f>
+        <v>2.7105859299513618E-2</v>
+      </c>
+      <c r="F9" s="295">
+        <f ca="1">'3_Statement_Model'!J19/(AVERAGE('3_Statement_Model'!I59:J59))</f>
+        <v>4.1308909120833577E-2</v>
+      </c>
+      <c r="G9" s="295">
+        <f ca="1">'3_Statement_Model'!K19/(AVERAGE('3_Statement_Model'!J59:K59))</f>
+        <v>4.8286753672313103E-2</v>
+      </c>
+      <c r="H9" s="295">
+        <f ca="1">'3_Statement_Model'!L19/(AVERAGE('3_Statement_Model'!K59:L59))</f>
+        <v>5.4856014097623064E-2</v>
+      </c>
+      <c r="I9" s="295">
+        <f ca="1">'3_Statement_Model'!M19/(AVERAGE('3_Statement_Model'!L59:M59))</f>
+        <v>5.8360571857528833E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="292" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" s="296">
+        <f>'3_Statement_Model'!G69/'3_Statement_Model'!G79</f>
+        <v>0.73788291248161708</v>
+      </c>
+      <c r="D10" s="296">
+        <f ca="1">'3_Statement_Model'!H69/'3_Statement_Model'!H79</f>
+        <v>0.4733011666030672</v>
+      </c>
+      <c r="E10" s="296">
+        <f ca="1">'3_Statement_Model'!I69/'3_Statement_Model'!I79</f>
+        <v>0.40816429521799547</v>
+      </c>
+      <c r="F10" s="296">
+        <f ca="1">'3_Statement_Model'!J69/'3_Statement_Model'!J79</f>
+        <v>0.34490195426859466</v>
+      </c>
+      <c r="G10" s="296">
+        <f ca="1">'3_Statement_Model'!K69/'3_Statement_Model'!K79</f>
+        <v>0.29262885197902067</v>
+      </c>
+      <c r="H10" s="296">
+        <f ca="1">'3_Statement_Model'!L69/'3_Statement_Model'!L79</f>
+        <v>0.14069041516813222</v>
+      </c>
+      <c r="I10" s="296">
+        <f ca="1">'3_Statement_Model'!M69/'3_Statement_Model'!M79</f>
+        <v>0.10939567457181072</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="292" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="296">
+        <f>Debt_Schedule!G29/Schedules!C140</f>
+        <v>1.480490943905578</v>
+      </c>
+      <c r="D11" s="296">
+        <f ca="1">Debt_Schedule!H29/Schedules!D140</f>
+        <v>2.7531205052711161</v>
+      </c>
+      <c r="E11" s="296">
+        <f ca="1">Debt_Schedule!I29/Schedules!E140</f>
+        <v>1.9210278892149424</v>
+      </c>
+      <c r="F11" s="296">
+        <f ca="1">Debt_Schedule!J29/Schedules!F140</f>
+        <v>1.4764926011266823</v>
+      </c>
+      <c r="G11" s="296">
+        <f ca="1">Debt_Schedule!K29/Schedules!G140</f>
+        <v>1.2189298914664848</v>
+      </c>
+      <c r="H11" s="296">
+        <f ca="1">Debt_Schedule!L29/Schedules!H140</f>
+        <v>0.42016076518327017</v>
+      </c>
+      <c r="I11" s="296">
+        <f ca="1">Debt_Schedule!M29/Schedules!I140</f>
+        <v>0.43127598780689058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22996,12 +25438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683C3F7-1682-47B5-965E-E98B3B170D3C}">
   <dimension ref="B1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23088,7 +25530,7 @@
       </c>
       <c r="D7" s="209">
         <f ca="1">Schedules!C120</f>
-        <v>0.13175314701200977</v>
+        <v>0.13169016798642508</v>
       </c>
       <c r="E7" s="200" t="s">
         <v>23</v>
@@ -23291,7 +25733,7 @@
       <c r="N19" s="217"/>
       <c r="O19" s="227">
         <f ca="1">(J27*(1+D8))/(D7-D8)</f>
-        <v>15925167.119809363</v>
+        <v>15935029.936710333</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23366,7 +25808,7 @@
       </c>
       <c r="O21" s="234">
         <f ca="1">AVERAGE(O19:O20)</f>
-        <v>13772717.785755925</v>
+        <v>13777649.194206409</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23559,7 +26001,7 @@
       </c>
       <c r="K28" s="240">
         <f ca="1">O21</f>
-        <v>13772717.785755925</v>
+        <v>13777649.194206409</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23595,7 +26037,7 @@
       </c>
       <c r="K29" s="239">
         <f ca="1">K28+K27</f>
-        <v>13772717.785755925</v>
+        <v>13777649.194206409</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23632,7 +26074,7 @@
       </c>
       <c r="K30" s="227">
         <f ca="1">K28</f>
-        <v>13772717.785755925</v>
+        <v>13777649.194206409</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23659,7 +26101,7 @@
       <c r="C33" s="217"/>
       <c r="D33" s="227">
         <f ca="1">XNPV(D7,D29:K29,D19:K19)</f>
-        <v>11151198.893445956</v>
+        <v>11156585.968395717</v>
       </c>
       <c r="G33" s="217" t="s">
         <v>353</v>
@@ -23675,7 +26117,7 @@
       <c r="M33" s="217"/>
       <c r="N33" s="242">
         <f ca="1">D38/I38-1</f>
-        <v>0.6164998077919519</v>
+        <v>0.6172116361666653</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23698,7 +26140,7 @@
       </c>
       <c r="N34" s="243">
         <f ca="1">XIRR(D30:K30,D19:K19)</f>
-        <v>0.27963103652000432</v>
+        <v>0.27969321608543396</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23723,7 +26165,7 @@
       </c>
       <c r="D36" s="239">
         <f ca="1">D33+D34-D35</f>
-        <v>12233574.735425886</v>
+        <v>12238961.810375648</v>
       </c>
       <c r="G36" s="200" t="s">
         <v>352</v>
@@ -23755,7 +26197,7 @@
       </c>
       <c r="D38" s="245">
         <f ca="1">D36/D13</f>
-        <v>30.099226421086147</v>
+        <v>30.112480665423309</v>
       </c>
       <c r="G38" s="200" t="s">
         <v>362</v>
@@ -23769,7 +26211,7 @@
       </c>
       <c r="N38" s="245">
         <f ca="1">D38-I38</f>
-        <v>11.479226421086146</v>
+        <v>11.492480665423308</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23779,7 +26221,7 @@
       </c>
       <c r="N39" s="245">
         <f ca="1">SUM(N37:N38)</f>
-        <v>30.099226421086147</v>
+        <v>30.112480665423309</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23842,12 +26284,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0EC0B7-98D9-477B-9B65-3B1531E12075}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24024,11 +26466,11 @@
       </c>
       <c r="C7" s="284" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_FV(B7,"Price")</f>
-        <v>242.77</v>
+        <v>242.76</v>
       </c>
       <c r="D7" s="285" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(B7,"Market cap",TRUE)/1000000</f>
-        <v>231117.04</v>
+        <v>231107.52</v>
       </c>
       <c r="E7" s="265">
         <v>230320</v>
@@ -24061,7 +26503,7 @@
       </c>
       <c r="O7" s="266">
         <f ca="1">D7/J7</f>
-        <v>55.87936170212766</v>
+        <v>55.877059961315275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -24074,7 +26516,7 @@
       </c>
       <c r="D8" s="285" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">_FV(B8,"Market cap",TRUE)/1000000</f>
-        <v>197447.4</v>
+        <v>199970.8</v>
       </c>
       <c r="E8" s="265">
         <v>202420</v>
@@ -24107,7 +26549,7 @@
       </c>
       <c r="O8" s="266">
         <f t="shared" ref="O8:O11" ca="1" si="3">D8/J8</f>
-        <v>20.033218344155845</v>
+        <v>20.289245129870128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -24116,11 +26558,11 @@
       </c>
       <c r="C9" s="284" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Price")</f>
-        <v>929.15</v>
+        <v>928.96</v>
       </c>
       <c r="D9" s="285" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Market cap",TRUE)/1000000</f>
-        <v>193263.2</v>
+        <v>193223.67999999999</v>
       </c>
       <c r="E9" s="265">
         <v>190990</v>
@@ -24153,7 +26595,7 @@
       </c>
       <c r="O9" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>135.62329824561405</v>
+        <v>135.59556491228071</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -24212,7 +26654,7 @@
       </c>
       <c r="D11" s="285" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Market cap",TRUE)/1000000</f>
-        <v>148198.51199999999</v>
+        <v>148198.5</v>
       </c>
       <c r="E11" s="265">
         <v>149550</v>
@@ -24245,7 +26687,7 @@
       </c>
       <c r="O11" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>26.654408633093524</v>
+        <v>26.654406474820142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -24328,16 +26770,16 @@
         <v>9.3977661375389463</v>
       </c>
       <c r="M14" s="282">
-        <f t="shared" ref="M14:O14" si="4">AVERAGE(M7:M11)</f>
+        <f>AVERAGE(M7:M11)</f>
         <v>40.462926089277182</v>
       </c>
       <c r="N14" s="282">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(N7:N11)</f>
         <v>52.115141367960817</v>
       </c>
       <c r="O14" s="282">
-        <f t="shared" ca="1" si="4"/>
-        <v>59.795762018815296</v>
+        <f ca="1">AVERAGE(O7:O11)</f>
+        <v>59.84095992947433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -24358,16 +26800,16 @@
         <v>6.9541966984422228</v>
       </c>
       <c r="M15" s="282">
-        <f t="shared" ref="M15:O15" si="5">MEDIAN(M7:M11)</f>
+        <f>MEDIAN(M7:M11)</f>
         <v>37.589600742804087</v>
       </c>
       <c r="N15" s="282">
-        <f t="shared" si="5"/>
+        <f>MEDIAN(N7:N11)</f>
         <v>43.549913941480206</v>
       </c>
       <c r="O15" s="282">
-        <f t="shared" ca="1" si="5"/>
-        <v>55.87936170212766</v>
+        <f ca="1">MEDIAN(O7:O11)</f>
+        <v>55.877059961315275</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -24423,7 +26865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716BD05-9983-4734-8502-2751C86206D4}">
   <dimension ref="B1:N131"/>
   <sheetViews>
@@ -28086,1624 +30528,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFD3C7E-257F-4B49-A708-ACE6390F92F6}">
-  <dimension ref="B2:N67"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65:N65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="88.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="177" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="178">
-        <f>SUM(C4:C14)</f>
-        <v>1704718</v>
-      </c>
-      <c r="D3" s="178">
-        <f t="shared" ref="D3:H3" si="0">SUM(D4:D14)</f>
-        <v>710006</v>
-      </c>
-      <c r="E3" s="178">
-        <f t="shared" si="0"/>
-        <v>791644</v>
-      </c>
-      <c r="F3" s="178">
-        <f t="shared" si="0"/>
-        <v>986749</v>
-      </c>
-      <c r="G3" s="178">
-        <f t="shared" si="0"/>
-        <v>520376</v>
-      </c>
-      <c r="H3" s="179">
-        <f t="shared" si="0"/>
-        <v>375099</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6">
-        <v>108429</v>
-      </c>
-      <c r="D4" s="6">
-        <v>157353</v>
-      </c>
-      <c r="E4" s="6">
-        <v>139347</v>
-      </c>
-      <c r="F4" s="6">
-        <v>154798</v>
-      </c>
-      <c r="G4" s="6">
-        <v>116513</v>
-      </c>
-      <c r="H4" s="6">
-        <v>148892</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1599311</v>
-      </c>
-      <c r="D5" s="6">
-        <v>565807</v>
-      </c>
-      <c r="E5" s="6">
-        <v>724560</v>
-      </c>
-      <c r="F5" s="6">
-        <v>750767</v>
-      </c>
-      <c r="G5" s="6">
-        <v>484533</v>
-      </c>
-      <c r="H5" s="6">
-        <v>330921</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6">
-        <v>597</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6461</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4100</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2955</v>
-      </c>
-      <c r="G6" s="6">
-        <v>117</v>
-      </c>
-      <c r="H6" s="6">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-39285</v>
-      </c>
-      <c r="D7" s="6">
-        <v>-14075</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-1513</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-23245</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-68125</v>
-      </c>
-      <c r="H7" s="6">
-        <v>-89425</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>21050</v>
-      </c>
-      <c r="E8" s="6">
-        <v>35575</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2823</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2877</v>
-      </c>
-      <c r="H8" s="6">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>-46324</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="6">
-        <v>36541</v>
-      </c>
-      <c r="D10" s="6">
-        <v>15216</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5538</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-60655</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-11278</v>
-      </c>
-      <c r="H10" s="6">
-        <v>7831</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>-29610</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>135714</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-119284</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-875</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4518</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3321</v>
-      </c>
-      <c r="F14" s="6">
-        <v>23592</v>
-      </c>
-      <c r="G14" s="6">
-        <v>-4261</v>
-      </c>
-      <c r="H14" s="6">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="180" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-119453</v>
-      </c>
-      <c r="D17" s="6">
-        <v>39573</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-207046</v>
-      </c>
-      <c r="F17" s="6">
-        <v>-275945</v>
-      </c>
-      <c r="G17" s="6">
-        <v>-86922</v>
-      </c>
-      <c r="H17" s="6">
-        <v>-76359</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="6">
-        <v>108600</v>
-      </c>
-      <c r="D18" s="6">
-        <v>61201</v>
-      </c>
-      <c r="E18" s="6">
-        <v>61301</v>
-      </c>
-      <c r="F18" s="6">
-        <v>96317</v>
-      </c>
-      <c r="G18" s="6">
-        <v>20046</v>
-      </c>
-      <c r="H18" s="6">
-        <v>26276</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="180" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5067</v>
-      </c>
-      <c r="D19" s="6">
-        <v>44489</v>
-      </c>
-      <c r="E19" s="6">
-        <v>47080</v>
-      </c>
-      <c r="F19" s="6">
-        <v>-27215</v>
-      </c>
-      <c r="G19" s="6">
-        <v>-41079</v>
-      </c>
-      <c r="H19" s="6">
-        <v>21712</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6">
-        <v>568190</v>
-      </c>
-      <c r="D20" s="6">
-        <v>-391398</v>
-      </c>
-      <c r="E20" s="6">
-        <v>81564</v>
-      </c>
-      <c r="F20" s="6">
-        <v>348721</v>
-      </c>
-      <c r="G20" s="6">
-        <v>-79482</v>
-      </c>
-      <c r="H20" s="6">
-        <v>363524</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="180" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="6">
-        <v>332363</v>
-      </c>
-      <c r="D21" s="6">
-        <v>-36679</v>
-      </c>
-      <c r="E21" s="6">
-        <v>234212</v>
-      </c>
-      <c r="F21" s="6">
-        <v>262358</v>
-      </c>
-      <c r="G21" s="6">
-        <v>-75571</v>
-      </c>
-      <c r="H21" s="6">
-        <v>164057</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-102946</v>
-      </c>
-      <c r="D22" s="6">
-        <v>-53234</v>
-      </c>
-      <c r="E22" s="6">
-        <v>-48332</v>
-      </c>
-      <c r="F22" s="6">
-        <v>-43759</v>
-      </c>
-      <c r="G22" s="6">
-        <v>-15292</v>
-      </c>
-      <c r="H22" s="6">
-        <v>-47356</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29">
-        <v>2517091</v>
-      </c>
-      <c r="D29">
-        <v>26067</v>
-      </c>
-      <c r="E29">
-        <v>33822</v>
-      </c>
-      <c r="F29">
-        <v>21655</v>
-      </c>
-      <c r="G29">
-        <v>10993</v>
-      </c>
-      <c r="H29">
-        <v>15051</v>
-      </c>
-      <c r="I29">
-        <v>23288.558514338827</v>
-      </c>
-      <c r="J29">
-        <v>24158.445714776972</v>
-      </c>
-      <c r="K29">
-        <v>25407.528957383165</v>
-      </c>
-      <c r="L29">
-        <v>26694.084697267543</v>
-      </c>
-      <c r="M29">
-        <v>28019.237109348443</v>
-      </c>
-      <c r="N29">
-        <v>29384.14409379178</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>682602</v>
-      </c>
-      <c r="E30">
-        <v>-44446</v>
-      </c>
-      <c r="F30">
-        <v>-67639</v>
-      </c>
-      <c r="G30">
-        <v>-72484</v>
-      </c>
-      <c r="H30">
-        <v>14042</v>
-      </c>
-      <c r="I30">
-        <v>-31924.699255937598</v>
-      </c>
-      <c r="J30">
-        <v>-32826.667879806737</v>
-      </c>
-      <c r="K30">
-        <v>-33776.15311329934</v>
-      </c>
-      <c r="L30">
-        <v>-34775.496642869046</v>
-      </c>
-      <c r="M30">
-        <v>-35827.152241143362</v>
-      </c>
-      <c r="N30">
-        <v>-36933.691059249519</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31">
-        <v>-942895</v>
-      </c>
-      <c r="D31">
-        <v>-196103</v>
-      </c>
-      <c r="E31">
-        <v>-61846</v>
-      </c>
-      <c r="F31">
-        <v>-41516</v>
-      </c>
-      <c r="G31">
-        <v>-60587</v>
-      </c>
-      <c r="H31">
-        <v>-134962</v>
-      </c>
-      <c r="I31">
-        <v>-156293.91741963645</v>
-      </c>
-      <c r="J31">
-        <v>-164034.01524452865</v>
-      </c>
-      <c r="K31">
-        <v>-173221.74169281006</v>
-      </c>
-      <c r="L31">
-        <v>-182844.76845702308</v>
-      </c>
-      <c r="M31">
-        <v>-192925.64716456199</v>
-      </c>
-      <c r="N31">
-        <v>-203488.17034705577</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>-50000</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C36" s="20">
-        <v>2019</v>
-      </c>
-      <c r="D36" s="20">
-        <f>C36+1</f>
-        <v>2020</v>
-      </c>
-      <c r="E36" s="20">
-        <f t="shared" ref="E36:N36" si="1">D36+1</f>
-        <v>2021</v>
-      </c>
-      <c r="F36" s="20">
-        <f t="shared" si="1"/>
-        <v>2022</v>
-      </c>
-      <c r="G36" s="20">
-        <f t="shared" si="1"/>
-        <v>2023</v>
-      </c>
-      <c r="H36" s="20">
-        <f t="shared" si="1"/>
-        <v>2024</v>
-      </c>
-      <c r="I36" s="27">
-        <f t="shared" si="1"/>
-        <v>2025</v>
-      </c>
-      <c r="J36" s="27">
-        <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-      <c r="K36" s="27">
-        <f t="shared" si="1"/>
-        <v>2027</v>
-      </c>
-      <c r="L36" s="27">
-        <f t="shared" si="1"/>
-        <v>2028</v>
-      </c>
-      <c r="M36" s="27">
-        <f t="shared" si="1"/>
-        <v>2029</v>
-      </c>
-      <c r="N36" s="27">
-        <f t="shared" si="1"/>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="88">
-        <f>C53/C46</f>
-        <v>3.7363729968127271E-2</v>
-      </c>
-      <c r="D38" s="88">
-        <f t="shared" ref="D38:H38" si="2">D53/D46</f>
-        <v>1.9856775330980798E-2</v>
-      </c>
-      <c r="E38" s="88">
-        <f t="shared" si="2"/>
-        <v>2.3198381969985613E-2</v>
-      </c>
-      <c r="F38" s="88">
-        <f t="shared" si="2"/>
-        <v>1.811854815135959E-2</v>
-      </c>
-      <c r="G38" s="88">
-        <f t="shared" si="2"/>
-        <v>1.1859491170044742E-2</v>
-      </c>
-      <c r="H38" s="88">
-        <f t="shared" si="2"/>
-        <v>7.4586977793783408E-3</v>
-      </c>
-      <c r="I38" s="63">
-        <f>AVERAGE(C38:H38)</f>
-        <v>1.9642604061646061E-2</v>
-      </c>
-      <c r="J38" s="63">
-        <f t="shared" ref="J38:N42" si="3">AVERAGE(D38:I38)</f>
-        <v>1.6689083077232523E-2</v>
-      </c>
-      <c r="K38" s="63">
-        <f t="shared" si="3"/>
-        <v>1.6161134368274477E-2</v>
-      </c>
-      <c r="L38" s="63">
-        <f t="shared" si="3"/>
-        <v>1.4988259767989287E-2</v>
-      </c>
-      <c r="M38" s="63">
-        <f t="shared" si="3"/>
-        <v>1.4466545037427571E-2</v>
-      </c>
-      <c r="N38" s="63">
-        <f t="shared" si="3"/>
-        <v>1.4901054015324711E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="88">
-        <f t="shared" ref="C39:H41" si="4">C54/C47</f>
-        <v>0.11823629652453325</v>
-      </c>
-      <c r="D39" s="88">
-        <f t="shared" si="4"/>
-        <v>3.4868480470875381E-2</v>
-      </c>
-      <c r="E39" s="88">
-        <f t="shared" si="4"/>
-        <v>5.9873257539784154E-2</v>
-      </c>
-      <c r="F39" s="88">
-        <f t="shared" si="4"/>
-        <v>5.7321683647030726E-2</v>
-      </c>
-      <c r="G39" s="88">
-        <f t="shared" si="4"/>
-        <v>3.6204559976968392E-2</v>
-      </c>
-      <c r="H39" s="88">
-        <f t="shared" si="4"/>
-        <v>1.8919789735050842E-2</v>
-      </c>
-      <c r="I39" s="63">
-        <f t="shared" ref="I39:I42" si="5">AVERAGE(C39:H39)</f>
-        <v>5.4237344649040453E-2</v>
-      </c>
-      <c r="J39" s="63">
-        <f t="shared" si="3"/>
-        <v>4.357085266979166E-2</v>
-      </c>
-      <c r="K39" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5021248036277696E-2</v>
-      </c>
-      <c r="L39" s="63">
-        <f t="shared" si="3"/>
-        <v>4.2545913119026633E-2</v>
-      </c>
-      <c r="M39" s="63">
-        <f t="shared" si="3"/>
-        <v>4.0083284697692616E-2</v>
-      </c>
-      <c r="N39" s="63">
-        <f t="shared" si="3"/>
-        <v>4.0729738817813319E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="88">
-        <f t="shared" si="4"/>
-        <v>0.64553346085385621</v>
-      </c>
-      <c r="D40" s="88">
-        <f t="shared" si="4"/>
-        <v>0.35817257453862283</v>
-      </c>
-      <c r="E40" s="88">
-        <f t="shared" si="4"/>
-        <v>0.45432953266969756</v>
-      </c>
-      <c r="F40" s="88">
-        <f t="shared" si="4"/>
-        <v>0.45750877999759565</v>
-      </c>
-      <c r="G40" s="88">
-        <f t="shared" si="4"/>
-        <v>0.38523805754826268</v>
-      </c>
-      <c r="H40" s="88">
-        <f t="shared" si="4"/>
-        <v>0.29675399737579738</v>
-      </c>
-      <c r="I40" s="63">
-        <f t="shared" si="5"/>
-        <v>0.43292273383063873</v>
-      </c>
-      <c r="J40" s="63">
-        <f t="shared" si="3"/>
-        <v>0.39748761266010241</v>
-      </c>
-      <c r="K40" s="63">
-        <f t="shared" si="3"/>
-        <v>0.40404011901368242</v>
-      </c>
-      <c r="L40" s="63">
-        <f t="shared" si="3"/>
-        <v>0.39565855007101325</v>
-      </c>
-      <c r="M40" s="63">
-        <f t="shared" si="3"/>
-        <v>0.38535017841658287</v>
-      </c>
-      <c r="N40" s="63">
-        <f t="shared" si="3"/>
-        <v>0.38536886522796948</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="88">
-        <f t="shared" si="4"/>
-        <v>8.849533607985044E-2</v>
-      </c>
-      <c r="D41" s="88">
-        <f t="shared" si="4"/>
-        <v>5.6169249947757911E-2</v>
-      </c>
-      <c r="E41" s="88">
-        <f t="shared" si="4"/>
-        <v>9.2956835826409914E-2</v>
-      </c>
-      <c r="F41" s="88">
-        <f t="shared" si="4"/>
-        <v>9.3821023796264238E-2</v>
-      </c>
-      <c r="G41" s="88">
-        <f t="shared" si="4"/>
-        <v>6.1708426541151426E-2</v>
-      </c>
-      <c r="H41" s="88">
-        <f t="shared" si="4"/>
-        <v>2.1909522771403803E-2</v>
-      </c>
-      <c r="I41" s="63">
-        <f t="shared" si="5"/>
-        <v>6.9176732493806278E-2</v>
-      </c>
-      <c r="J41" s="63">
-        <f t="shared" si="3"/>
-        <v>6.5956965229465606E-2</v>
-      </c>
-      <c r="K41" s="63">
-        <f t="shared" si="3"/>
-        <v>6.7588251109750211E-2</v>
-      </c>
-      <c r="L41" s="63">
-        <f t="shared" si="3"/>
-        <v>6.3360153656973589E-2</v>
-      </c>
-      <c r="M41" s="63">
-        <f t="shared" si="3"/>
-        <v>5.8283341967091819E-2</v>
-      </c>
-      <c r="N41" s="63">
-        <f t="shared" si="3"/>
-        <v>5.7712494538081881E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="88">
-        <f>C57/C50</f>
-        <v>0.33622237042120645</v>
-      </c>
-      <c r="D42" s="88">
-        <f t="shared" ref="D42:H42" si="6">D57/D50</f>
-        <v>0.18203264466609662</v>
-      </c>
-      <c r="E42" s="88">
-        <f t="shared" si="6"/>
-        <v>0.22762161465557348</v>
-      </c>
-      <c r="F42" s="88">
-        <f t="shared" si="6"/>
-        <v>0.18608826136310624</v>
-      </c>
-      <c r="G42" s="88">
-        <f t="shared" si="6"/>
-        <v>0.22392087982734077</v>
-      </c>
-      <c r="H42" s="88">
-        <f t="shared" si="6"/>
-        <v>0.17337210939800374</v>
-      </c>
-      <c r="I42" s="63">
-        <f t="shared" si="5"/>
-        <v>0.22154298005522119</v>
-      </c>
-      <c r="J42" s="63">
-        <f t="shared" si="3"/>
-        <v>0.202429748327557</v>
-      </c>
-      <c r="K42" s="63">
-        <f t="shared" si="3"/>
-        <v>0.20582926560446704</v>
-      </c>
-      <c r="L42" s="63">
-        <f t="shared" si="3"/>
-        <v>0.20219720742928271</v>
-      </c>
-      <c r="M42" s="63">
-        <f t="shared" si="3"/>
-        <v>0.20488203177364542</v>
-      </c>
-      <c r="N42" s="63">
-        <f t="shared" si="3"/>
-        <v>0.20170889043136286</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I43" s="63"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2176469</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1447516</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1702317</v>
-      </c>
-      <c r="F46" s="6">
-        <v>2435736</v>
-      </c>
-      <c r="G46" s="6">
-        <v>2543954</v>
-      </c>
-      <c r="H46" s="6">
-        <v>3337714</v>
-      </c>
-      <c r="I46" s="34">
-        <v>3509504.280725617</v>
-      </c>
-      <c r="J46" s="34">
-        <v>3640593.2380694742</v>
-      </c>
-      <c r="K46" s="34">
-        <v>3828825.7121493989</v>
-      </c>
-      <c r="L46" s="34">
-        <v>4022705.1604517195</v>
-      </c>
-      <c r="M46" s="34">
-        <v>4222400.9922031099</v>
-      </c>
-      <c r="N46" s="34">
-        <v>4428087.6989070419</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="6">
-        <v>636116</v>
-      </c>
-      <c r="D47" s="6">
-        <v>453963</v>
-      </c>
-      <c r="E47" s="6">
-        <v>402233</v>
-      </c>
-      <c r="F47" s="6">
-        <v>443846</v>
-      </c>
-      <c r="G47" s="6">
-        <v>427239</v>
-      </c>
-      <c r="H47" s="6">
-        <v>443821</v>
-      </c>
-      <c r="I47" s="34">
-        <v>417595.34666528151</v>
-      </c>
-      <c r="J47" s="34">
-        <v>392919.38316685474</v>
-      </c>
-      <c r="K47" s="34">
-        <v>384584.0958145677</v>
-      </c>
-      <c r="L47" s="34">
-        <v>382369.90921112726</v>
-      </c>
-      <c r="M47" s="34">
-        <v>373208.55322404118</v>
-      </c>
-      <c r="N47" s="34">
-        <v>365103.72533893719</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1505640</v>
-      </c>
-      <c r="D48" s="6">
-        <v>909126</v>
-      </c>
-      <c r="E48" s="6">
-        <v>911946</v>
-      </c>
-      <c r="F48" s="6">
-        <v>856777</v>
-      </c>
-      <c r="G48" s="6">
-        <v>555916</v>
-      </c>
-      <c r="H48" s="6">
-        <v>397073</v>
-      </c>
-      <c r="I48" s="34">
-        <v>353773.50893808797</v>
-      </c>
-      <c r="J48" s="34">
-        <v>315195.68347978179</v>
-      </c>
-      <c r="K48" s="34">
-        <v>280824.64168246475</v>
-      </c>
-      <c r="L48" s="34">
-        <v>250201.64776826123</v>
-      </c>
-      <c r="M48" s="34">
-        <v>250000</v>
-      </c>
-      <c r="N48" s="34">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="6">
-        <v>814122</v>
-      </c>
-      <c r="D49" s="6">
-        <v>416331</v>
-      </c>
-      <c r="E49" s="6">
-        <v>411406</v>
-      </c>
-      <c r="F49" s="6">
-        <v>531512</v>
-      </c>
-      <c r="G49" s="6">
-        <v>481004</v>
-      </c>
-      <c r="H49" s="6">
-        <v>788972</v>
-      </c>
-      <c r="I49" s="34">
-        <v>908837.85736368794</v>
-      </c>
-      <c r="J49" s="34">
-        <v>942785.27488665457</v>
-      </c>
-      <c r="K49" s="34">
-        <v>991530.84826253145</v>
-      </c>
-      <c r="L49" s="34">
-        <v>1041738.7888396842</v>
-      </c>
-      <c r="M49" s="34">
-        <v>1093452.9676341515</v>
-      </c>
-      <c r="N49" s="34">
-        <v>1146718.5717924528</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1186093</v>
-      </c>
-      <c r="D50" s="6">
-        <v>946127</v>
-      </c>
-      <c r="E50" s="6">
-        <v>915638</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1286180</v>
-      </c>
-      <c r="G50" s="6">
-        <v>871080</v>
-      </c>
-      <c r="H50" s="6">
-        <v>937348</v>
-      </c>
-      <c r="I50" s="34">
-        <v>923002.33530220867</v>
-      </c>
-      <c r="J50" s="34">
-        <v>908876.22417003172</v>
-      </c>
-      <c r="K50" s="34">
-        <v>894966.30644071684</v>
-      </c>
-      <c r="L50" s="34">
-        <v>881269.27337720222</v>
-      </c>
-      <c r="M50" s="34">
-        <v>867781.86688107112</v>
-      </c>
-      <c r="N50" s="34">
-        <v>854500.87871755101</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="6">
-        <v>81321</v>
-      </c>
-      <c r="D53" s="6">
-        <v>28743</v>
-      </c>
-      <c r="E53" s="6">
-        <v>39491</v>
-      </c>
-      <c r="F53" s="6">
-        <v>44132</v>
-      </c>
-      <c r="G53" s="6">
-        <v>30170</v>
-      </c>
-      <c r="H53" s="6">
-        <v>24895</v>
-      </c>
-      <c r="I53" s="34">
-        <f>I46*I38</f>
-        <v>68935.803038945247</v>
-      </c>
-      <c r="J53" s="34">
-        <f t="shared" ref="J53:N53" si="7">J46*J38</f>
-        <v>60758.163000552413</v>
-      </c>
-      <c r="K53" s="34">
-        <f t="shared" si="7"/>
-        <v>61878.166806750654</v>
-      </c>
-      <c r="L53" s="34">
-        <f t="shared" si="7"/>
-        <v>60293.349914881401</v>
-      </c>
-      <c r="M53" s="34">
-        <f t="shared" si="7"/>
-        <v>61083.554119785149</v>
-      </c>
-      <c r="N53" s="34">
-        <f t="shared" si="7"/>
-        <v>65983.17398600874</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="6">
-        <v>75212</v>
-      </c>
-      <c r="D54" s="6">
-        <v>15829</v>
-      </c>
-      <c r="E54" s="6">
-        <v>24083</v>
-      </c>
-      <c r="F54" s="6">
-        <v>25442</v>
-      </c>
-      <c r="G54" s="6">
-        <v>15468</v>
-      </c>
-      <c r="H54" s="6">
-        <v>8397</v>
-      </c>
-      <c r="I54" s="34">
-        <f t="shared" ref="I54:N57" si="8">I47*I39</f>
-        <v>22649.2627409204</v>
-      </c>
-      <c r="J54" s="34">
-        <f t="shared" si="8"/>
-        <v>17119.832555068446</v>
-      </c>
-      <c r="K54" s="34">
-        <f t="shared" si="8"/>
-        <v>17314.455968475238</v>
-      </c>
-      <c r="L54" s="34">
-        <f t="shared" si="8"/>
-        <v>16268.276936626722</v>
-      </c>
-      <c r="M54" s="34">
-        <f t="shared" si="8"/>
-        <v>14959.42469049321</v>
-      </c>
-      <c r="N54" s="34">
-        <f t="shared" si="8"/>
-        <v>14870.579374465562</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="6">
-        <v>971941</v>
-      </c>
-      <c r="D55" s="6">
-        <v>325624</v>
-      </c>
-      <c r="E55" s="6">
-        <v>414324</v>
-      </c>
-      <c r="F55" s="6">
-        <v>391983</v>
-      </c>
-      <c r="G55" s="6">
-        <v>214160</v>
-      </c>
-      <c r="H55" s="6">
-        <v>117833</v>
-      </c>
-      <c r="I55" s="34">
-        <f t="shared" si="8"/>
-        <v>153156.59464633494</v>
-      </c>
-      <c r="J55" s="34">
-        <f t="shared" si="8"/>
-        <v>125286.37974714774</v>
-      </c>
-      <c r="K55" s="34">
-        <f t="shared" si="8"/>
-        <v>113464.42164735778</v>
-      </c>
-      <c r="L55" s="34">
-        <f t="shared" si="8"/>
-        <v>98994.421181368612</v>
-      </c>
-      <c r="M55" s="34">
-        <f t="shared" si="8"/>
-        <v>96337.544604145718</v>
-      </c>
-      <c r="N55" s="34">
-        <f t="shared" si="8"/>
-        <v>96342.21630699237</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="6">
-        <v>72046</v>
-      </c>
-      <c r="D56" s="6">
-        <v>23385</v>
-      </c>
-      <c r="E56" s="6">
-        <v>38243</v>
-      </c>
-      <c r="F56" s="6">
-        <v>49867</v>
-      </c>
-      <c r="G56" s="6">
-        <v>29682</v>
-      </c>
-      <c r="H56" s="6">
-        <v>17286</v>
-      </c>
-      <c r="I56" s="34">
-        <f t="shared" si="8"/>
-        <v>62870.433339091906</v>
-      </c>
-      <c r="J56" s="34">
-        <f t="shared" si="8"/>
-        <v>62183.25559455125</v>
-      </c>
-      <c r="K56" s="34">
-        <f t="shared" si="8"/>
-        <v>67015.835955431612</v>
-      </c>
-      <c r="L56" s="34">
-        <f t="shared" si="8"/>
-        <v>66004.729731311949</v>
-      </c>
-      <c r="M56" s="34">
-        <f t="shared" si="8"/>
-        <v>63730.093237552632</v>
-      </c>
-      <c r="N56" s="34">
-        <f t="shared" si="8"/>
-        <v>66179.989311288984</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="6">
-        <v>398791</v>
-      </c>
-      <c r="D57" s="6">
-        <v>172226</v>
-      </c>
-      <c r="E57" s="6">
-        <v>208419</v>
-      </c>
-      <c r="F57" s="6">
-        <v>239343</v>
-      </c>
-      <c r="G57" s="6">
-        <v>195053</v>
-      </c>
-      <c r="H57" s="6">
-        <v>162510</v>
-      </c>
-      <c r="I57" s="34">
-        <f t="shared" si="8"/>
-        <v>204484.68796077979</v>
-      </c>
-      <c r="J57" s="34">
-        <f t="shared" si="8"/>
-        <v>183983.58531963979</v>
-      </c>
-      <c r="K57" s="34">
-        <f t="shared" si="8"/>
-        <v>184210.25759543516</v>
-      </c>
-      <c r="L57" s="34">
-        <f t="shared" si="8"/>
-        <v>178190.1860701034</v>
-      </c>
-      <c r="M57" s="34">
-        <f t="shared" si="8"/>
-        <v>177792.91202292097</v>
-      </c>
-      <c r="N57" s="34">
-        <f t="shared" si="8"/>
-        <v>172360.42411874179</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I59" s="34">
-        <f>SUM(I53:I57)</f>
-        <v>512096.78172607231</v>
-      </c>
-      <c r="J59" s="34">
-        <f t="shared" ref="J59:N59" si="9">SUM(J53:J57)</f>
-        <v>449331.21621695964</v>
-      </c>
-      <c r="K59" s="34">
-        <f t="shared" si="9"/>
-        <v>443883.13797345047</v>
-      </c>
-      <c r="L59" s="34">
-        <f t="shared" si="9"/>
-        <v>419750.96383429214</v>
-      </c>
-      <c r="M59" s="34">
-        <f t="shared" si="9"/>
-        <v>413903.52867489768</v>
-      </c>
-      <c r="N59" s="34">
-        <f t="shared" si="9"/>
-        <v>415736.38309749746</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I61">
-        <f ca="1">SUM(H24:H28)+Schedules!I69+Schedules!I62+Schedules!I28</f>
-        <v>-1842.5173039124529</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="83">
-        <f>DATE(2020,12,31)</f>
-        <v>44196</v>
-      </c>
-      <c r="E63" s="83">
-        <f>EOMONTH(D63,12)</f>
-        <v>44561</v>
-      </c>
-      <c r="F63" s="83">
-        <f t="shared" ref="F63:N63" si="10">EOMONTH(E63,12)</f>
-        <v>44926</v>
-      </c>
-      <c r="G63" s="83">
-        <f t="shared" si="10"/>
-        <v>45291</v>
-      </c>
-      <c r="H63" s="83">
-        <f t="shared" si="10"/>
-        <v>45657</v>
-      </c>
-      <c r="I63" s="83">
-        <f t="shared" si="10"/>
-        <v>46022</v>
-      </c>
-      <c r="J63" s="83">
-        <f t="shared" si="10"/>
-        <v>46387</v>
-      </c>
-      <c r="K63" s="83">
-        <f t="shared" si="10"/>
-        <v>46752</v>
-      </c>
-      <c r="L63" s="83">
-        <f t="shared" si="10"/>
-        <v>47118</v>
-      </c>
-      <c r="M63" s="83">
-        <f t="shared" si="10"/>
-        <v>47483</v>
-      </c>
-      <c r="N63" s="83">
-        <f t="shared" si="10"/>
-        <v>47848</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="63">
-        <f>('3_Statement_Model'!C64/'3_Statement_Model'!B64)-1</f>
-        <v>-0.28393818618141087</v>
-      </c>
-      <c r="E64" s="63">
-        <f>('3_Statement_Model'!D64/'3_Statement_Model'!C64)-1</f>
-        <v>8.2632939708063402E-2</v>
-      </c>
-      <c r="F64" s="63">
-        <f>('3_Statement_Model'!E64/'3_Statement_Model'!D64)-1</f>
-        <v>0.32632684152015479</v>
-      </c>
-      <c r="G64" s="63">
-        <f>('3_Statement_Model'!F64/'3_Statement_Model'!E64)-1</f>
-        <v>-5.6077891840406346E-2</v>
-      </c>
-      <c r="H64" s="63">
-        <f>('3_Statement_Model'!G64/'3_Statement_Model'!F64)-1</f>
-        <v>0.27171963153315581</v>
-      </c>
-      <c r="I64" s="79">
-        <f t="shared" ref="I64:N64" ca="1" si="11">OFFSET(I64,MATCH(S,$B$65:$B$67,0),0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J64" s="80">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="K64" s="80">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="L64" s="80">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="M64" s="80">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="N64" s="81">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" t="s">
-        <v>154</v>
-      </c>
-      <c r="I65" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="J65" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="K65" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="L65" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="M65" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="N65" s="63">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" t="s">
-        <v>155</v>
-      </c>
-      <c r="I66" s="63">
-        <f>_xlfn.FORECAST.ETS(I63,$D$64:$H$64,$D$63:$H$63,1)/3</f>
-        <v>9.770031228117225E-2</v>
-      </c>
-      <c r="J66" s="63">
-        <f t="shared" ref="J66:N66" si="12">_xlfn.FORECAST.ETS(J63,$D$64:$H$64,$D$63:$H$63,1)/3</f>
-        <v>0.12733243041682926</v>
-      </c>
-      <c r="K66" s="63">
-        <f t="shared" si="12"/>
-        <v>0.15696454855248618</v>
-      </c>
-      <c r="L66" s="63">
-        <f t="shared" si="12"/>
-        <v>0.18659666668814315</v>
-      </c>
-      <c r="M66" s="63">
-        <f t="shared" si="12"/>
-        <v>0.21622878482380012</v>
-      </c>
-      <c r="N66" s="63">
-        <f t="shared" si="12"/>
-        <v>0.24586090295945709</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H67" t="s">
-        <v>156</v>
-      </c>
-      <c r="I67" s="63">
-        <f>_xlfn.FORECAST.LINEAR(I63,$D$64:$H$64,$D$63:$H$63)/3</f>
-        <v>0.11999157786699637</v>
-      </c>
-      <c r="J67" s="63">
-        <f t="shared" ref="J67:N67" si="13">_xlfn.FORECAST.LINEAR(J63,$D$64:$H$64,$D$63:$H$63)/3</f>
-        <v>0.15239480057441668</v>
-      </c>
-      <c r="K67" s="63">
-        <f t="shared" si="13"/>
-        <v>0.184798023281837</v>
-      </c>
-      <c r="L67" s="63">
-        <f t="shared" si="13"/>
-        <v>0.21729002194188021</v>
-      </c>
-      <c r="M67" s="63">
-        <f t="shared" si="13"/>
-        <v>0.24969324464930054</v>
-      </c>
-      <c r="N67" s="63">
-        <f t="shared" si="13"/>
-        <v>0.28209646735672084</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Lyft/LYFT_FM.xlsx
+++ b/Lyft/LYFT_FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\Projects\IB Projects\Equity_Research\Lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA6E0B5-6CE7-4867-9804-ABDC3536AC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB2E70-69C8-4D5A-B334-1F690BD2E52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5483,7 +5483,7 @@
     <v>45912.999653205472</v>
     <v>3</v>
     <v>18.3</v>
-    <v>7567940730</v>
+    <v>7567941000</v>
     <v>LYFT, INC.</v>
     <v>LYFT, INC.</v>
     <v>18.375</v>
@@ -5537,7 +5537,7 @@
     <v>45912.999707303126</v>
     <v>6</v>
     <v>241.25</v>
-    <v>231107520000</v>
+    <v>231107500000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
     <v>246.095</v>
@@ -5595,7 +5595,7 @@
     <v>UBER TECHNOLOGIES, INC.</v>
     <v>UBER TECHNOLOGIES, INC.</v>
     <v>94.49</v>
-    <v>16.049700000000001</v>
+    <v>16.2547</v>
     <v>94.68</v>
     <v>95.89</v>
     <v>95.66</v>
@@ -5645,7 +5645,7 @@
     <v>45912.994574142969</v>
     <v>12</v>
     <v>926.93</v>
-    <v>193223680000</v>
+    <v>193223700000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
     <v>941.73</v>
@@ -5699,7 +5699,7 @@
     <v>45912.999684305469</v>
     <v>15</v>
     <v>645.30999999999995</v>
-    <v>180116394150</v>
+    <v>180116400000</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
     <v>658.45500000000004</v>
@@ -5753,7 +5753,7 @@
     <v>12</v>
     <v>Finance</v>
     <v>8</v>
-    <v>587.75</v>
+    <v>557.8999</v>
     <v>330.04</v>
     <v>1.4964</v>
     <v>-1.19</v>
@@ -26288,8 +26288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0EC0B7-98D9-477B-9B65-3B1531E12075}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26470,7 +26470,7 @@
       </c>
       <c r="D7" s="285" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(B7,"Market cap",TRUE)/1000000</f>
-        <v>231107.52</v>
+        <v>231107.5</v>
       </c>
       <c r="E7" s="265">
         <v>230320</v>
@@ -26503,7 +26503,7 @@
       </c>
       <c r="O7" s="266">
         <f ca="1">D7/J7</f>
-        <v>55.877059961315275</v>
+        <v>55.877055125725342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="D9" s="285" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Market cap",TRUE)/1000000</f>
-        <v>193223.67999999999</v>
+        <v>193223.7</v>
       </c>
       <c r="E9" s="265">
         <v>190990</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="O9" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>135.59556491228071</v>
+        <v>135.59557894736844</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="D10" s="285" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Market cap",TRUE)/1000000</f>
-        <v>180116.39415000001</v>
+        <v>180116.4</v>
       </c>
       <c r="E10" s="265">
         <v>186240</v>
@@ -26641,7 +26641,7 @@
       </c>
       <c r="O10" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>60.788523169085387</v>
+        <v>60.788525143435706</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -26716,7 +26716,7 @@
       </c>
       <c r="D13" s="285" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Market cap",TRUE)/1000000</f>
-        <v>7567.9407300000003</v>
+        <v>7567.9409999999998</v>
       </c>
       <c r="E13" s="286">
         <v>6420</v>
@@ -26779,7 +26779,7 @@
       </c>
       <c r="O14" s="282">
         <f ca="1">AVERAGE(O7:O11)</f>
-        <v>59.84095992947433</v>
+        <v>59.840962164243948</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -26809,7 +26809,7 @@
       </c>
       <c r="O15" s="282">
         <f ca="1">MEDIAN(O7:O11)</f>
-        <v>55.877059961315275</v>
+        <v>55.877055125725342</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/Lyft/LYFT_FM.xlsx
+++ b/Lyft/LYFT_FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\Projects\IB Projects\Equity_Research\Lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB2E70-69C8-4D5A-B334-1F690BD2E52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A6AEF-40E6-477A-9897-7DFA86441222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26289,7 +26289,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Lyft/LYFT_FM.xlsx
+++ b/Lyft/LYFT_FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\Projects\IB Projects\Equity_Research\Lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A6AEF-40E6-477A-9897-7DFA86441222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73684D81-8784-4E21-B370-C026D3FF89AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26289,7 +26289,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Lyft/LYFT_FM.xlsx
+++ b/Lyft/LYFT_FM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matsi\Desktop\Projects\IB Projects\Equity_Research\Lyft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73684D81-8784-4E21-B370-C026D3FF89AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499631F-9891-40BE-9D48-5994DE8D241E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APIC" sheetId="7" state="hidden" r:id="rId1"/>
@@ -5426,23 +5426,23 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>8.0999999999999996E-3</v>
-    <v>1.9950000000000002E-3</v>
+    <v>-4.0000000000000002E-4</v>
+    <v>-9.9159999999999993E-5</v>
     <v>US</v>
     <v>USD</v>
     <v>Bond</v>
-    <v>45912.878472222219</v>
+    <v>45916.595821759256</v>
     <v>0</v>
     <v>49536</v>
     <v>US Treasury 10Y</v>
-    <v>4.0599999999999996</v>
-    <v>4.0681000000000003</v>
+    <v>4.0339999999999998</v>
+    <v>4.0335999999999999</v>
     <v>US10Y</v>
     <v>US Treasury 10Y</v>
-    <v>4.2365000000000007E-2</v>
-    <v>4.086E-2</v>
-    <v>3.6569999999999998E-2</v>
-    <v>4.011E-2</v>
+    <v>4.3217999999999999E-2</v>
+    <v>4.0739999999999998E-2</v>
+    <v>3.6213999999999996E-2</v>
+    <v>4.0599999999999997E-2</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -5463,13 +5463,11 @@
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>19.350000000000001</v>
+    <v>20.5</v>
     <v>9.66</v>
-    <v>2.3586</v>
-    <v>0.3</v>
-    <v>0</v>
-    <v>1.6375999999999998E-2</v>
-    <v>0</v>
+    <v>2.3727999999999998</v>
+    <v>-0.47499999999999998</v>
+    <v>-2.3238999999999999E-2</v>
     <v>USD</v>
     <v>Lyft, Inc. is a global mobility platform offering rideshare, taxis, private hire vehicles, car sharing, bikes, and scooters across North America and Europe. It operates across 11 countries and in nearly 1,000 cities, and Lyft Urban Solutions supports bike sharing in 16 countries and more than 86 cities. Its Lyft mobile application (the Lyft App) connects riders with drivers for on-demand ride services and supports a variety of other multimodal mobility solutions. Its offerings on the Lyft App include an expanded set of transportation modes in select cities, such as access to a network of shared bikes and scooters (Light Vehicles) for shorter rides and first-mile and last-mile legs of multimodal trips. FREENOW by Lyft is the European taxi app featuring broad multi-mobility options. Through FREENOW, passengers can access various mobility services within a single app, including taxis, private hire vehicles, car sharing, car rental, e-scooters, e-bikes, e-mopeds, and public transport.</v>
     <v>2934</v>
@@ -5477,25 +5475,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>185 Berry Street, Suite 400, SAN FRANCISCO, CA, 94107 US</v>
-    <v>18.829999999999998</v>
+    <v>20.2</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.999653205472</v>
+    <v>45916.59825899297</v>
     <v>3</v>
-    <v>18.3</v>
-    <v>7567941000</v>
+    <v>19.600000000000001</v>
+    <v>8114604547</v>
     <v>LYFT, INC.</v>
     <v>LYFT, INC.</v>
-    <v>18.375</v>
-    <v>85.852199999999996</v>
-    <v>18.32</v>
-    <v>18.62</v>
-    <v>18.62</v>
+    <v>20.03</v>
+    <v>93.556700000000006</v>
+    <v>20.440000000000001</v>
+    <v>19.965</v>
     <v>406441500</v>
     <v>LYFT</v>
     <v>LYFT, INC. (XNAS:LYFT)</v>
-    <v>29849275</v>
-    <v>21608659</v>
+    <v>8516312</v>
+    <v>21050171</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -5519,11 +5516,9 @@
     <v>8</v>
     <v>369</v>
     <v>226.48</v>
-    <v>1.2113</v>
-    <v>-3.52</v>
-    <v>9.8860000000000007E-4</v>
-    <v>-1.4293E-2</v>
-    <v>0.24</v>
+    <v>1.2081</v>
+    <v>-3.2749999999999999</v>
+    <v>-1.3504E-2</v>
     <v>USD</v>
     <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company helps organizations of any size reimagine their business for the world of artificial intelligence (AI). With Agentforce, its platform, organizations can bring humans together with AI agents to drive customer success on one deeply unified platform. With the Salesforce platform, it delivers a single source of truth, connecting customer data with integrated AI across systems, apps and devices to help companies sell, service, market and conduct commerce from anywhere. Agentforce is a new layer of the Salesforce platform that enables companies to build and deploy AI agents that can respond to inputs, make decisions and take action autonomously across business functions. Agentforce includes a suite of customizable agents for use across sales, service, marketing and commerce. Datablazer is a data-driven innovator, which leverages the Company’s platform to unlock insights and drive decisions.</v>
     <v>76453</v>
@@ -5531,25 +5526,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>247.58879999999999</v>
+    <v>242.68</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.999707303126</v>
+    <v>45916.598273113283</v>
     <v>6</v>
-    <v>241.25</v>
-    <v>231107500000</v>
+    <v>237.24</v>
+    <v>227761240000</v>
     <v>SALESFORCE, INC.</v>
     <v>SALESFORCE, INC.</v>
-    <v>246.095</v>
-    <v>35.225499999999997</v>
-    <v>246.28</v>
-    <v>242.76</v>
-    <v>243</v>
+    <v>242.55</v>
+    <v>34.715499999999999</v>
+    <v>242.52</v>
+    <v>239.245</v>
     <v>952000000</v>
     <v>CRM</v>
     <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>8386354</v>
-    <v>10404849</v>
+    <v>2134696</v>
+    <v>10277198</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -5571,13 +5565,11 @@
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>97.715000000000003</v>
+    <v>99.7</v>
     <v>59.33</v>
-    <v>1.4809000000000001</v>
-    <v>1.21</v>
-    <v>-2.3990000000000001E-3</v>
-    <v>1.278E-2</v>
-    <v>-0.23</v>
+    <v>1.4827999999999999</v>
+    <v>-0.79</v>
+    <v>-7.9920000000000008E-3</v>
     <v>USD</v>
     <v>Uber Technologies, Inc. operates a technology platform that uses network and technology to power movement from point A to point B. It develops and operates technology applications supporting a variety of offerings on its platform (platform(s)). Its segments include Mobility, Delivery and Freight. Mobility products connect consumers with drivers who provide rides in a variety of vehicles, such as cars, auto rickshaws, motorbikes, minibuses, or taxis. Delivery offerings allow consumers to search for and discover local restaurants, order a meal, and either pick-up at the restaurant or have the meal delivered. In certain markets, the Delivery segment provides offerings for grocery, alcohol, and convenience store delivery as well as select other goods. The Freight segment connects carriers with shippers on its platform, and gives carriers upfront, pricing and the ability to book a shipment. The Freight segment also includes transportation management and other logistics service offerings.</v>
     <v>31100</v>
@@ -5585,25 +5577,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1725 3Rd Street, SAN FRANCISCO, CA, 94158 US</v>
-    <v>96.27</v>
+    <v>99.7</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.999991307814</v>
+    <v>45916.598237430466</v>
     <v>9</v>
-    <v>93.71</v>
-    <v>199970800000</v>
+    <v>97.57</v>
+    <v>204496187140</v>
     <v>UBER TECHNOLOGIES, INC.</v>
     <v>UBER TECHNOLOGIES, INC.</v>
-    <v>94.49</v>
-    <v>16.2547</v>
-    <v>94.68</v>
-    <v>95.89</v>
-    <v>95.66</v>
+    <v>99.38</v>
+    <v>16.622599999999998</v>
+    <v>98.85</v>
+    <v>98.06</v>
     <v>2085419000</v>
     <v>UBER</v>
     <v>UBER TECHNOLOGIES, INC. (XNYS:UBER)</v>
-    <v>13659231</v>
-    <v>16297277</v>
+    <v>4168863</v>
+    <v>15400354</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -5627,11 +5618,9 @@
     <v>8</v>
     <v>1198.0899999999999</v>
     <v>678.65880000000004</v>
-    <v>0.92849999999999999</v>
-    <v>-9.32</v>
-    <v>5.3819999999999996E-4</v>
-    <v>-9.9329999999999991E-3</v>
-    <v>0.5</v>
+    <v>0.92959999999999998</v>
+    <v>-14.81</v>
+    <v>-1.5632E-2</v>
     <v>USD</v>
     <v>ServiceNow, Inc. provides an artificial intelligence (AI) platform for business transformation. The Company’s AI platform connects people, processes, data, and devices to increase productivity and maximize business outcomes. Its intelligent platform, the Now Platform, is a cloud-based solution that helps enterprises and organizations across public and private sectors digitize workflows. The workflow applications built on the Now Platform are organized in four primary areas: technology, customer and industry, employee and creator. Its technology workflows empower information technology (IT) departments to plan, build, operate and service the IT needs of the business enterprise. Its customer and industry workflows help organizations reimagine their customer experience. Its employee workflows help customers simplify how their employees access services they need. Its creator workflows enable customers to automate processes by creating their own custom workflows on the Now Platform.</v>
     <v>26293</v>
@@ -5639,25 +5628,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Lane, SANTA CLARA, CA, 95054 US</v>
-    <v>941.85</v>
+    <v>946.43499999999995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.994574142969</v>
+    <v>45916.59819769609</v>
     <v>12</v>
-    <v>926.93</v>
-    <v>193223700000</v>
+    <v>931.21500000000003</v>
+    <v>193982880000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>941.73</v>
-    <v>117.0107</v>
-    <v>938.28</v>
-    <v>928.96</v>
-    <v>929.46</v>
+    <v>942.64</v>
+    <v>117.4705</v>
+    <v>947.42</v>
+    <v>932.61</v>
     <v>208000000</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>711217</v>
-    <v>1831586</v>
+    <v>197345</v>
+    <v>1733826</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -5681,11 +5669,9 @@
     <v>8</v>
     <v>813.7</v>
     <v>532.64499999999998</v>
-    <v>1.2544</v>
-    <v>-14.49</v>
-    <v>1.1919999999999999E-3</v>
-    <v>-2.1937000000000002E-2</v>
-    <v>0.77</v>
+    <v>1.2524</v>
+    <v>-1.5449999999999999</v>
+    <v>-2.372E-3</v>
     <v>USD</v>
     <v>Intuit Inc. offers a financial technology platform that helps consumers and small and mid-market businesses prosper by delivering financial management, compliance, and marketing products and services. It also provides specialized tax products to accounting professionals. Its offerings include TurboTax, Credit Karma, QuickBooks, and Mailchimp. Lacerte, ProSeries, and ProConnect Tax Online. Its Global Business Solutions segment serves small and mid-market businesses around the world, and the accounting professionals who assist and advise them. Its Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services sold in the United States and Canada. Its Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations for credit card, home, auto, and personal loan, and insurance products. Its ProTax segment serves professional accountants in the United States and Canada.</v>
     <v>18200</v>
@@ -5693,25 +5679,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2700 Coast Avenue, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>660.4</v>
+    <v>655.11</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45912.999684305469</v>
+    <v>45916.598241666405</v>
     <v>15</v>
-    <v>645.30999999999995</v>
-    <v>180116400000</v>
+    <v>644.46</v>
+    <v>181163306925</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
-    <v>658.45500000000004</v>
-    <v>48.314100000000003</v>
-    <v>660.52</v>
-    <v>646.03</v>
-    <v>646.79999999999995</v>
+    <v>651.84</v>
+    <v>47.528799999999997</v>
+    <v>651.33000000000004</v>
+    <v>649.78499999999997</v>
     <v>278805000</v>
     <v>INTU</v>
     <v>INTUIT INC. (XNAS:INTU)</v>
-    <v>2202314</v>
-    <v>2174286</v>
+    <v>233125</v>
+    <v>2225608</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -5755,11 +5740,9 @@
     <v>8</v>
     <v>557.8999</v>
     <v>330.04</v>
-    <v>1.4964</v>
-    <v>-1.19</v>
-    <v>-2.4620000000000002E-3</v>
-    <v>-3.3950000000000004E-3</v>
-    <v>-0.86</v>
+    <v>1.494</v>
+    <v>3.5</v>
+    <v>1.0083999999999999E-2</v>
     <v>USD</v>
     <v>Adobe Inc. is a global technology company. The Company's products, services and solutions are used around the world to imagine, create, manage, deliver, measure, optimize and engage with content across surfaces and fuel digital experiences. Its segments include Digital Media, Digital Experience, and Publishing and Advertising. The Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud, which include Adobe Express, Adobe Firefly, Photoshop and other products, offering a variety of tools for creative professionals, communicators and other consumers. The Digital Experience segment provides an integrated platform and set of products, services and solutions through Adobe Experience Cloud. The Publishing and Advertising segment contains legacy products and services. In addition, its Adobe GenStudio solution allows businesses to simplify their content supply chain process with generative artificial intelligence (AI) capabilities and intelligent automation.</v>
     <v>30709</v>
@@ -5767,26 +5750,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 Park Avenue, SAN JOSE, CA, 95110-2704 US</v>
-    <v>366.5</v>
+    <v>356.94</v>
     <v>21</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45912.999994039063</v>
+    <v>45916.598247314061</v>
     <v>22</v>
-    <v>341.61</v>
-    <v>148198500000</v>
+    <v>349.54250000000002</v>
+    <v>148724520000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>361.1</v>
-    <v>21.846299999999999</v>
-    <v>350.55</v>
-    <v>349.36</v>
-    <v>348.5</v>
+    <v>350.47</v>
+    <v>21.849399999999999</v>
+    <v>347.1</v>
+    <v>350.6</v>
     <v>424200000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>14146624</v>
-    <v>4020878</v>
+    <v>2175866</v>
+    <v>4530702</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -5850,9 +5832,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5873,7 +5853,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5909,9 +5888,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5933,7 +5910,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5977,7 +5953,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5988,16 +5964,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -6024,7 +5997,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -6035,16 +6008,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -6138,19 +6108,13 @@
       <v>10</v>
       <v>6</v>
       <v>8</v>
-      <v>2</v>
-      <v>2</v>
-      <v>4</v>
     </spb>
     <spb s="7">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -6190,9 +6154,6 @@
       <v>10</v>
       <v>6</v>
       <v>8</v>
-      <v>2</v>
-      <v>2</v>
-      <v>4</v>
     </spb>
     <spb s="11">
       <v>Powered by Refinitiv</v>
@@ -6262,9 +6223,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -6272,9 +6230,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -6309,9 +6264,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -17974,7 +17926,7 @@
       </c>
       <c r="C115" s="63" cm="1">
         <f t="array" aca="1" ref="C115" ca="1">_FV(D115,"Yield yesterday",TRUE)</f>
-        <v>4.011E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="D115" t="e" vm="1">
         <v>#VALUE!</v>
@@ -17986,7 +17938,7 @@
       </c>
       <c r="C116" s="258" cm="1">
         <f t="array" aca="1" ref="C116" ca="1">_FV(D116,"Beta")</f>
-        <v>2.3586</v>
+        <v>2.3727999999999998</v>
       </c>
       <c r="D116" t="e" vm="2">
         <v>#VALUE!</v>
@@ -18006,7 +17958,7 @@
       </c>
       <c r="C118" s="256">
         <f ca="1">C115+(C116*C117)</f>
-        <v>0.24790266</v>
+        <v>0.24964367999999998</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18015,7 +17967,7 @@
       </c>
       <c r="C120" s="259">
         <f ca="1">(D109*C118)+(D108*C113)</f>
-        <v>0.13169016798642508</v>
+        <v>0.13242938286624359</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18079,7 +18031,7 @@
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C125">
         <f ca="1">DCF!D33/Schedules!H123</f>
-        <v>15.361553499065563</v>
+        <v>15.274975276772718</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
@@ -25530,7 +25482,7 @@
       </c>
       <c r="D7" s="209">
         <f ca="1">Schedules!C120</f>
-        <v>0.13169016798642508</v>
+        <v>0.13242938286624359</v>
       </c>
       <c r="E7" s="200" t="s">
         <v>23</v>
@@ -25586,7 +25538,7 @@
       </c>
       <c r="D12" s="213" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_FV(B2,"Price")</f>
-        <v>18.62</v>
+        <v>19.965</v>
       </c>
       <c r="E12" s="200" t="s">
         <v>23</v>
@@ -25733,7 +25685,7 @@
       <c r="N19" s="217"/>
       <c r="O19" s="227">
         <f ca="1">(J27*(1+D8))/(D7-D8)</f>
-        <v>15935029.936710333</v>
+        <v>15820029.622250255</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -25808,7 +25760,7 @@
       </c>
       <c r="O21" s="234">
         <f ca="1">AVERAGE(O19:O20)</f>
-        <v>13777649.194206409</v>
+        <v>13720149.036976371</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -25997,11 +25949,11 @@
       </c>
       <c r="D28" s="240">
         <f ca="1">-I36</f>
-        <v>-6485564.8880200703</v>
+        <v>-7032228.7055200711</v>
       </c>
       <c r="K28" s="240">
         <f ca="1">O21</f>
-        <v>13777649.194206409</v>
+        <v>13720149.036976371</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -26037,7 +25989,7 @@
       </c>
       <c r="K29" s="239">
         <f ca="1">K28+K27</f>
-        <v>13777649.194206409</v>
+        <v>13720149.036976371</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -26046,7 +25998,7 @@
       </c>
       <c r="D30" s="227">
         <f ca="1">D28+D27</f>
-        <v>-6485564.8880200703</v>
+        <v>-7032228.7055200711</v>
       </c>
       <c r="E30" s="227">
         <f ca="1">(E28+E27)*E21</f>
@@ -26074,7 +26026,7 @@
       </c>
       <c r="K30" s="227">
         <f ca="1">K28</f>
-        <v>13777649.194206409</v>
+        <v>13720149.036976371</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -26101,7 +26053,7 @@
       <c r="C33" s="217"/>
       <c r="D33" s="227">
         <f ca="1">XNPV(D7,D29:K29,D19:K19)</f>
-        <v>11156585.968395717</v>
+        <v>11093707.081826091</v>
       </c>
       <c r="G33" s="217" t="s">
         <v>353</v>
@@ -26109,7 +26061,7 @@
       <c r="H33" s="217"/>
       <c r="I33" s="227">
         <f ca="1">D13*D12</f>
-        <v>7567940.7300000004</v>
+        <v>8114604.5475000003</v>
       </c>
       <c r="L33" s="217" t="s">
         <v>354</v>
@@ -26117,7 +26069,7 @@
       <c r="M33" s="217"/>
       <c r="N33" s="242">
         <f ca="1">D38/I38-1</f>
-        <v>0.6172116361666653</v>
+        <v>0.50051464030459836</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -26140,7 +26092,7 @@
       </c>
       <c r="N34" s="243">
         <f ca="1">XIRR(D30:K30,D19:K19)</f>
-        <v>0.27969321608543396</v>
+        <v>0.2551515877246856</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -26165,14 +26117,14 @@
       </c>
       <c r="D36" s="239">
         <f ca="1">D33+D34-D35</f>
-        <v>12238961.810375648</v>
+        <v>12176082.923806021</v>
       </c>
       <c r="G36" s="200" t="s">
         <v>352</v>
       </c>
       <c r="I36" s="239">
         <f ca="1">I33+I34-I35</f>
-        <v>6485564.8880200703</v>
+        <v>7032228.7055200711</v>
       </c>
       <c r="L36" s="223" t="s">
         <v>361</v>
@@ -26188,7 +26140,7 @@
       </c>
       <c r="N37" s="245">
         <f ca="1">I38</f>
-        <v>18.62</v>
+        <v>19.965</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -26197,21 +26149,21 @@
       </c>
       <c r="D38" s="245">
         <f ca="1">D36/D13</f>
-        <v>30.112480665423309</v>
+        <v>29.957774793681306</v>
       </c>
       <c r="G38" s="200" t="s">
         <v>362</v>
       </c>
       <c r="I38" s="245">
         <f ca="1">D12</f>
-        <v>18.62</v>
+        <v>19.965</v>
       </c>
       <c r="L38" s="200" t="s">
         <v>363</v>
       </c>
       <c r="N38" s="245">
         <f ca="1">D38-I38</f>
-        <v>11.492480665423308</v>
+        <v>9.9927747936813063</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -26221,7 +26173,7 @@
       </c>
       <c r="N39" s="245">
         <f ca="1">SUM(N37:N38)</f>
-        <v>30.112480665423309</v>
+        <v>29.957774793681306</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -26288,7 +26240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0EC0B7-98D9-477B-9B65-3B1531E12075}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -26466,11 +26418,11 @@
       </c>
       <c r="C7" s="284" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_FV(B7,"Price")</f>
-        <v>242.76</v>
+        <v>239.245</v>
       </c>
       <c r="D7" s="285" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(B7,"Market cap",TRUE)/1000000</f>
-        <v>231107.5</v>
+        <v>227761.24</v>
       </c>
       <c r="E7" s="265">
         <v>230320</v>
@@ -26503,7 +26455,7 @@
       </c>
       <c r="O7" s="266">
         <f ca="1">D7/J7</f>
-        <v>55.877055125725342</v>
+        <v>55.067998065764023</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -26512,11 +26464,11 @@
       </c>
       <c r="C8" s="284" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_FV(B8,"Price")</f>
-        <v>95.89</v>
+        <v>98.06</v>
       </c>
       <c r="D8" s="285" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">_FV(B8,"Market cap",TRUE)/1000000</f>
-        <v>199970.8</v>
+        <v>204496.18713999999</v>
       </c>
       <c r="E8" s="265">
         <v>202420</v>
@@ -26549,7 +26501,7 @@
       </c>
       <c r="O8" s="266">
         <f t="shared" ref="O8:O11" ca="1" si="3">D8/J8</f>
-        <v>20.289245129870128</v>
+        <v>20.748395610795455</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -26558,11 +26510,11 @@
       </c>
       <c r="C9" s="284" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Price")</f>
-        <v>928.96</v>
+        <v>932.61</v>
       </c>
       <c r="D9" s="285" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Market cap",TRUE)/1000000</f>
-        <v>193223.7</v>
+        <v>193982.88</v>
       </c>
       <c r="E9" s="265">
         <v>190990</v>
@@ -26595,7 +26547,7 @@
       </c>
       <c r="O9" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>135.59557894736844</v>
+        <v>136.12833684210526</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -26604,11 +26556,11 @@
       </c>
       <c r="C10" s="284" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">_FV(B10,"Price")</f>
-        <v>646.03</v>
+        <v>649.78499999999997</v>
       </c>
       <c r="D10" s="285" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Market cap",TRUE)/1000000</f>
-        <v>180116.4</v>
+        <v>181163.30692500001</v>
       </c>
       <c r="E10" s="265">
         <v>186240</v>
@@ -26641,7 +26593,7 @@
       </c>
       <c r="O10" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>60.788525143435706</v>
+        <v>61.141851814039832</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -26650,11 +26602,11 @@
       </c>
       <c r="C11" s="284" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_FV(B11,"Price")</f>
-        <v>349.36</v>
+        <v>350.6</v>
       </c>
       <c r="D11" s="285" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Market cap",TRUE)/1000000</f>
-        <v>148198.5</v>
+        <v>148724.51999999999</v>
       </c>
       <c r="E11" s="265">
         <v>149550</v>
@@ -26687,7 +26639,7 @@
       </c>
       <c r="O11" s="266">
         <f t="shared" ca="1" si="3"/>
-        <v>26.654406474820142</v>
+        <v>26.749014388489208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -26712,11 +26664,11 @@
       </c>
       <c r="C13" s="283" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">_FV(B13,"Price")</f>
-        <v>18.62</v>
+        <v>19.965</v>
       </c>
       <c r="D13" s="285" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Market cap",TRUE)/1000000</f>
-        <v>7567.9409999999998</v>
+        <v>8114.6045469999999</v>
       </c>
       <c r="E13" s="286">
         <v>6420</v>
@@ -26779,7 +26731,7 @@
       </c>
       <c r="O14" s="282">
         <f ca="1">AVERAGE(O7:O11)</f>
-        <v>59.840962164243948</v>
+        <v>59.967119344238753</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -26809,7 +26761,7 @@
       </c>
       <c r="O15" s="282">
         <f ca="1">MEDIAN(O7:O11)</f>
-        <v>55.877055125725342</v>
+        <v>55.067998065764023</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -26869,9 +26821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716BD05-9983-4734-8502-2751C86206D4}">
   <dimension ref="B1:N131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
